--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ACH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25860900</v>
+        <v>26602800</v>
       </c>
       <c r="E8" s="3">
-        <v>25972800</v>
+        <v>25226600</v>
       </c>
       <c r="F8" s="3">
-        <v>20694000</v>
+        <v>25335600</v>
       </c>
       <c r="G8" s="3">
-        <v>17716300</v>
+        <v>20186300</v>
       </c>
       <c r="H8" s="3">
-        <v>20374100</v>
+        <v>17281600</v>
       </c>
       <c r="I8" s="3">
-        <v>24688100</v>
+        <v>19874300</v>
       </c>
       <c r="J8" s="3">
+        <v>24082500</v>
+      </c>
+      <c r="K8" s="3">
         <v>20580300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21649200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23965400</v>
+        <v>24905400</v>
       </c>
       <c r="E9" s="3">
-        <v>23894100</v>
+        <v>23377400</v>
       </c>
       <c r="F9" s="3">
-        <v>19179600</v>
+        <v>23307900</v>
       </c>
       <c r="G9" s="3">
-        <v>17358600</v>
+        <v>18709100</v>
       </c>
       <c r="H9" s="3">
-        <v>40528500</v>
+        <v>16932700</v>
       </c>
       <c r="I9" s="3">
-        <v>47830400</v>
+        <v>39534200</v>
       </c>
       <c r="J9" s="3">
+        <v>46657000</v>
+      </c>
+      <c r="K9" s="3">
         <v>42072400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20497100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1895500</v>
+        <v>1697400</v>
       </c>
       <c r="E10" s="3">
-        <v>2078700</v>
+        <v>1849200</v>
       </c>
       <c r="F10" s="3">
-        <v>1514400</v>
+        <v>2027700</v>
       </c>
       <c r="G10" s="3">
-        <v>357600</v>
+        <v>1477200</v>
       </c>
       <c r="H10" s="3">
-        <v>-20154300</v>
+        <v>348900</v>
       </c>
       <c r="I10" s="3">
-        <v>-23142300</v>
+        <v>-19659900</v>
       </c>
       <c r="J10" s="3">
+        <v>-22574500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-21492100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1152100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89900</v>
+        <v>131700</v>
       </c>
       <c r="E12" s="3">
-        <v>71500</v>
+        <v>87700</v>
       </c>
       <c r="F12" s="3">
-        <v>24200</v>
+        <v>69700</v>
       </c>
       <c r="G12" s="3">
-        <v>24200</v>
+        <v>23600</v>
       </c>
       <c r="H12" s="3">
-        <v>42100</v>
+        <v>23600</v>
       </c>
       <c r="I12" s="3">
-        <v>27800</v>
+        <v>41100</v>
       </c>
       <c r="J12" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K12" s="3">
         <v>26500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>47400</v>
+        <v>-35600</v>
       </c>
       <c r="E14" s="3">
-        <v>-44300</v>
+        <v>51800</v>
       </c>
       <c r="F14" s="3">
-        <v>-92300</v>
+        <v>-43200</v>
       </c>
       <c r="G14" s="3">
-        <v>-489300</v>
+        <v>-90000</v>
       </c>
       <c r="H14" s="3">
-        <v>850700</v>
+        <v>-477300</v>
       </c>
       <c r="I14" s="3">
-        <v>-914500</v>
+        <v>829800</v>
       </c>
       <c r="J14" s="3">
+        <v>-892100</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>29800</v>
+        <v>29700</v>
       </c>
       <c r="E15" s="3">
-        <v>28900</v>
+        <v>33400</v>
       </c>
       <c r="F15" s="3">
-        <v>32100</v>
+        <v>28200</v>
       </c>
       <c r="G15" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="H15" s="3">
-        <v>36400</v>
+        <v>31800</v>
       </c>
       <c r="I15" s="3">
-        <v>32000</v>
+        <v>35500</v>
       </c>
       <c r="J15" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K15" s="3">
         <v>67100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>37800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24877500</v>
+        <v>25699300</v>
       </c>
       <c r="E17" s="3">
-        <v>24867600</v>
+        <v>24272800</v>
       </c>
       <c r="F17" s="3">
-        <v>19860300</v>
+        <v>24257500</v>
       </c>
       <c r="G17" s="3">
-        <v>17002100</v>
+        <v>19373100</v>
       </c>
       <c r="H17" s="3">
-        <v>21912700</v>
+        <v>16584900</v>
       </c>
       <c r="I17" s="3">
-        <v>47442400</v>
+        <v>21375100</v>
       </c>
       <c r="J17" s="3">
+        <v>46278500</v>
+      </c>
+      <c r="K17" s="3">
         <v>21162900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21118700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>983400</v>
+        <v>903400</v>
       </c>
       <c r="E18" s="3">
-        <v>1105200</v>
+        <v>953800</v>
       </c>
       <c r="F18" s="3">
-        <v>833600</v>
+        <v>1078100</v>
       </c>
       <c r="G18" s="3">
-        <v>714200</v>
+        <v>813200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1538500</v>
+        <v>696700</v>
       </c>
       <c r="I18" s="3">
-        <v>-22754300</v>
+        <v>-1500800</v>
       </c>
       <c r="J18" s="3">
+        <v>-22196100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-582500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>530500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>48800</v>
+        <v>81500</v>
       </c>
       <c r="E20" s="3">
-        <v>60000</v>
+        <v>47600</v>
       </c>
       <c r="F20" s="3">
-        <v>128500</v>
+        <v>58500</v>
       </c>
       <c r="G20" s="3">
-        <v>147000</v>
+        <v>125300</v>
       </c>
       <c r="H20" s="3">
-        <v>212000</v>
+        <v>143400</v>
       </c>
       <c r="I20" s="3">
-        <v>286000</v>
+        <v>206800</v>
       </c>
       <c r="J20" s="3">
+        <v>278900</v>
+      </c>
+      <c r="K20" s="3">
         <v>86800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>103900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2153400</v>
+        <v>2175800</v>
       </c>
       <c r="E21" s="3">
-        <v>2146900</v>
+        <v>2092000</v>
       </c>
       <c r="F21" s="3">
-        <v>1940700</v>
+        <v>2091500</v>
       </c>
       <c r="G21" s="3">
-        <v>1892000</v>
+        <v>1890400</v>
       </c>
       <c r="H21" s="3">
-        <v>-285800</v>
+        <v>1842700</v>
       </c>
       <c r="I21" s="3">
-        <v>-21430700</v>
+        <v>-281700</v>
       </c>
       <c r="J21" s="3">
+        <v>-20907800</v>
+      </c>
+      <c r="K21" s="3">
         <v>398500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1487000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>701700</v>
+        <v>689100</v>
       </c>
       <c r="E22" s="3">
-        <v>727700</v>
+        <v>684500</v>
       </c>
       <c r="F22" s="3">
-        <v>728900</v>
+        <v>709800</v>
       </c>
       <c r="G22" s="3">
-        <v>841500</v>
+        <v>711000</v>
       </c>
       <c r="H22" s="3">
-        <v>964200</v>
+        <v>820900</v>
       </c>
       <c r="I22" s="3">
-        <v>853600</v>
+        <v>940500</v>
       </c>
       <c r="J22" s="3">
+        <v>832600</v>
+      </c>
+      <c r="K22" s="3">
         <v>627400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>513100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>330500</v>
+        <v>295800</v>
       </c>
       <c r="E23" s="3">
-        <v>437500</v>
+        <v>316900</v>
       </c>
       <c r="F23" s="3">
-        <v>233200</v>
+        <v>426700</v>
       </c>
       <c r="G23" s="3">
-        <v>19600</v>
+        <v>227500</v>
       </c>
       <c r="H23" s="3">
-        <v>-2290800</v>
+        <v>19200</v>
       </c>
       <c r="I23" s="3">
-        <v>-23321900</v>
+        <v>-2234600</v>
       </c>
       <c r="J23" s="3">
+        <v>-22749700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1123100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>118000</v>
+        <v>87600</v>
       </c>
       <c r="E24" s="3">
-        <v>92400</v>
+        <v>115100</v>
       </c>
       <c r="F24" s="3">
-        <v>58000</v>
+        <v>90100</v>
       </c>
       <c r="G24" s="3">
-        <v>-33000</v>
+        <v>56600</v>
       </c>
       <c r="H24" s="3">
-        <v>154200</v>
+        <v>-32200</v>
       </c>
       <c r="I24" s="3">
-        <v>48700</v>
+        <v>150400</v>
       </c>
       <c r="J24" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-53200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>212500</v>
+        <v>208300</v>
       </c>
       <c r="E26" s="3">
-        <v>345100</v>
+        <v>201800</v>
       </c>
       <c r="F26" s="3">
-        <v>175200</v>
+        <v>336600</v>
       </c>
       <c r="G26" s="3">
-        <v>52700</v>
+        <v>170900</v>
       </c>
       <c r="H26" s="3">
-        <v>-2445000</v>
+        <v>51400</v>
       </c>
       <c r="I26" s="3">
-        <v>-23370600</v>
+        <v>-2385000</v>
       </c>
       <c r="J26" s="3">
+        <v>-22797200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1069800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>102500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>88600</v>
+        <v>88400</v>
       </c>
       <c r="E27" s="3">
-        <v>187000</v>
+        <v>80900</v>
       </c>
       <c r="F27" s="3">
-        <v>37100</v>
+        <v>182400</v>
       </c>
       <c r="G27" s="3">
-        <v>18600</v>
+        <v>36200</v>
       </c>
       <c r="H27" s="3">
-        <v>-2325500</v>
+        <v>18100</v>
       </c>
       <c r="I27" s="3">
-        <v>-23338400</v>
+        <v>-2268500</v>
       </c>
       <c r="J27" s="3">
+        <v>-22765800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1011000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1306,21 +1366,24 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-170400</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-48800</v>
+        <v>-81500</v>
       </c>
       <c r="E32" s="3">
-        <v>-60000</v>
+        <v>-47600</v>
       </c>
       <c r="F32" s="3">
-        <v>-128500</v>
+        <v>-58500</v>
       </c>
       <c r="G32" s="3">
-        <v>-147000</v>
+        <v>-125300</v>
       </c>
       <c r="H32" s="3">
-        <v>-212000</v>
+        <v>-143400</v>
       </c>
       <c r="I32" s="3">
-        <v>-286000</v>
+        <v>-206800</v>
       </c>
       <c r="J32" s="3">
+        <v>-278900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-86800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-103900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88600</v>
+        <v>88400</v>
       </c>
       <c r="E33" s="3">
-        <v>187000</v>
+        <v>80900</v>
       </c>
       <c r="F33" s="3">
-        <v>37100</v>
+        <v>182400</v>
       </c>
       <c r="G33" s="3">
-        <v>18600</v>
+        <v>36200</v>
       </c>
       <c r="H33" s="3">
-        <v>-2325500</v>
+        <v>18100</v>
       </c>
       <c r="I33" s="3">
-        <v>-23308700</v>
+        <v>-2268500</v>
       </c>
       <c r="J33" s="3">
+        <v>-22736800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1181400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88600</v>
+        <v>88400</v>
       </c>
       <c r="E35" s="3">
-        <v>187000</v>
+        <v>80900</v>
       </c>
       <c r="F35" s="3">
-        <v>37100</v>
+        <v>182400</v>
       </c>
       <c r="G35" s="3">
-        <v>18600</v>
+        <v>36200</v>
       </c>
       <c r="H35" s="3">
-        <v>-2325500</v>
+        <v>18100</v>
       </c>
       <c r="I35" s="3">
-        <v>-23308700</v>
+        <v>-2268500</v>
       </c>
       <c r="J35" s="3">
+        <v>-22736800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1181400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2744900</v>
+        <v>1087500</v>
       </c>
       <c r="E41" s="3">
-        <v>3993900</v>
+        <v>2681400</v>
       </c>
       <c r="F41" s="3">
-        <v>3416800</v>
+        <v>3901500</v>
       </c>
       <c r="G41" s="3">
-        <v>2978100</v>
+        <v>3337700</v>
       </c>
       <c r="H41" s="3">
-        <v>2334200</v>
+        <v>2909200</v>
       </c>
       <c r="I41" s="3">
-        <v>1782900</v>
+        <v>2280200</v>
       </c>
       <c r="J41" s="3">
+        <v>1741600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1571900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78400</v>
+        <v>657200</v>
       </c>
       <c r="E42" s="3">
-        <v>145800</v>
+        <v>168400</v>
       </c>
       <c r="F42" s="3">
-        <v>137000</v>
+        <v>142400</v>
       </c>
       <c r="G42" s="3">
-        <v>154500</v>
+        <v>133800</v>
       </c>
       <c r="H42" s="3">
-        <v>777200</v>
+        <v>150900</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>759200</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2061800</v>
+        <v>1941300</v>
       </c>
       <c r="E43" s="3">
-        <v>2172500</v>
+        <v>1978800</v>
       </c>
       <c r="F43" s="3">
-        <v>2573100</v>
+        <v>2122200</v>
       </c>
       <c r="G43" s="3">
-        <v>2176800</v>
+        <v>2513600</v>
       </c>
       <c r="H43" s="3">
-        <v>2020800</v>
+        <v>2126500</v>
       </c>
       <c r="I43" s="3">
-        <v>3194600</v>
+        <v>1974100</v>
       </c>
       <c r="J43" s="3">
+        <v>3120600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1099500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1325200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2935600</v>
+        <v>2735300</v>
       </c>
       <c r="E44" s="3">
-        <v>2948200</v>
+        <v>2867600</v>
       </c>
       <c r="F44" s="3">
-        <v>2573100</v>
+        <v>2879900</v>
       </c>
       <c r="G44" s="3">
-        <v>5813600</v>
+        <v>2513500</v>
       </c>
       <c r="H44" s="3">
-        <v>3234500</v>
+        <v>5679100</v>
       </c>
       <c r="I44" s="3">
-        <v>6753900</v>
+        <v>3159700</v>
       </c>
       <c r="J44" s="3">
+        <v>6597600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3672600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3580300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>629800</v>
+        <v>406400</v>
       </c>
       <c r="E45" s="3">
-        <v>588700</v>
+        <v>559400</v>
       </c>
       <c r="F45" s="3">
-        <v>839500</v>
+        <v>575100</v>
       </c>
       <c r="G45" s="3">
-        <v>3294800</v>
+        <v>820100</v>
       </c>
       <c r="H45" s="3">
-        <v>1287900</v>
+        <v>3218600</v>
       </c>
       <c r="I45" s="3">
-        <v>3588500</v>
+        <v>1258100</v>
       </c>
       <c r="J45" s="3">
+        <v>3505500</v>
+      </c>
+      <c r="K45" s="3">
         <v>956100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>931900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8450300</v>
+        <v>6827700</v>
       </c>
       <c r="E46" s="3">
-        <v>9849100</v>
+        <v>8255600</v>
       </c>
       <c r="F46" s="3">
-        <v>9539500</v>
+        <v>9621200</v>
       </c>
       <c r="G46" s="3">
-        <v>9249100</v>
+        <v>9318800</v>
       </c>
       <c r="H46" s="3">
-        <v>9124800</v>
+        <v>9035100</v>
       </c>
       <c r="I46" s="3">
-        <v>9048600</v>
+        <v>8913700</v>
       </c>
       <c r="J46" s="3">
+        <v>8839200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7032800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7416000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1677500</v>
+        <v>2139700</v>
       </c>
       <c r="E47" s="3">
-        <v>2171100</v>
+        <v>1638700</v>
       </c>
       <c r="F47" s="3">
-        <v>1965300</v>
+        <v>2120900</v>
       </c>
       <c r="G47" s="3">
-        <v>3299900</v>
+        <v>1919800</v>
       </c>
       <c r="H47" s="3">
-        <v>2272000</v>
+        <v>3223500</v>
       </c>
       <c r="I47" s="3">
-        <v>1346100</v>
+        <v>2219400</v>
       </c>
       <c r="J47" s="3">
+        <v>1314900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2756700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>592900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15402500</v>
+        <v>16920800</v>
       </c>
       <c r="E48" s="3">
-        <v>13911800</v>
+        <v>15053900</v>
       </c>
       <c r="F48" s="3">
-        <v>13218000</v>
+        <v>13589900</v>
       </c>
       <c r="G48" s="3">
-        <v>26088900</v>
+        <v>12912100</v>
       </c>
       <c r="H48" s="3">
-        <v>11528000</v>
+        <v>25485200</v>
       </c>
       <c r="I48" s="3">
-        <v>28869900</v>
+        <v>11261300</v>
       </c>
       <c r="J48" s="3">
+        <v>28201900</v>
+      </c>
+      <c r="K48" s="3">
         <v>13809700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13917200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2462100</v>
+        <v>1929200</v>
       </c>
       <c r="E49" s="3">
-        <v>2039500</v>
+        <v>2408800</v>
       </c>
       <c r="F49" s="3">
-        <v>2002200</v>
+        <v>1992300</v>
       </c>
       <c r="G49" s="3">
-        <v>3879100</v>
+        <v>1955900</v>
       </c>
       <c r="H49" s="3">
-        <v>2045200</v>
+        <v>3789400</v>
       </c>
       <c r="I49" s="3">
-        <v>3901600</v>
+        <v>1997900</v>
       </c>
       <c r="J49" s="3">
+        <v>3811300</v>
+      </c>
+      <c r="K49" s="3">
         <v>983400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>995400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>829400</v>
+        <v>644900</v>
       </c>
       <c r="E52" s="3">
-        <v>698200</v>
+        <v>810200</v>
       </c>
       <c r="F52" s="3">
-        <v>609600</v>
+        <v>682000</v>
       </c>
       <c r="G52" s="3">
-        <v>2148000</v>
+        <v>595500</v>
       </c>
       <c r="H52" s="3">
-        <v>722900</v>
+        <v>2098300</v>
       </c>
       <c r="I52" s="3">
-        <v>2188700</v>
+        <v>706100</v>
       </c>
       <c r="J52" s="3">
+        <v>2138100</v>
+      </c>
+      <c r="K52" s="3">
         <v>528700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>398800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28821700</v>
+        <v>28462400</v>
       </c>
       <c r="E54" s="3">
-        <v>28669700</v>
+        <v>28167200</v>
       </c>
       <c r="F54" s="3">
-        <v>27334600</v>
+        <v>28006300</v>
       </c>
       <c r="G54" s="3">
-        <v>27556500</v>
+        <v>26702100</v>
       </c>
       <c r="H54" s="3">
-        <v>27669200</v>
+        <v>26918900</v>
       </c>
       <c r="I54" s="3">
-        <v>28625300</v>
+        <v>27029000</v>
       </c>
       <c r="J54" s="3">
+        <v>27962900</v>
+      </c>
+      <c r="K54" s="3">
         <v>25111400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23320300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2009800</v>
+        <v>1763900</v>
       </c>
       <c r="E57" s="3">
-        <v>1773500</v>
+        <v>1963500</v>
       </c>
       <c r="F57" s="3">
-        <v>1627500</v>
+        <v>1732400</v>
       </c>
       <c r="G57" s="3">
-        <v>2113000</v>
+        <v>1589800</v>
       </c>
       <c r="H57" s="3">
-        <v>5413100</v>
+        <v>2064100</v>
       </c>
       <c r="I57" s="3">
-        <v>1258400</v>
+        <v>5287800</v>
       </c>
       <c r="J57" s="3">
+        <v>1229300</v>
+      </c>
+      <c r="K57" s="3">
         <v>700700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1558500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6817200</v>
+        <v>5926900</v>
       </c>
       <c r="E58" s="3">
-        <v>9036500</v>
+        <v>6666800</v>
       </c>
       <c r="F58" s="3">
-        <v>8387800</v>
+        <v>8827400</v>
       </c>
       <c r="G58" s="3">
-        <v>7857100</v>
+        <v>8193700</v>
       </c>
       <c r="H58" s="3">
-        <v>11563500</v>
+        <v>7675300</v>
       </c>
       <c r="I58" s="3">
-        <v>8480600</v>
+        <v>11295900</v>
       </c>
       <c r="J58" s="3">
+        <v>8284300</v>
+      </c>
+      <c r="K58" s="3">
         <v>10056600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7216800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1897900</v>
+        <v>2004100</v>
       </c>
       <c r="E59" s="3">
-        <v>3970700</v>
+        <v>1858800</v>
       </c>
       <c r="F59" s="3">
-        <v>1919400</v>
+        <v>3878800</v>
       </c>
       <c r="G59" s="3">
-        <v>3457900</v>
+        <v>1875000</v>
       </c>
       <c r="H59" s="3">
-        <v>1910000</v>
+        <v>3377900</v>
       </c>
       <c r="I59" s="3">
-        <v>6894200</v>
+        <v>1865800</v>
       </c>
       <c r="J59" s="3">
+        <v>6734600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>479600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10724900</v>
+        <v>9694800</v>
       </c>
       <c r="E60" s="3">
-        <v>12961600</v>
+        <v>10489100</v>
       </c>
       <c r="F60" s="3">
-        <v>11934600</v>
+        <v>12661600</v>
       </c>
       <c r="G60" s="3">
-        <v>11737700</v>
+        <v>11658500</v>
       </c>
       <c r="H60" s="3">
-        <v>14982500</v>
+        <v>11466100</v>
       </c>
       <c r="I60" s="3">
-        <v>13879900</v>
+        <v>14635800</v>
       </c>
       <c r="J60" s="3">
+        <v>13558700</v>
+      </c>
+      <c r="K60" s="3">
         <v>12031300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9254900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7777700</v>
+        <v>8303600</v>
       </c>
       <c r="E61" s="3">
-        <v>5780800</v>
+        <v>7597700</v>
       </c>
       <c r="F61" s="3">
-        <v>6789900</v>
+        <v>5647000</v>
       </c>
       <c r="G61" s="3">
-        <v>7748000</v>
+        <v>6632800</v>
       </c>
       <c r="H61" s="3">
-        <v>6423500</v>
+        <v>7568800</v>
       </c>
       <c r="I61" s="3">
-        <v>6642400</v>
+        <v>6274900</v>
       </c>
       <c r="J61" s="3">
+        <v>6488700</v>
+      </c>
+      <c r="K61" s="3">
         <v>5256500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5338100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>609900</v>
+        <v>551200</v>
       </c>
       <c r="E62" s="3">
-        <v>494600</v>
+        <v>595800</v>
       </c>
       <c r="F62" s="3">
-        <v>605800</v>
+        <v>483200</v>
       </c>
       <c r="G62" s="3">
-        <v>1099000</v>
+        <v>591800</v>
       </c>
       <c r="H62" s="3">
-        <v>573700</v>
+        <v>1073500</v>
       </c>
       <c r="I62" s="3">
-        <v>397800</v>
+        <v>560400</v>
       </c>
       <c r="J62" s="3">
+        <v>388600</v>
+      </c>
+      <c r="K62" s="3">
         <v>108600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21301200</v>
+        <v>20801300</v>
       </c>
       <c r="E66" s="3">
-        <v>22975300</v>
+        <v>20820700</v>
       </c>
       <c r="F66" s="3">
-        <v>21858200</v>
+        <v>22443600</v>
       </c>
       <c r="G66" s="3">
-        <v>21823700</v>
+        <v>21352400</v>
       </c>
       <c r="H66" s="3">
-        <v>23608600</v>
+        <v>21318700</v>
       </c>
       <c r="I66" s="3">
-        <v>22260800</v>
+        <v>23062300</v>
       </c>
       <c r="J66" s="3">
+        <v>21745700</v>
+      </c>
+      <c r="K66" s="3">
         <v>18825900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15628800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2136000</v>
+        <v>686700</v>
       </c>
       <c r="E72" s="3">
-        <v>521500</v>
+        <v>2081100</v>
       </c>
       <c r="F72" s="3">
-        <v>332200</v>
+        <v>509500</v>
       </c>
       <c r="G72" s="3">
-        <v>4475400</v>
+        <v>324500</v>
       </c>
       <c r="H72" s="3">
-        <v>267700</v>
+        <v>4371800</v>
       </c>
       <c r="I72" s="3">
-        <v>4424000</v>
+        <v>261500</v>
       </c>
       <c r="J72" s="3">
+        <v>4321600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2468400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3783100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7520500</v>
+        <v>7661100</v>
       </c>
       <c r="E76" s="3">
-        <v>5694400</v>
+        <v>7346500</v>
       </c>
       <c r="F76" s="3">
-        <v>5476400</v>
+        <v>5562700</v>
       </c>
       <c r="G76" s="3">
-        <v>5732900</v>
+        <v>5349700</v>
       </c>
       <c r="H76" s="3">
-        <v>4060600</v>
+        <v>5600200</v>
       </c>
       <c r="I76" s="3">
-        <v>6364400</v>
+        <v>3966600</v>
       </c>
       <c r="J76" s="3">
+        <v>6217200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6285500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7691500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88600</v>
+        <v>88400</v>
       </c>
       <c r="E81" s="3">
-        <v>187000</v>
+        <v>80900</v>
       </c>
       <c r="F81" s="3">
-        <v>37100</v>
+        <v>182400</v>
       </c>
       <c r="G81" s="3">
-        <v>18600</v>
+        <v>36200</v>
       </c>
       <c r="H81" s="3">
-        <v>-2325500</v>
+        <v>18100</v>
       </c>
       <c r="I81" s="3">
-        <v>-23308700</v>
+        <v>-2268500</v>
       </c>
       <c r="J81" s="3">
+        <v>-22736800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1181400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1121600</v>
+        <v>1194700</v>
       </c>
       <c r="E83" s="3">
-        <v>982100</v>
+        <v>1094100</v>
       </c>
       <c r="F83" s="3">
-        <v>978900</v>
+        <v>958000</v>
       </c>
       <c r="G83" s="3">
-        <v>1031200</v>
+        <v>954900</v>
       </c>
       <c r="H83" s="3">
-        <v>1041100</v>
+        <v>1005900</v>
       </c>
       <c r="I83" s="3">
-        <v>1038000</v>
+        <v>1015600</v>
       </c>
       <c r="J83" s="3">
+        <v>1012500</v>
+      </c>
+      <c r="K83" s="3">
         <v>894500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>851100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1867800</v>
+        <v>1745800</v>
       </c>
       <c r="E89" s="3">
-        <v>1894700</v>
+        <v>1824000</v>
       </c>
       <c r="F89" s="3">
-        <v>1654400</v>
+        <v>1848300</v>
       </c>
       <c r="G89" s="3">
-        <v>1047000</v>
+        <v>1613800</v>
       </c>
       <c r="H89" s="3">
-        <v>1982700</v>
+        <v>1021300</v>
       </c>
       <c r="I89" s="3">
-        <v>1183900</v>
+        <v>1934100</v>
       </c>
       <c r="J89" s="3">
+        <v>1154900</v>
+      </c>
+      <c r="K89" s="3">
         <v>161000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>369500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-967900</v>
+        <v>-1244500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1275800</v>
+        <v>-944300</v>
       </c>
       <c r="F91" s="3">
-        <v>-895700</v>
+        <v>-1244500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1319800</v>
+        <v>-873800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1153300</v>
+        <v>-1287400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1217700</v>
+        <v>-1125000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1187800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1312600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1269300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-793200</v>
+        <v>-1874400</v>
       </c>
       <c r="E94" s="3">
-        <v>-803100</v>
+        <v>-773900</v>
       </c>
       <c r="F94" s="3">
-        <v>-717200</v>
+        <v>-783400</v>
       </c>
       <c r="G94" s="3">
-        <v>343400</v>
+        <v>-699600</v>
       </c>
       <c r="H94" s="3">
-        <v>-706100</v>
+        <v>334900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1102800</v>
+        <v>-688800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1075700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3322000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1441700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3073,26 +3306,29 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-62400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-42700</v>
+        <v>-60800</v>
       </c>
       <c r="H96" s="3">
-        <v>-32200</v>
+        <v>-41700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-31400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-22800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2333900</v>
+        <v>-1465900</v>
       </c>
       <c r="E100" s="3">
-        <v>-487700</v>
+        <v>-2278600</v>
       </c>
       <c r="F100" s="3">
-        <v>-526800</v>
+        <v>-475700</v>
       </c>
       <c r="G100" s="3">
-        <v>-778500</v>
+        <v>-513900</v>
       </c>
       <c r="H100" s="3">
-        <v>-576300</v>
+        <v>-759400</v>
       </c>
       <c r="I100" s="3">
-        <v>252300</v>
+        <v>-562100</v>
       </c>
       <c r="J100" s="3">
+        <v>246100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2931100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1312300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10300</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-31800</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>27500</v>
+        <v>-31000</v>
       </c>
       <c r="G101" s="3">
-        <v>16500</v>
+        <v>26800</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>16100</v>
       </c>
       <c r="I101" s="3">
+        <v>800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1249000</v>
+        <v>-1591600</v>
       </c>
       <c r="E102" s="3">
-        <v>572100</v>
+        <v>-1220500</v>
       </c>
       <c r="F102" s="3">
-        <v>437800</v>
+        <v>558100</v>
       </c>
       <c r="G102" s="3">
-        <v>628300</v>
+        <v>427100</v>
       </c>
       <c r="H102" s="3">
-        <v>701200</v>
+        <v>612900</v>
       </c>
       <c r="I102" s="3">
-        <v>332600</v>
+        <v>684000</v>
       </c>
       <c r="J102" s="3">
+        <v>324400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-219200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>238700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26602800</v>
+        <v>27604500</v>
       </c>
       <c r="E8" s="3">
-        <v>25226600</v>
+        <v>26176500</v>
       </c>
       <c r="F8" s="3">
-        <v>25335600</v>
+        <v>26289600</v>
       </c>
       <c r="G8" s="3">
-        <v>20186300</v>
+        <v>20946400</v>
       </c>
       <c r="H8" s="3">
-        <v>17281600</v>
+        <v>17932300</v>
       </c>
       <c r="I8" s="3">
-        <v>19874300</v>
+        <v>20622600</v>
       </c>
       <c r="J8" s="3">
-        <v>24082500</v>
+        <v>24989300</v>
       </c>
       <c r="K8" s="3">
         <v>20580300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24905400</v>
+        <v>25843100</v>
       </c>
       <c r="E9" s="3">
-        <v>23377400</v>
+        <v>24257700</v>
       </c>
       <c r="F9" s="3">
-        <v>23307900</v>
+        <v>24185500</v>
       </c>
       <c r="G9" s="3">
-        <v>18709100</v>
+        <v>19413500</v>
       </c>
       <c r="H9" s="3">
-        <v>16932700</v>
+        <v>17570300</v>
       </c>
       <c r="I9" s="3">
-        <v>39534200</v>
+        <v>41022800</v>
       </c>
       <c r="J9" s="3">
-        <v>46657000</v>
+        <v>48413800</v>
       </c>
       <c r="K9" s="3">
         <v>42072400</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1697400</v>
+        <v>1761300</v>
       </c>
       <c r="E10" s="3">
-        <v>1849200</v>
+        <v>1918800</v>
       </c>
       <c r="F10" s="3">
-        <v>2027700</v>
+        <v>2104100</v>
       </c>
       <c r="G10" s="3">
-        <v>1477200</v>
+        <v>1532800</v>
       </c>
       <c r="H10" s="3">
-        <v>348900</v>
+        <v>362000</v>
       </c>
       <c r="I10" s="3">
-        <v>-19659900</v>
+        <v>-20400200</v>
       </c>
       <c r="J10" s="3">
-        <v>-22574500</v>
+        <v>-23424600</v>
       </c>
       <c r="K10" s="3">
         <v>-21492100</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>131700</v>
+        <v>136600</v>
       </c>
       <c r="E12" s="3">
-        <v>87700</v>
+        <v>91000</v>
       </c>
       <c r="F12" s="3">
-        <v>69700</v>
+        <v>72400</v>
       </c>
       <c r="G12" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="H12" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="I12" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="J12" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="K12" s="3">
         <v>26500</v>
@@ -899,25 +899,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-35600</v>
+        <v>-74600</v>
       </c>
       <c r="E14" s="3">
-        <v>51800</v>
+        <v>47000</v>
       </c>
       <c r="F14" s="3">
-        <v>-43200</v>
+        <v>-47200</v>
       </c>
       <c r="G14" s="3">
-        <v>-90000</v>
+        <v>-101700</v>
       </c>
       <c r="H14" s="3">
-        <v>-477300</v>
+        <v>-496800</v>
       </c>
       <c r="I14" s="3">
-        <v>829800</v>
+        <v>36200</v>
       </c>
       <c r="J14" s="3">
-        <v>-892100</v>
+        <v>-998400</v>
       </c>
       <c r="K14" s="3">
         <v>4000</v>
@@ -932,25 +932,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="E15" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="F15" s="3">
-        <v>28200</v>
+        <v>29300</v>
       </c>
       <c r="G15" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="H15" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="I15" s="3">
-        <v>35500</v>
+        <v>36900</v>
       </c>
       <c r="J15" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="K15" s="3">
         <v>67100</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>25699300</v>
+        <v>26667000</v>
       </c>
       <c r="E17" s="3">
-        <v>24272800</v>
+        <v>25186700</v>
       </c>
       <c r="F17" s="3">
-        <v>24257500</v>
+        <v>25170900</v>
       </c>
       <c r="G17" s="3">
-        <v>19373100</v>
+        <v>20102600</v>
       </c>
       <c r="H17" s="3">
-        <v>16584900</v>
+        <v>17209400</v>
       </c>
       <c r="I17" s="3">
-        <v>21375100</v>
+        <v>22179900</v>
       </c>
       <c r="J17" s="3">
-        <v>46278500</v>
+        <v>48021100</v>
       </c>
       <c r="K17" s="3">
         <v>21162900</v>
@@ -1010,25 +1010,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>903400</v>
+        <v>937500</v>
       </c>
       <c r="E18" s="3">
-        <v>953800</v>
+        <v>989700</v>
       </c>
       <c r="F18" s="3">
-        <v>1078100</v>
+        <v>1118700</v>
       </c>
       <c r="G18" s="3">
-        <v>813200</v>
+        <v>843800</v>
       </c>
       <c r="H18" s="3">
-        <v>696700</v>
+        <v>722900</v>
       </c>
       <c r="I18" s="3">
-        <v>-1500800</v>
+        <v>-1557300</v>
       </c>
       <c r="J18" s="3">
-        <v>-22196100</v>
+        <v>-23031800</v>
       </c>
       <c r="K18" s="3">
         <v>-582500</v>
@@ -1058,25 +1058,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>81500</v>
+        <v>84600</v>
       </c>
       <c r="E20" s="3">
-        <v>47600</v>
+        <v>49400</v>
       </c>
       <c r="F20" s="3">
-        <v>58500</v>
+        <v>60700</v>
       </c>
       <c r="G20" s="3">
-        <v>125300</v>
+        <v>130100</v>
       </c>
       <c r="H20" s="3">
-        <v>143400</v>
+        <v>148800</v>
       </c>
       <c r="I20" s="3">
-        <v>206800</v>
+        <v>214500</v>
       </c>
       <c r="J20" s="3">
-        <v>278900</v>
+        <v>289400</v>
       </c>
       <c r="K20" s="3">
         <v>86800</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2175800</v>
+        <v>2257000</v>
       </c>
       <c r="E21" s="3">
-        <v>2092000</v>
+        <v>2170100</v>
       </c>
       <c r="F21" s="3">
-        <v>2091500</v>
+        <v>2169700</v>
       </c>
       <c r="G21" s="3">
-        <v>1890400</v>
+        <v>1961000</v>
       </c>
       <c r="H21" s="3">
-        <v>1842700</v>
+        <v>1911500</v>
       </c>
       <c r="I21" s="3">
-        <v>-281700</v>
+        <v>-292900</v>
       </c>
       <c r="J21" s="3">
-        <v>-20907800</v>
+        <v>-21695700</v>
       </c>
       <c r="K21" s="3">
         <v>398500</v>
@@ -1124,25 +1124,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>689100</v>
+        <v>715000</v>
       </c>
       <c r="E22" s="3">
-        <v>684500</v>
+        <v>710200</v>
       </c>
       <c r="F22" s="3">
-        <v>709800</v>
+        <v>736600</v>
       </c>
       <c r="G22" s="3">
-        <v>711000</v>
+        <v>737800</v>
       </c>
       <c r="H22" s="3">
-        <v>820900</v>
+        <v>851800</v>
       </c>
       <c r="I22" s="3">
-        <v>940500</v>
+        <v>976000</v>
       </c>
       <c r="J22" s="3">
-        <v>832600</v>
+        <v>864000</v>
       </c>
       <c r="K22" s="3">
         <v>627400</v>
@@ -1157,25 +1157,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>295800</v>
+        <v>307000</v>
       </c>
       <c r="E23" s="3">
-        <v>316900</v>
+        <v>328900</v>
       </c>
       <c r="F23" s="3">
-        <v>426700</v>
+        <v>442800</v>
       </c>
       <c r="G23" s="3">
-        <v>227500</v>
+        <v>236100</v>
       </c>
       <c r="H23" s="3">
-        <v>19200</v>
+        <v>19900</v>
       </c>
       <c r="I23" s="3">
-        <v>-2234600</v>
+        <v>-2318700</v>
       </c>
       <c r="J23" s="3">
-        <v>-22749700</v>
+        <v>-23606300</v>
       </c>
       <c r="K23" s="3">
         <v>-1123100</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>87600</v>
+        <v>90900</v>
       </c>
       <c r="E24" s="3">
-        <v>115100</v>
+        <v>119500</v>
       </c>
       <c r="F24" s="3">
-        <v>90100</v>
+        <v>93500</v>
       </c>
       <c r="G24" s="3">
-        <v>56600</v>
+        <v>58700</v>
       </c>
       <c r="H24" s="3">
-        <v>-32200</v>
+        <v>-33400</v>
       </c>
       <c r="I24" s="3">
-        <v>150400</v>
+        <v>156100</v>
       </c>
       <c r="J24" s="3">
-        <v>47500</v>
+        <v>49300</v>
       </c>
       <c r="K24" s="3">
         <v>-53200</v>
@@ -1256,25 +1256,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>208300</v>
+        <v>216100</v>
       </c>
       <c r="E26" s="3">
-        <v>201800</v>
+        <v>209400</v>
       </c>
       <c r="F26" s="3">
-        <v>336600</v>
+        <v>349300</v>
       </c>
       <c r="G26" s="3">
-        <v>170900</v>
+        <v>177400</v>
       </c>
       <c r="H26" s="3">
-        <v>51400</v>
+        <v>53300</v>
       </c>
       <c r="I26" s="3">
-        <v>-2385000</v>
+        <v>-2474800</v>
       </c>
       <c r="J26" s="3">
-        <v>-22797200</v>
+        <v>-23655600</v>
       </c>
       <c r="K26" s="3">
         <v>-1069800</v>
@@ -1289,25 +1289,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>88400</v>
+        <v>91700</v>
       </c>
       <c r="E27" s="3">
-        <v>80900</v>
+        <v>84000</v>
       </c>
       <c r="F27" s="3">
-        <v>182400</v>
+        <v>189200</v>
       </c>
       <c r="G27" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H27" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I27" s="3">
-        <v>-2268500</v>
+        <v>-2353900</v>
       </c>
       <c r="J27" s="3">
-        <v>-22765800</v>
+        <v>-23623000</v>
       </c>
       <c r="K27" s="3">
         <v>-1011000</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>29000</v>
+        <v>30100</v>
       </c>
       <c r="K29" s="3">
         <v>-170400</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-81500</v>
+        <v>-84600</v>
       </c>
       <c r="E32" s="3">
-        <v>-47600</v>
+        <v>-49400</v>
       </c>
       <c r="F32" s="3">
-        <v>-58500</v>
+        <v>-60700</v>
       </c>
       <c r="G32" s="3">
-        <v>-125300</v>
+        <v>-130100</v>
       </c>
       <c r="H32" s="3">
-        <v>-143400</v>
+        <v>-148800</v>
       </c>
       <c r="I32" s="3">
-        <v>-206800</v>
+        <v>-214500</v>
       </c>
       <c r="J32" s="3">
-        <v>-278900</v>
+        <v>-289400</v>
       </c>
       <c r="K32" s="3">
         <v>-86800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88400</v>
+        <v>91700</v>
       </c>
       <c r="E33" s="3">
-        <v>80900</v>
+        <v>84000</v>
       </c>
       <c r="F33" s="3">
-        <v>182400</v>
+        <v>189200</v>
       </c>
       <c r="G33" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H33" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2268500</v>
+        <v>-2353900</v>
       </c>
       <c r="J33" s="3">
-        <v>-22736800</v>
+        <v>-23593000</v>
       </c>
       <c r="K33" s="3">
         <v>-1181400</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88400</v>
+        <v>91700</v>
       </c>
       <c r="E35" s="3">
-        <v>80900</v>
+        <v>84000</v>
       </c>
       <c r="F35" s="3">
-        <v>182400</v>
+        <v>189200</v>
       </c>
       <c r="G35" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H35" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2268500</v>
+        <v>-2353900</v>
       </c>
       <c r="J35" s="3">
-        <v>-22736800</v>
+        <v>-23593000</v>
       </c>
       <c r="K35" s="3">
         <v>-1181400</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1087500</v>
+        <v>1126900</v>
       </c>
       <c r="E41" s="3">
-        <v>2681400</v>
+        <v>2778400</v>
       </c>
       <c r="F41" s="3">
-        <v>3901500</v>
+        <v>4042600</v>
       </c>
       <c r="G41" s="3">
-        <v>3337700</v>
+        <v>3458500</v>
       </c>
       <c r="H41" s="3">
-        <v>2909200</v>
+        <v>3014400</v>
       </c>
       <c r="I41" s="3">
-        <v>2280200</v>
+        <v>2362700</v>
       </c>
       <c r="J41" s="3">
-        <v>1741600</v>
+        <v>1804600</v>
       </c>
       <c r="K41" s="3">
         <v>1300400</v>
@@ -1687,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>657200</v>
+        <v>680900</v>
       </c>
       <c r="E42" s="3">
-        <v>168400</v>
+        <v>174500</v>
       </c>
       <c r="F42" s="3">
-        <v>142400</v>
+        <v>147600</v>
       </c>
       <c r="G42" s="3">
-        <v>133800</v>
+        <v>138700</v>
       </c>
       <c r="H42" s="3">
-        <v>150900</v>
+        <v>156400</v>
       </c>
       <c r="I42" s="3">
-        <v>759200</v>
+        <v>786700</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1941300</v>
+        <v>2011600</v>
       </c>
       <c r="E43" s="3">
-        <v>1978800</v>
+        <v>2050400</v>
       </c>
       <c r="F43" s="3">
-        <v>2122200</v>
+        <v>2199000</v>
       </c>
       <c r="G43" s="3">
-        <v>2513600</v>
+        <v>2604500</v>
       </c>
       <c r="H43" s="3">
-        <v>2126500</v>
+        <v>2203400</v>
       </c>
       <c r="I43" s="3">
-        <v>1974100</v>
+        <v>2045500</v>
       </c>
       <c r="J43" s="3">
-        <v>3120600</v>
+        <v>3233500</v>
       </c>
       <c r="K43" s="3">
         <v>1099500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2735300</v>
+        <v>2834200</v>
       </c>
       <c r="E44" s="3">
-        <v>2867600</v>
+        <v>2971400</v>
       </c>
       <c r="F44" s="3">
-        <v>2879900</v>
+        <v>2984100</v>
       </c>
       <c r="G44" s="3">
-        <v>2513500</v>
+        <v>2604500</v>
       </c>
       <c r="H44" s="3">
-        <v>5679100</v>
+        <v>5884500</v>
       </c>
       <c r="I44" s="3">
-        <v>3159700</v>
+        <v>3274000</v>
       </c>
       <c r="J44" s="3">
-        <v>6597600</v>
+        <v>6836300</v>
       </c>
       <c r="K44" s="3">
         <v>3672600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>406400</v>
+        <v>421100</v>
       </c>
       <c r="E45" s="3">
-        <v>559400</v>
+        <v>579700</v>
       </c>
       <c r="F45" s="3">
-        <v>575100</v>
+        <v>595900</v>
       </c>
       <c r="G45" s="3">
-        <v>820100</v>
+        <v>849800</v>
       </c>
       <c r="H45" s="3">
-        <v>3218600</v>
+        <v>3335000</v>
       </c>
       <c r="I45" s="3">
-        <v>1258100</v>
+        <v>1303600</v>
       </c>
       <c r="J45" s="3">
-        <v>3505500</v>
+        <v>3632300</v>
       </c>
       <c r="K45" s="3">
         <v>956100</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6827700</v>
+        <v>7074700</v>
       </c>
       <c r="E46" s="3">
-        <v>8255600</v>
+        <v>8554300</v>
       </c>
       <c r="F46" s="3">
-        <v>9621200</v>
+        <v>9969200</v>
       </c>
       <c r="G46" s="3">
-        <v>9318800</v>
+        <v>9655900</v>
       </c>
       <c r="H46" s="3">
-        <v>9035100</v>
+        <v>9361900</v>
       </c>
       <c r="I46" s="3">
-        <v>8913700</v>
+        <v>9236100</v>
       </c>
       <c r="J46" s="3">
-        <v>8839200</v>
+        <v>9159000</v>
       </c>
       <c r="K46" s="3">
         <v>7032800</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2139700</v>
+        <v>2217100</v>
       </c>
       <c r="E47" s="3">
-        <v>1638700</v>
+        <v>1697900</v>
       </c>
       <c r="F47" s="3">
-        <v>2120900</v>
+        <v>2197600</v>
       </c>
       <c r="G47" s="3">
-        <v>1919800</v>
+        <v>1989300</v>
       </c>
       <c r="H47" s="3">
-        <v>3223500</v>
+        <v>3340100</v>
       </c>
       <c r="I47" s="3">
-        <v>2219400</v>
+        <v>2299700</v>
       </c>
       <c r="J47" s="3">
-        <v>1314900</v>
+        <v>1362500</v>
       </c>
       <c r="K47" s="3">
         <v>2756700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16920800</v>
+        <v>17532900</v>
       </c>
       <c r="E48" s="3">
-        <v>15053900</v>
+        <v>15598400</v>
       </c>
       <c r="F48" s="3">
-        <v>13589900</v>
+        <v>14081500</v>
       </c>
       <c r="G48" s="3">
-        <v>12912100</v>
+        <v>13379200</v>
       </c>
       <c r="H48" s="3">
-        <v>25485200</v>
+        <v>26407100</v>
       </c>
       <c r="I48" s="3">
-        <v>11261300</v>
+        <v>11668600</v>
       </c>
       <c r="J48" s="3">
-        <v>28201900</v>
+        <v>29222000</v>
       </c>
       <c r="K48" s="3">
         <v>13809700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1929200</v>
+        <v>1999000</v>
       </c>
       <c r="E49" s="3">
-        <v>2408800</v>
+        <v>2496000</v>
       </c>
       <c r="F49" s="3">
-        <v>1992300</v>
+        <v>2064400</v>
       </c>
       <c r="G49" s="3">
-        <v>1955900</v>
+        <v>2026700</v>
       </c>
       <c r="H49" s="3">
-        <v>3789400</v>
+        <v>3926400</v>
       </c>
       <c r="I49" s="3">
-        <v>1997900</v>
+        <v>2070200</v>
       </c>
       <c r="J49" s="3">
-        <v>3811300</v>
+        <v>3949200</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>644900</v>
+        <v>668300</v>
       </c>
       <c r="E52" s="3">
-        <v>810200</v>
+        <v>839500</v>
       </c>
       <c r="F52" s="3">
-        <v>682000</v>
+        <v>706700</v>
       </c>
       <c r="G52" s="3">
-        <v>595500</v>
+        <v>617000</v>
       </c>
       <c r="H52" s="3">
-        <v>2098300</v>
+        <v>2174200</v>
       </c>
       <c r="I52" s="3">
-        <v>706100</v>
+        <v>731700</v>
       </c>
       <c r="J52" s="3">
-        <v>2138100</v>
+        <v>2215400</v>
       </c>
       <c r="K52" s="3">
         <v>528700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28462400</v>
+        <v>29492000</v>
       </c>
       <c r="E54" s="3">
-        <v>28167200</v>
+        <v>29186100</v>
       </c>
       <c r="F54" s="3">
-        <v>28006300</v>
+        <v>29019400</v>
       </c>
       <c r="G54" s="3">
-        <v>26702100</v>
+        <v>27668000</v>
       </c>
       <c r="H54" s="3">
-        <v>26918900</v>
+        <v>27892600</v>
       </c>
       <c r="I54" s="3">
-        <v>27029000</v>
+        <v>28006700</v>
       </c>
       <c r="J54" s="3">
-        <v>27962900</v>
+        <v>28974400</v>
       </c>
       <c r="K54" s="3">
         <v>25111400</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1763900</v>
+        <v>1827700</v>
       </c>
       <c r="E57" s="3">
-        <v>1963500</v>
+        <v>2034600</v>
       </c>
       <c r="F57" s="3">
-        <v>1732400</v>
+        <v>1795100</v>
       </c>
       <c r="G57" s="3">
-        <v>1589800</v>
+        <v>1647300</v>
       </c>
       <c r="H57" s="3">
-        <v>2064100</v>
+        <v>2138700</v>
       </c>
       <c r="I57" s="3">
-        <v>5287800</v>
+        <v>5479100</v>
       </c>
       <c r="J57" s="3">
-        <v>1229300</v>
+        <v>1273700</v>
       </c>
       <c r="K57" s="3">
         <v>700700</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5926900</v>
+        <v>6141300</v>
       </c>
       <c r="E58" s="3">
-        <v>6666800</v>
+        <v>6907900</v>
       </c>
       <c r="F58" s="3">
-        <v>8827400</v>
+        <v>9146700</v>
       </c>
       <c r="G58" s="3">
-        <v>8193700</v>
+        <v>8490100</v>
       </c>
       <c r="H58" s="3">
-        <v>7675300</v>
+        <v>7953000</v>
       </c>
       <c r="I58" s="3">
-        <v>11295900</v>
+        <v>11704500</v>
       </c>
       <c r="J58" s="3">
-        <v>8284300</v>
+        <v>8584000</v>
       </c>
       <c r="K58" s="3">
         <v>10056600</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2004100</v>
+        <v>2076600</v>
       </c>
       <c r="E59" s="3">
-        <v>1858800</v>
+        <v>1926000</v>
       </c>
       <c r="F59" s="3">
-        <v>3878800</v>
+        <v>4019200</v>
       </c>
       <c r="G59" s="3">
-        <v>1875000</v>
+        <v>1942800</v>
       </c>
       <c r="H59" s="3">
-        <v>3377900</v>
+        <v>3500100</v>
       </c>
       <c r="I59" s="3">
-        <v>1865800</v>
+        <v>1933300</v>
       </c>
       <c r="J59" s="3">
-        <v>6734600</v>
+        <v>6978200</v>
       </c>
       <c r="K59" s="3">
         <v>1274000</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9694800</v>
+        <v>10045500</v>
       </c>
       <c r="E60" s="3">
-        <v>10489100</v>
+        <v>10868500</v>
       </c>
       <c r="F60" s="3">
-        <v>12661600</v>
+        <v>13119700</v>
       </c>
       <c r="G60" s="3">
-        <v>11658500</v>
+        <v>12080200</v>
       </c>
       <c r="H60" s="3">
-        <v>11466100</v>
+        <v>11880900</v>
       </c>
       <c r="I60" s="3">
-        <v>14635800</v>
+        <v>15165200</v>
       </c>
       <c r="J60" s="3">
-        <v>13558700</v>
+        <v>14049200</v>
       </c>
       <c r="K60" s="3">
         <v>12031300</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8303600</v>
+        <v>8603900</v>
       </c>
       <c r="E61" s="3">
-        <v>7597700</v>
+        <v>7872500</v>
       </c>
       <c r="F61" s="3">
-        <v>5647000</v>
+        <v>5851300</v>
       </c>
       <c r="G61" s="3">
-        <v>6632800</v>
+        <v>6872700</v>
       </c>
       <c r="H61" s="3">
-        <v>7568800</v>
+        <v>7842500</v>
       </c>
       <c r="I61" s="3">
-        <v>6274900</v>
+        <v>6501800</v>
       </c>
       <c r="J61" s="3">
-        <v>6488700</v>
+        <v>6723400</v>
       </c>
       <c r="K61" s="3">
         <v>5256500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>551200</v>
+        <v>571100</v>
       </c>
       <c r="E62" s="3">
-        <v>595800</v>
+        <v>617400</v>
       </c>
       <c r="F62" s="3">
-        <v>483200</v>
+        <v>500700</v>
       </c>
       <c r="G62" s="3">
-        <v>591800</v>
+        <v>613200</v>
       </c>
       <c r="H62" s="3">
-        <v>1073500</v>
+        <v>1112400</v>
       </c>
       <c r="I62" s="3">
-        <v>560400</v>
+        <v>580700</v>
       </c>
       <c r="J62" s="3">
-        <v>388600</v>
+        <v>402700</v>
       </c>
       <c r="K62" s="3">
         <v>108600</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20801300</v>
+        <v>21553700</v>
       </c>
       <c r="E66" s="3">
-        <v>20820700</v>
+        <v>21573800</v>
       </c>
       <c r="F66" s="3">
-        <v>22443600</v>
+        <v>23255500</v>
       </c>
       <c r="G66" s="3">
-        <v>21352400</v>
+        <v>22124800</v>
       </c>
       <c r="H66" s="3">
-        <v>21318700</v>
+        <v>22089800</v>
       </c>
       <c r="I66" s="3">
-        <v>23062300</v>
+        <v>23896600</v>
       </c>
       <c r="J66" s="3">
-        <v>21745700</v>
+        <v>22532300</v>
       </c>
       <c r="K66" s="3">
         <v>18825900</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>686700</v>
+        <v>711500</v>
       </c>
       <c r="E72" s="3">
-        <v>2081100</v>
+        <v>2156300</v>
       </c>
       <c r="F72" s="3">
-        <v>509500</v>
+        <v>527900</v>
       </c>
       <c r="G72" s="3">
-        <v>324500</v>
+        <v>336300</v>
       </c>
       <c r="H72" s="3">
-        <v>4371800</v>
+        <v>4530000</v>
       </c>
       <c r="I72" s="3">
-        <v>261500</v>
+        <v>270900</v>
       </c>
       <c r="J72" s="3">
-        <v>4321600</v>
+        <v>4477900</v>
       </c>
       <c r="K72" s="3">
         <v>2468400</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7661100</v>
+        <v>7938200</v>
       </c>
       <c r="E76" s="3">
-        <v>7346500</v>
+        <v>7612300</v>
       </c>
       <c r="F76" s="3">
-        <v>5562700</v>
+        <v>5763900</v>
       </c>
       <c r="G76" s="3">
-        <v>5349700</v>
+        <v>5543200</v>
       </c>
       <c r="H76" s="3">
-        <v>5600200</v>
+        <v>5802800</v>
       </c>
       <c r="I76" s="3">
-        <v>3966600</v>
+        <v>4110100</v>
       </c>
       <c r="J76" s="3">
-        <v>6217200</v>
+        <v>6442100</v>
       </c>
       <c r="K76" s="3">
         <v>6285500</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88400</v>
+        <v>91700</v>
       </c>
       <c r="E81" s="3">
-        <v>80900</v>
+        <v>84000</v>
       </c>
       <c r="F81" s="3">
-        <v>182400</v>
+        <v>189200</v>
       </c>
       <c r="G81" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H81" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2268500</v>
+        <v>-2353900</v>
       </c>
       <c r="J81" s="3">
-        <v>-22736800</v>
+        <v>-23593000</v>
       </c>
       <c r="K81" s="3">
         <v>-1181400</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1194700</v>
+        <v>1239700</v>
       </c>
       <c r="E83" s="3">
-        <v>1094100</v>
+        <v>1135300</v>
       </c>
       <c r="F83" s="3">
-        <v>958000</v>
+        <v>994100</v>
       </c>
       <c r="G83" s="3">
-        <v>954900</v>
+        <v>990900</v>
       </c>
       <c r="H83" s="3">
-        <v>1005900</v>
+        <v>1043700</v>
       </c>
       <c r="I83" s="3">
-        <v>1015600</v>
+        <v>1053800</v>
       </c>
       <c r="J83" s="3">
-        <v>1012500</v>
+        <v>1050700</v>
       </c>
       <c r="K83" s="3">
         <v>894500</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1745800</v>
+        <v>1811500</v>
       </c>
       <c r="E89" s="3">
-        <v>1824000</v>
+        <v>1892600</v>
       </c>
       <c r="F89" s="3">
-        <v>1848300</v>
+        <v>1917800</v>
       </c>
       <c r="G89" s="3">
-        <v>1613800</v>
+        <v>1674600</v>
       </c>
       <c r="H89" s="3">
-        <v>1021300</v>
+        <v>1059800</v>
       </c>
       <c r="I89" s="3">
-        <v>1934100</v>
+        <v>2006900</v>
       </c>
       <c r="J89" s="3">
-        <v>1154900</v>
+        <v>1198300</v>
       </c>
       <c r="K89" s="3">
         <v>161000</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1244500</v>
+        <v>-1291300</v>
       </c>
       <c r="E91" s="3">
-        <v>-944300</v>
+        <v>-979800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1244500</v>
+        <v>-1291400</v>
       </c>
       <c r="G91" s="3">
-        <v>-873800</v>
+        <v>-906700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1287400</v>
+        <v>-1335900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1125000</v>
+        <v>-1167400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1187800</v>
+        <v>-1232500</v>
       </c>
       <c r="K91" s="3">
         <v>-1312600</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1874400</v>
+        <v>-1945000</v>
       </c>
       <c r="E94" s="3">
-        <v>-773900</v>
+        <v>-803000</v>
       </c>
       <c r="F94" s="3">
-        <v>-783400</v>
+        <v>-812900</v>
       </c>
       <c r="G94" s="3">
-        <v>-699600</v>
+        <v>-725900</v>
       </c>
       <c r="H94" s="3">
-        <v>334900</v>
+        <v>347600</v>
       </c>
       <c r="I94" s="3">
-        <v>-688800</v>
+        <v>-714700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1075700</v>
+        <v>-1116200</v>
       </c>
       <c r="K94" s="3">
         <v>-3322000</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-60800</v>
+        <v>-63100</v>
       </c>
       <c r="H96" s="3">
-        <v>-41700</v>
+        <v>-43200</v>
       </c>
       <c r="I96" s="3">
-        <v>-31400</v>
+        <v>-32600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1465900</v>
+        <v>-1521100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2278600</v>
+        <v>-2364400</v>
       </c>
       <c r="F100" s="3">
-        <v>-475700</v>
+        <v>-493600</v>
       </c>
       <c r="G100" s="3">
-        <v>-513900</v>
+        <v>-533300</v>
       </c>
       <c r="H100" s="3">
-        <v>-759400</v>
+        <v>-788000</v>
       </c>
       <c r="I100" s="3">
-        <v>-562100</v>
+        <v>-583300</v>
       </c>
       <c r="J100" s="3">
-        <v>246100</v>
+        <v>255400</v>
       </c>
       <c r="K100" s="3">
         <v>2931100</v>
@@ -3465,22 +3465,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="F101" s="3">
-        <v>-31000</v>
+        <v>-32200</v>
       </c>
       <c r="G101" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="H101" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
         <v>-800</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1591600</v>
+        <v>-1651500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1220500</v>
+        <v>-1266400</v>
       </c>
       <c r="F102" s="3">
-        <v>558100</v>
+        <v>579100</v>
       </c>
       <c r="G102" s="3">
-        <v>427100</v>
+        <v>443200</v>
       </c>
       <c r="H102" s="3">
-        <v>612900</v>
+        <v>636000</v>
       </c>
       <c r="I102" s="3">
-        <v>684000</v>
+        <v>709700</v>
       </c>
       <c r="J102" s="3">
-        <v>324400</v>
+        <v>336700</v>
       </c>
       <c r="K102" s="3">
         <v>-219200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27604500</v>
+        <v>28914100</v>
       </c>
       <c r="E8" s="3">
-        <v>26176500</v>
+        <v>27418300</v>
       </c>
       <c r="F8" s="3">
-        <v>26289600</v>
+        <v>27536800</v>
       </c>
       <c r="G8" s="3">
-        <v>20946400</v>
+        <v>21940100</v>
       </c>
       <c r="H8" s="3">
-        <v>17932300</v>
+        <v>18783100</v>
       </c>
       <c r="I8" s="3">
-        <v>20622600</v>
+        <v>21601000</v>
       </c>
       <c r="J8" s="3">
-        <v>24989300</v>
+        <v>26174800</v>
       </c>
       <c r="K8" s="3">
         <v>20580300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25843100</v>
+        <v>27069200</v>
       </c>
       <c r="E9" s="3">
-        <v>24257700</v>
+        <v>25408500</v>
       </c>
       <c r="F9" s="3">
-        <v>24185500</v>
+        <v>25332900</v>
       </c>
       <c r="G9" s="3">
-        <v>19413500</v>
+        <v>20334500</v>
       </c>
       <c r="H9" s="3">
-        <v>17570300</v>
+        <v>18403900</v>
       </c>
       <c r="I9" s="3">
-        <v>41022800</v>
+        <v>42969000</v>
       </c>
       <c r="J9" s="3">
-        <v>48413800</v>
+        <v>50710700</v>
       </c>
       <c r="K9" s="3">
         <v>42072400</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1761300</v>
+        <v>1844900</v>
       </c>
       <c r="E10" s="3">
-        <v>1918800</v>
+        <v>2009800</v>
       </c>
       <c r="F10" s="3">
-        <v>2104100</v>
+        <v>2203900</v>
       </c>
       <c r="G10" s="3">
-        <v>1532800</v>
+        <v>1605600</v>
       </c>
       <c r="H10" s="3">
-        <v>362000</v>
+        <v>379200</v>
       </c>
       <c r="I10" s="3">
-        <v>-20400200</v>
+        <v>-21368000</v>
       </c>
       <c r="J10" s="3">
-        <v>-23424600</v>
+        <v>-24535900</v>
       </c>
       <c r="K10" s="3">
         <v>-21492100</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>136600</v>
+        <v>143100</v>
       </c>
       <c r="E12" s="3">
-        <v>91000</v>
+        <v>95400</v>
       </c>
       <c r="F12" s="3">
-        <v>72400</v>
+        <v>75800</v>
       </c>
       <c r="G12" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="H12" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="I12" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="J12" s="3">
-        <v>28100</v>
+        <v>29500</v>
       </c>
       <c r="K12" s="3">
         <v>26500</v>
@@ -899,25 +899,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-74600</v>
+        <v>-78100</v>
       </c>
       <c r="E14" s="3">
-        <v>47000</v>
+        <v>49200</v>
       </c>
       <c r="F14" s="3">
-        <v>-47200</v>
+        <v>-49400</v>
       </c>
       <c r="G14" s="3">
-        <v>-101700</v>
+        <v>-106500</v>
       </c>
       <c r="H14" s="3">
-        <v>-496800</v>
+        <v>-520300</v>
       </c>
       <c r="I14" s="3">
-        <v>36200</v>
+        <v>37900</v>
       </c>
       <c r="J14" s="3">
-        <v>-998400</v>
+        <v>-1045800</v>
       </c>
       <c r="K14" s="3">
         <v>4000</v>
@@ -932,25 +932,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="E15" s="3">
-        <v>34700</v>
+        <v>36300</v>
       </c>
       <c r="F15" s="3">
-        <v>29300</v>
+        <v>30700</v>
       </c>
       <c r="G15" s="3">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="H15" s="3">
-        <v>33000</v>
+        <v>34600</v>
       </c>
       <c r="I15" s="3">
-        <v>36900</v>
+        <v>38600</v>
       </c>
       <c r="J15" s="3">
-        <v>32400</v>
+        <v>33900</v>
       </c>
       <c r="K15" s="3">
         <v>67100</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>26667000</v>
+        <v>27932200</v>
       </c>
       <c r="E17" s="3">
-        <v>25186700</v>
+        <v>26381600</v>
       </c>
       <c r="F17" s="3">
-        <v>25170900</v>
+        <v>26365100</v>
       </c>
       <c r="G17" s="3">
-        <v>20102600</v>
+        <v>21056300</v>
       </c>
       <c r="H17" s="3">
-        <v>17209400</v>
+        <v>18025900</v>
       </c>
       <c r="I17" s="3">
-        <v>22179900</v>
+        <v>23232200</v>
       </c>
       <c r="J17" s="3">
-        <v>48021100</v>
+        <v>50299300</v>
       </c>
       <c r="K17" s="3">
         <v>21162900</v>
@@ -1010,25 +1010,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>937500</v>
+        <v>981900</v>
       </c>
       <c r="E18" s="3">
-        <v>989700</v>
+        <v>1036700</v>
       </c>
       <c r="F18" s="3">
-        <v>1118700</v>
+        <v>1171800</v>
       </c>
       <c r="G18" s="3">
-        <v>843800</v>
+        <v>883800</v>
       </c>
       <c r="H18" s="3">
-        <v>722900</v>
+        <v>757200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1557300</v>
+        <v>-1631200</v>
       </c>
       <c r="J18" s="3">
-        <v>-23031800</v>
+        <v>-24124500</v>
       </c>
       <c r="K18" s="3">
         <v>-582500</v>
@@ -1058,25 +1058,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>84600</v>
+        <v>88600</v>
       </c>
       <c r="E20" s="3">
-        <v>49400</v>
+        <v>51700</v>
       </c>
       <c r="F20" s="3">
-        <v>60700</v>
+        <v>63600</v>
       </c>
       <c r="G20" s="3">
-        <v>130100</v>
+        <v>136200</v>
       </c>
       <c r="H20" s="3">
-        <v>148800</v>
+        <v>155800</v>
       </c>
       <c r="I20" s="3">
-        <v>214500</v>
+        <v>224700</v>
       </c>
       <c r="J20" s="3">
-        <v>289400</v>
+        <v>303200</v>
       </c>
       <c r="K20" s="3">
         <v>86800</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2257000</v>
+        <v>2368900</v>
       </c>
       <c r="E21" s="3">
-        <v>2170100</v>
+        <v>2277500</v>
       </c>
       <c r="F21" s="3">
-        <v>2169700</v>
+        <v>2276500</v>
       </c>
       <c r="G21" s="3">
-        <v>1961000</v>
+        <v>2057900</v>
       </c>
       <c r="H21" s="3">
-        <v>1911500</v>
+        <v>2006200</v>
       </c>
       <c r="I21" s="3">
-        <v>-292900</v>
+        <v>-302700</v>
       </c>
       <c r="J21" s="3">
-        <v>-21695700</v>
+        <v>-22720900</v>
       </c>
       <c r="K21" s="3">
         <v>398500</v>
@@ -1124,25 +1124,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>715000</v>
+        <v>749000</v>
       </c>
       <c r="E22" s="3">
-        <v>710200</v>
+        <v>743900</v>
       </c>
       <c r="F22" s="3">
-        <v>736600</v>
+        <v>771500</v>
       </c>
       <c r="G22" s="3">
-        <v>737800</v>
+        <v>772800</v>
       </c>
       <c r="H22" s="3">
-        <v>851800</v>
+        <v>892200</v>
       </c>
       <c r="I22" s="3">
-        <v>976000</v>
+        <v>1022300</v>
       </c>
       <c r="J22" s="3">
-        <v>864000</v>
+        <v>904900</v>
       </c>
       <c r="K22" s="3">
         <v>627400</v>
@@ -1157,25 +1157,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>307000</v>
+        <v>321600</v>
       </c>
       <c r="E23" s="3">
-        <v>328900</v>
+        <v>344500</v>
       </c>
       <c r="F23" s="3">
-        <v>442800</v>
+        <v>463800</v>
       </c>
       <c r="G23" s="3">
-        <v>236100</v>
+        <v>247300</v>
       </c>
       <c r="H23" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="I23" s="3">
-        <v>-2318700</v>
+        <v>-2428700</v>
       </c>
       <c r="J23" s="3">
-        <v>-23606300</v>
+        <v>-24726300</v>
       </c>
       <c r="K23" s="3">
         <v>-1123100</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>90900</v>
+        <v>95200</v>
       </c>
       <c r="E24" s="3">
-        <v>119500</v>
+        <v>125100</v>
       </c>
       <c r="F24" s="3">
-        <v>93500</v>
+        <v>97900</v>
       </c>
       <c r="G24" s="3">
-        <v>58700</v>
+        <v>61500</v>
       </c>
       <c r="H24" s="3">
-        <v>-33400</v>
+        <v>-35000</v>
       </c>
       <c r="I24" s="3">
-        <v>156100</v>
+        <v>163500</v>
       </c>
       <c r="J24" s="3">
-        <v>49300</v>
+        <v>51700</v>
       </c>
       <c r="K24" s="3">
         <v>-53200</v>
@@ -1256,25 +1256,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>216100</v>
+        <v>226400</v>
       </c>
       <c r="E26" s="3">
-        <v>209400</v>
+        <v>219400</v>
       </c>
       <c r="F26" s="3">
-        <v>349300</v>
+        <v>365900</v>
       </c>
       <c r="G26" s="3">
-        <v>177400</v>
+        <v>185800</v>
       </c>
       <c r="H26" s="3">
-        <v>53300</v>
+        <v>55800</v>
       </c>
       <c r="I26" s="3">
-        <v>-2474800</v>
+        <v>-2592200</v>
       </c>
       <c r="J26" s="3">
-        <v>-23655600</v>
+        <v>-24777900</v>
       </c>
       <c r="K26" s="3">
         <v>-1069800</v>
@@ -1289,25 +1289,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>91700</v>
+        <v>96100</v>
       </c>
       <c r="E27" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="F27" s="3">
-        <v>189200</v>
+        <v>198200</v>
       </c>
       <c r="G27" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="H27" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2353900</v>
+        <v>-2465600</v>
       </c>
       <c r="J27" s="3">
-        <v>-23623000</v>
+        <v>-24743800</v>
       </c>
       <c r="K27" s="3">
         <v>-1011000</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>30100</v>
+        <v>31500</v>
       </c>
       <c r="K29" s="3">
         <v>-170400</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-84600</v>
+        <v>-88600</v>
       </c>
       <c r="E32" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="F32" s="3">
-        <v>-60700</v>
+        <v>-63600</v>
       </c>
       <c r="G32" s="3">
-        <v>-130100</v>
+        <v>-136200</v>
       </c>
       <c r="H32" s="3">
-        <v>-148800</v>
+        <v>-155800</v>
       </c>
       <c r="I32" s="3">
-        <v>-214500</v>
+        <v>-224700</v>
       </c>
       <c r="J32" s="3">
-        <v>-289400</v>
+        <v>-303200</v>
       </c>
       <c r="K32" s="3">
         <v>-86800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91700</v>
+        <v>96100</v>
       </c>
       <c r="E33" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="F33" s="3">
-        <v>189200</v>
+        <v>198200</v>
       </c>
       <c r="G33" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="H33" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="I33" s="3">
-        <v>-2353900</v>
+        <v>-2465600</v>
       </c>
       <c r="J33" s="3">
-        <v>-23593000</v>
+        <v>-24712300</v>
       </c>
       <c r="K33" s="3">
         <v>-1181400</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91700</v>
+        <v>96100</v>
       </c>
       <c r="E35" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="F35" s="3">
-        <v>189200</v>
+        <v>198200</v>
       </c>
       <c r="G35" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="H35" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="I35" s="3">
-        <v>-2353900</v>
+        <v>-2465600</v>
       </c>
       <c r="J35" s="3">
-        <v>-23593000</v>
+        <v>-24712300</v>
       </c>
       <c r="K35" s="3">
         <v>-1181400</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1126900</v>
+        <v>1183300</v>
       </c>
       <c r="E41" s="3">
-        <v>2778400</v>
+        <v>2910200</v>
       </c>
       <c r="F41" s="3">
-        <v>4042600</v>
+        <v>4234400</v>
       </c>
       <c r="G41" s="3">
-        <v>3458500</v>
+        <v>3622500</v>
       </c>
       <c r="H41" s="3">
-        <v>3014400</v>
+        <v>3157400</v>
       </c>
       <c r="I41" s="3">
-        <v>2362700</v>
+        <v>2474800</v>
       </c>
       <c r="J41" s="3">
-        <v>1804600</v>
+        <v>1890200</v>
       </c>
       <c r="K41" s="3">
         <v>1300400</v>
@@ -1687,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>680900</v>
+        <v>713200</v>
       </c>
       <c r="E42" s="3">
-        <v>174500</v>
+        <v>182800</v>
       </c>
       <c r="F42" s="3">
-        <v>147600</v>
+        <v>154600</v>
       </c>
       <c r="G42" s="3">
-        <v>138700</v>
+        <v>145200</v>
       </c>
       <c r="H42" s="3">
-        <v>156400</v>
+        <v>163800</v>
       </c>
       <c r="I42" s="3">
-        <v>786700</v>
+        <v>824000</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2011600</v>
+        <v>2111000</v>
       </c>
       <c r="E43" s="3">
-        <v>2050400</v>
+        <v>2147600</v>
       </c>
       <c r="F43" s="3">
-        <v>2199000</v>
+        <v>2303300</v>
       </c>
       <c r="G43" s="3">
-        <v>2604500</v>
+        <v>2728000</v>
       </c>
       <c r="H43" s="3">
-        <v>2203400</v>
+        <v>2307900</v>
       </c>
       <c r="I43" s="3">
-        <v>2045500</v>
+        <v>2142500</v>
       </c>
       <c r="J43" s="3">
-        <v>3233500</v>
+        <v>3386900</v>
       </c>
       <c r="K43" s="3">
         <v>1099500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2834200</v>
+        <v>5937400</v>
       </c>
       <c r="E44" s="3">
-        <v>2971400</v>
+        <v>3112300</v>
       </c>
       <c r="F44" s="3">
-        <v>2984100</v>
+        <v>3125700</v>
       </c>
       <c r="G44" s="3">
-        <v>2604500</v>
+        <v>2728000</v>
       </c>
       <c r="H44" s="3">
-        <v>5884500</v>
+        <v>6163600</v>
       </c>
       <c r="I44" s="3">
-        <v>3274000</v>
+        <v>3429300</v>
       </c>
       <c r="J44" s="3">
-        <v>6836300</v>
+        <v>7160600</v>
       </c>
       <c r="K44" s="3">
         <v>3672600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>421100</v>
+        <v>1837400</v>
       </c>
       <c r="E45" s="3">
-        <v>579700</v>
+        <v>607200</v>
       </c>
       <c r="F45" s="3">
-        <v>595900</v>
+        <v>624200</v>
       </c>
       <c r="G45" s="3">
-        <v>849800</v>
+        <v>890100</v>
       </c>
       <c r="H45" s="3">
-        <v>3335000</v>
+        <v>3493200</v>
       </c>
       <c r="I45" s="3">
-        <v>1303600</v>
+        <v>1365400</v>
       </c>
       <c r="J45" s="3">
-        <v>3632300</v>
+        <v>3804600</v>
       </c>
       <c r="K45" s="3">
         <v>956100</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7074700</v>
+        <v>7408500</v>
       </c>
       <c r="E46" s="3">
-        <v>8554300</v>
+        <v>8960100</v>
       </c>
       <c r="F46" s="3">
-        <v>9969200</v>
+        <v>10442200</v>
       </c>
       <c r="G46" s="3">
-        <v>9655900</v>
+        <v>10114000</v>
       </c>
       <c r="H46" s="3">
-        <v>9361900</v>
+        <v>9806000</v>
       </c>
       <c r="I46" s="3">
-        <v>9236100</v>
+        <v>9674300</v>
       </c>
       <c r="J46" s="3">
-        <v>9159000</v>
+        <v>9593500</v>
       </c>
       <c r="K46" s="3">
         <v>7032800</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2217100</v>
+        <v>2322200</v>
       </c>
       <c r="E47" s="3">
-        <v>1697900</v>
+        <v>1778500</v>
       </c>
       <c r="F47" s="3">
-        <v>2197600</v>
+        <v>2301900</v>
       </c>
       <c r="G47" s="3">
-        <v>1989300</v>
+        <v>2083700</v>
       </c>
       <c r="H47" s="3">
-        <v>3340100</v>
+        <v>3498600</v>
       </c>
       <c r="I47" s="3">
-        <v>2299700</v>
+        <v>2408800</v>
       </c>
       <c r="J47" s="3">
-        <v>1362500</v>
+        <v>1427100</v>
       </c>
       <c r="K47" s="3">
         <v>2756700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17532900</v>
+        <v>18605200</v>
       </c>
       <c r="E48" s="3">
-        <v>15598400</v>
+        <v>16338500</v>
       </c>
       <c r="F48" s="3">
-        <v>14081500</v>
+        <v>14749500</v>
       </c>
       <c r="G48" s="3">
-        <v>13379200</v>
+        <v>14013900</v>
       </c>
       <c r="H48" s="3">
-        <v>26407100</v>
+        <v>27659900</v>
       </c>
       <c r="I48" s="3">
-        <v>11668600</v>
+        <v>12222200</v>
       </c>
       <c r="J48" s="3">
-        <v>29222000</v>
+        <v>30608400</v>
       </c>
       <c r="K48" s="3">
         <v>13809700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1999000</v>
+        <v>2093800</v>
       </c>
       <c r="E49" s="3">
-        <v>2496000</v>
+        <v>2614400</v>
       </c>
       <c r="F49" s="3">
-        <v>2064400</v>
+        <v>2162300</v>
       </c>
       <c r="G49" s="3">
-        <v>2026700</v>
+        <v>2122800</v>
       </c>
       <c r="H49" s="3">
-        <v>3926400</v>
+        <v>4112700</v>
       </c>
       <c r="I49" s="3">
-        <v>2070200</v>
+        <v>2168400</v>
       </c>
       <c r="J49" s="3">
-        <v>3949200</v>
+        <v>4136600</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>668300</v>
+        <v>1188200</v>
       </c>
       <c r="E52" s="3">
-        <v>839500</v>
+        <v>879300</v>
       </c>
       <c r="F52" s="3">
-        <v>706700</v>
+        <v>740200</v>
       </c>
       <c r="G52" s="3">
-        <v>617000</v>
+        <v>646300</v>
       </c>
       <c r="H52" s="3">
-        <v>2174200</v>
+        <v>2277300</v>
       </c>
       <c r="I52" s="3">
-        <v>731700</v>
+        <v>766400</v>
       </c>
       <c r="J52" s="3">
-        <v>2215400</v>
+        <v>2320500</v>
       </c>
       <c r="K52" s="3">
         <v>528700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29492000</v>
+        <v>30901300</v>
       </c>
       <c r="E54" s="3">
-        <v>29186100</v>
+        <v>30570800</v>
       </c>
       <c r="F54" s="3">
-        <v>29019400</v>
+        <v>30396100</v>
       </c>
       <c r="G54" s="3">
-        <v>27668000</v>
+        <v>28980600</v>
       </c>
       <c r="H54" s="3">
-        <v>27892600</v>
+        <v>29215900</v>
       </c>
       <c r="I54" s="3">
-        <v>28006700</v>
+        <v>29335400</v>
       </c>
       <c r="J54" s="3">
-        <v>28974400</v>
+        <v>30349000</v>
       </c>
       <c r="K54" s="3">
         <v>25111400</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1827700</v>
+        <v>1918100</v>
       </c>
       <c r="E57" s="3">
-        <v>2034600</v>
+        <v>2131100</v>
       </c>
       <c r="F57" s="3">
-        <v>1795100</v>
+        <v>1880300</v>
       </c>
       <c r="G57" s="3">
-        <v>1647300</v>
+        <v>1725500</v>
       </c>
       <c r="H57" s="3">
-        <v>2138700</v>
+        <v>2240200</v>
       </c>
       <c r="I57" s="3">
-        <v>5479100</v>
+        <v>5739000</v>
       </c>
       <c r="J57" s="3">
-        <v>1273700</v>
+        <v>1334200</v>
       </c>
       <c r="K57" s="3">
         <v>700700</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6141300</v>
+        <v>6639300</v>
       </c>
       <c r="E58" s="3">
-        <v>6907900</v>
+        <v>7235700</v>
       </c>
       <c r="F58" s="3">
-        <v>9146700</v>
+        <v>9580700</v>
       </c>
       <c r="G58" s="3">
-        <v>8490100</v>
+        <v>8892800</v>
       </c>
       <c r="H58" s="3">
-        <v>7953000</v>
+        <v>8330300</v>
       </c>
       <c r="I58" s="3">
-        <v>11704500</v>
+        <v>12259800</v>
       </c>
       <c r="J58" s="3">
-        <v>8584000</v>
+        <v>8991300</v>
       </c>
       <c r="K58" s="3">
         <v>10056600</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2076600</v>
+        <v>4069200</v>
       </c>
       <c r="E59" s="3">
-        <v>1926000</v>
+        <v>2017400</v>
       </c>
       <c r="F59" s="3">
-        <v>4019200</v>
+        <v>4209800</v>
       </c>
       <c r="G59" s="3">
-        <v>1942800</v>
+        <v>2035000</v>
       </c>
       <c r="H59" s="3">
-        <v>3500100</v>
+        <v>3666200</v>
       </c>
       <c r="I59" s="3">
-        <v>1933300</v>
+        <v>2025000</v>
       </c>
       <c r="J59" s="3">
-        <v>6978200</v>
+        <v>7309300</v>
       </c>
       <c r="K59" s="3">
         <v>1274000</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10045500</v>
+        <v>10527200</v>
       </c>
       <c r="E60" s="3">
-        <v>10868500</v>
+        <v>11384200</v>
       </c>
       <c r="F60" s="3">
-        <v>13119700</v>
+        <v>13742100</v>
       </c>
       <c r="G60" s="3">
-        <v>12080200</v>
+        <v>12653300</v>
       </c>
       <c r="H60" s="3">
-        <v>11880900</v>
+        <v>12444500</v>
       </c>
       <c r="I60" s="3">
-        <v>15165200</v>
+        <v>15884700</v>
       </c>
       <c r="J60" s="3">
-        <v>14049200</v>
+        <v>14715700</v>
       </c>
       <c r="K60" s="3">
         <v>12031300</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8603900</v>
+        <v>9012100</v>
       </c>
       <c r="E61" s="3">
-        <v>7872500</v>
+        <v>8246000</v>
       </c>
       <c r="F61" s="3">
-        <v>5851300</v>
+        <v>6128900</v>
       </c>
       <c r="G61" s="3">
-        <v>6872700</v>
+        <v>7198700</v>
       </c>
       <c r="H61" s="3">
-        <v>7842500</v>
+        <v>8214600</v>
       </c>
       <c r="I61" s="3">
-        <v>6501800</v>
+        <v>6810300</v>
       </c>
       <c r="J61" s="3">
-        <v>6723400</v>
+        <v>7042400</v>
       </c>
       <c r="K61" s="3">
         <v>5256500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>571100</v>
+        <v>936000</v>
       </c>
       <c r="E62" s="3">
-        <v>617400</v>
+        <v>646700</v>
       </c>
       <c r="F62" s="3">
-        <v>500700</v>
+        <v>524400</v>
       </c>
       <c r="G62" s="3">
-        <v>613200</v>
+        <v>642300</v>
       </c>
       <c r="H62" s="3">
-        <v>1112400</v>
+        <v>1165100</v>
       </c>
       <c r="I62" s="3">
-        <v>580700</v>
+        <v>608200</v>
       </c>
       <c r="J62" s="3">
-        <v>402700</v>
+        <v>421800</v>
       </c>
       <c r="K62" s="3">
         <v>108600</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21553700</v>
+        <v>22584600</v>
       </c>
       <c r="E66" s="3">
-        <v>21573800</v>
+        <v>22597300</v>
       </c>
       <c r="F66" s="3">
-        <v>23255500</v>
+        <v>24358800</v>
       </c>
       <c r="G66" s="3">
-        <v>22124800</v>
+        <v>23174400</v>
       </c>
       <c r="H66" s="3">
-        <v>22089800</v>
+        <v>23137800</v>
       </c>
       <c r="I66" s="3">
-        <v>23896600</v>
+        <v>25030300</v>
       </c>
       <c r="J66" s="3">
-        <v>22532300</v>
+        <v>23601300</v>
       </c>
       <c r="K66" s="3">
         <v>18825900</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>711500</v>
+        <v>746700</v>
       </c>
       <c r="E72" s="3">
-        <v>2156300</v>
+        <v>2258600</v>
       </c>
       <c r="F72" s="3">
-        <v>527900</v>
+        <v>553000</v>
       </c>
       <c r="G72" s="3">
-        <v>336300</v>
+        <v>352200</v>
       </c>
       <c r="H72" s="3">
-        <v>4530000</v>
+        <v>4744900</v>
       </c>
       <c r="I72" s="3">
-        <v>270900</v>
+        <v>283800</v>
       </c>
       <c r="J72" s="3">
-        <v>4477900</v>
+        <v>4690400</v>
       </c>
       <c r="K72" s="3">
         <v>2468400</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7938200</v>
+        <v>8316700</v>
       </c>
       <c r="E76" s="3">
-        <v>7612300</v>
+        <v>7973400</v>
       </c>
       <c r="F76" s="3">
-        <v>5763900</v>
+        <v>6037300</v>
       </c>
       <c r="G76" s="3">
-        <v>5543200</v>
+        <v>5806200</v>
       </c>
       <c r="H76" s="3">
-        <v>5802800</v>
+        <v>6078100</v>
       </c>
       <c r="I76" s="3">
-        <v>4110100</v>
+        <v>4305100</v>
       </c>
       <c r="J76" s="3">
-        <v>6442100</v>
+        <v>6747700</v>
       </c>
       <c r="K76" s="3">
         <v>6285500</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91700</v>
+        <v>96100</v>
       </c>
       <c r="E81" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="F81" s="3">
-        <v>189200</v>
+        <v>198200</v>
       </c>
       <c r="G81" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="H81" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="I81" s="3">
-        <v>-2353900</v>
+        <v>-2465600</v>
       </c>
       <c r="J81" s="3">
-        <v>-23593000</v>
+        <v>-24712300</v>
       </c>
       <c r="K81" s="3">
         <v>-1181400</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1239700</v>
+        <v>1298500</v>
       </c>
       <c r="E83" s="3">
-        <v>1135300</v>
+        <v>1189200</v>
       </c>
       <c r="F83" s="3">
-        <v>994100</v>
+        <v>1041200</v>
       </c>
       <c r="G83" s="3">
-        <v>990900</v>
+        <v>1037900</v>
       </c>
       <c r="H83" s="3">
-        <v>1043700</v>
+        <v>1093300</v>
       </c>
       <c r="I83" s="3">
-        <v>1053800</v>
+        <v>1103800</v>
       </c>
       <c r="J83" s="3">
-        <v>1050700</v>
+        <v>1100500</v>
       </c>
       <c r="K83" s="3">
         <v>894500</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1811500</v>
+        <v>1897500</v>
       </c>
       <c r="E89" s="3">
-        <v>1892600</v>
+        <v>1982400</v>
       </c>
       <c r="F89" s="3">
-        <v>1917800</v>
+        <v>2008800</v>
       </c>
       <c r="G89" s="3">
-        <v>1674600</v>
+        <v>1754000</v>
       </c>
       <c r="H89" s="3">
-        <v>1059800</v>
+        <v>1110000</v>
       </c>
       <c r="I89" s="3">
-        <v>2006900</v>
+        <v>2102100</v>
       </c>
       <c r="J89" s="3">
-        <v>1198300</v>
+        <v>1255200</v>
       </c>
       <c r="K89" s="3">
         <v>161000</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1291300</v>
+        <v>-1352600</v>
       </c>
       <c r="E91" s="3">
-        <v>-979800</v>
+        <v>-1026300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1291400</v>
+        <v>-1352600</v>
       </c>
       <c r="G91" s="3">
-        <v>-906700</v>
+        <v>-949700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1335900</v>
+        <v>-1399200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1167400</v>
+        <v>-1222800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1232500</v>
+        <v>-1291000</v>
       </c>
       <c r="K91" s="3">
         <v>-1312600</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1945000</v>
+        <v>-2037200</v>
       </c>
       <c r="E94" s="3">
-        <v>-803000</v>
+        <v>-841100</v>
       </c>
       <c r="F94" s="3">
-        <v>-812900</v>
+        <v>-851500</v>
       </c>
       <c r="G94" s="3">
-        <v>-725900</v>
+        <v>-760400</v>
       </c>
       <c r="H94" s="3">
-        <v>347600</v>
+        <v>364000</v>
       </c>
       <c r="I94" s="3">
-        <v>-714700</v>
+        <v>-748600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1116200</v>
+        <v>-1169200</v>
       </c>
       <c r="K94" s="3">
         <v>-3322000</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-63100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-43200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-32600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1521100</v>
+        <v>-1593300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2364400</v>
+        <v>-2476600</v>
       </c>
       <c r="F100" s="3">
-        <v>-493600</v>
+        <v>-517100</v>
       </c>
       <c r="G100" s="3">
-        <v>-533300</v>
+        <v>-558600</v>
       </c>
       <c r="H100" s="3">
-        <v>-788000</v>
+        <v>-825300</v>
       </c>
       <c r="I100" s="3">
-        <v>-583300</v>
+        <v>-611000</v>
       </c>
       <c r="J100" s="3">
-        <v>255400</v>
+        <v>267500</v>
       </c>
       <c r="K100" s="3">
         <v>2931100</v>
@@ -3465,19 +3465,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-32200</v>
+        <v>-33700</v>
       </c>
       <c r="G101" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="H101" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="I101" s="3">
         <v>900</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1651500</v>
+        <v>-1729900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1266400</v>
+        <v>-1326500</v>
       </c>
       <c r="F102" s="3">
-        <v>579100</v>
+        <v>606600</v>
       </c>
       <c r="G102" s="3">
-        <v>443200</v>
+        <v>464200</v>
       </c>
       <c r="H102" s="3">
-        <v>636000</v>
+        <v>666200</v>
       </c>
       <c r="I102" s="3">
-        <v>709700</v>
+        <v>743400</v>
       </c>
       <c r="J102" s="3">
-        <v>336700</v>
+        <v>352600</v>
       </c>
       <c r="K102" s="3">
         <v>-219200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>ACH</t>
   </si>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28914100</v>
+        <v>29039500</v>
       </c>
       <c r="E8" s="3">
-        <v>27418300</v>
+        <v>27537300</v>
       </c>
       <c r="F8" s="3">
-        <v>27536800</v>
+        <v>27656300</v>
       </c>
       <c r="G8" s="3">
-        <v>21940100</v>
+        <v>22035300</v>
       </c>
       <c r="H8" s="3">
-        <v>18783100</v>
+        <v>18864600</v>
       </c>
       <c r="I8" s="3">
-        <v>21601000</v>
+        <v>21694700</v>
       </c>
       <c r="J8" s="3">
-        <v>26174800</v>
+        <v>26288400</v>
       </c>
       <c r="K8" s="3">
         <v>20580300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27069200</v>
+        <v>27186600</v>
       </c>
       <c r="E9" s="3">
-        <v>25408500</v>
+        <v>25518800</v>
       </c>
       <c r="F9" s="3">
-        <v>25332900</v>
+        <v>25442800</v>
       </c>
       <c r="G9" s="3">
-        <v>20334500</v>
+        <v>20422800</v>
       </c>
       <c r="H9" s="3">
-        <v>18403900</v>
+        <v>18483700</v>
       </c>
       <c r="I9" s="3">
-        <v>42969000</v>
+        <v>43155400</v>
       </c>
       <c r="J9" s="3">
-        <v>50710700</v>
+        <v>50930700</v>
       </c>
       <c r="K9" s="3">
         <v>42072400</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1844900</v>
+        <v>1852900</v>
       </c>
       <c r="E10" s="3">
-        <v>2009800</v>
+        <v>2018500</v>
       </c>
       <c r="F10" s="3">
-        <v>2203900</v>
+        <v>2213500</v>
       </c>
       <c r="G10" s="3">
-        <v>1605600</v>
+        <v>1612500</v>
       </c>
       <c r="H10" s="3">
-        <v>379200</v>
+        <v>380800</v>
       </c>
       <c r="I10" s="3">
-        <v>-21368000</v>
+        <v>-21460700</v>
       </c>
       <c r="J10" s="3">
-        <v>-24535900</v>
+        <v>-24642300</v>
       </c>
       <c r="K10" s="3">
         <v>-21492100</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>143100</v>
+        <v>143700</v>
       </c>
       <c r="E12" s="3">
-        <v>95400</v>
+        <v>95800</v>
       </c>
       <c r="F12" s="3">
-        <v>75800</v>
+        <v>76100</v>
       </c>
       <c r="G12" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="H12" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="I12" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="J12" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="K12" s="3">
         <v>26500</v>
@@ -899,25 +899,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-78100</v>
+        <v>-38800</v>
       </c>
       <c r="E14" s="3">
-        <v>49200</v>
+        <v>56500</v>
       </c>
       <c r="F14" s="3">
-        <v>-49400</v>
+        <v>-47200</v>
       </c>
       <c r="G14" s="3">
-        <v>-106500</v>
+        <v>-98200</v>
       </c>
       <c r="H14" s="3">
-        <v>-520300</v>
+        <v>-521100</v>
       </c>
       <c r="I14" s="3">
-        <v>37900</v>
+        <v>905800</v>
       </c>
       <c r="J14" s="3">
-        <v>-1045800</v>
+        <v>-973800</v>
       </c>
       <c r="K14" s="3">
         <v>4000</v>
@@ -932,25 +932,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="E15" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="F15" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="G15" s="3">
+        <v>34200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J15" s="3">
         <v>34000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>34600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>38600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>33900</v>
       </c>
       <c r="K15" s="3">
         <v>67100</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>27932200</v>
+        <v>28053300</v>
       </c>
       <c r="E17" s="3">
-        <v>26381600</v>
+        <v>26496100</v>
       </c>
       <c r="F17" s="3">
-        <v>26365100</v>
+        <v>26479500</v>
       </c>
       <c r="G17" s="3">
-        <v>21056300</v>
+        <v>21147600</v>
       </c>
       <c r="H17" s="3">
-        <v>18025900</v>
+        <v>18104100</v>
       </c>
       <c r="I17" s="3">
-        <v>23232200</v>
+        <v>23333000</v>
       </c>
       <c r="J17" s="3">
-        <v>50299300</v>
+        <v>50517500</v>
       </c>
       <c r="K17" s="3">
         <v>21162900</v>
@@ -1010,25 +1010,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>981900</v>
+        <v>986200</v>
       </c>
       <c r="E18" s="3">
-        <v>1036700</v>
+        <v>1041200</v>
       </c>
       <c r="F18" s="3">
-        <v>1171800</v>
+        <v>1176800</v>
       </c>
       <c r="G18" s="3">
-        <v>883800</v>
+        <v>887700</v>
       </c>
       <c r="H18" s="3">
-        <v>757200</v>
+        <v>760500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1631200</v>
+        <v>-1638200</v>
       </c>
       <c r="J18" s="3">
-        <v>-24124500</v>
+        <v>-24229200</v>
       </c>
       <c r="K18" s="3">
         <v>-582500</v>
@@ -1058,25 +1058,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>88600</v>
+        <v>89000</v>
       </c>
       <c r="E20" s="3">
-        <v>51700</v>
+        <v>51900</v>
       </c>
       <c r="F20" s="3">
-        <v>63600</v>
+        <v>63900</v>
       </c>
       <c r="G20" s="3">
-        <v>136200</v>
+        <v>136800</v>
       </c>
       <c r="H20" s="3">
-        <v>155800</v>
+        <v>156500</v>
       </c>
       <c r="I20" s="3">
-        <v>224700</v>
+        <v>225700</v>
       </c>
       <c r="J20" s="3">
-        <v>303200</v>
+        <v>304500</v>
       </c>
       <c r="K20" s="3">
         <v>86800</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2368900</v>
+        <v>2383700</v>
       </c>
       <c r="E21" s="3">
-        <v>2277500</v>
+        <v>2291500</v>
       </c>
       <c r="F21" s="3">
-        <v>2276500</v>
+        <v>2290000</v>
       </c>
       <c r="G21" s="3">
-        <v>2057900</v>
+        <v>2070400</v>
       </c>
       <c r="H21" s="3">
-        <v>2006200</v>
+        <v>2018700</v>
       </c>
       <c r="I21" s="3">
-        <v>-302700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-22720900</v>
+        <v>-300200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>398500</v>
@@ -1124,25 +1124,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>749000</v>
+        <v>752200</v>
       </c>
       <c r="E22" s="3">
-        <v>743900</v>
+        <v>747200</v>
       </c>
       <c r="F22" s="3">
-        <v>771500</v>
+        <v>774900</v>
       </c>
       <c r="G22" s="3">
-        <v>772800</v>
+        <v>776100</v>
       </c>
       <c r="H22" s="3">
-        <v>892200</v>
+        <v>896100</v>
       </c>
       <c r="I22" s="3">
-        <v>1022300</v>
+        <v>1026700</v>
       </c>
       <c r="J22" s="3">
-        <v>904900</v>
+        <v>908900</v>
       </c>
       <c r="K22" s="3">
         <v>627400</v>
@@ -1157,25 +1157,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>321600</v>
+        <v>322900</v>
       </c>
       <c r="E23" s="3">
-        <v>344500</v>
+        <v>346000</v>
       </c>
       <c r="F23" s="3">
-        <v>463800</v>
+        <v>465800</v>
       </c>
       <c r="G23" s="3">
-        <v>247300</v>
+        <v>248400</v>
       </c>
       <c r="H23" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="I23" s="3">
-        <v>-2428700</v>
+        <v>-2439300</v>
       </c>
       <c r="J23" s="3">
-        <v>-24726300</v>
+        <v>-24833500</v>
       </c>
       <c r="K23" s="3">
         <v>-1123100</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>95200</v>
+        <v>95600</v>
       </c>
       <c r="E24" s="3">
-        <v>125100</v>
+        <v>125700</v>
       </c>
       <c r="F24" s="3">
-        <v>97900</v>
+        <v>98300</v>
       </c>
       <c r="G24" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H24" s="3">
-        <v>-35000</v>
+        <v>-35200</v>
       </c>
       <c r="I24" s="3">
-        <v>163500</v>
+        <v>164200</v>
       </c>
       <c r="J24" s="3">
-        <v>51700</v>
+        <v>51900</v>
       </c>
       <c r="K24" s="3">
         <v>-53200</v>
@@ -1256,25 +1256,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>226400</v>
+        <v>227300</v>
       </c>
       <c r="E26" s="3">
-        <v>219400</v>
+        <v>220300</v>
       </c>
       <c r="F26" s="3">
-        <v>365900</v>
+        <v>367500</v>
       </c>
       <c r="G26" s="3">
-        <v>185800</v>
+        <v>186600</v>
       </c>
       <c r="H26" s="3">
-        <v>55800</v>
+        <v>56100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2592200</v>
+        <v>-2603500</v>
       </c>
       <c r="J26" s="3">
-        <v>-24777900</v>
+        <v>-24885400</v>
       </c>
       <c r="K26" s="3">
         <v>-1069800</v>
@@ -1289,25 +1289,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>96100</v>
+        <v>96500</v>
       </c>
       <c r="E27" s="3">
-        <v>88000</v>
+        <v>88300</v>
       </c>
       <c r="F27" s="3">
-        <v>198200</v>
+        <v>199100</v>
       </c>
       <c r="G27" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="H27" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="I27" s="3">
-        <v>-2465600</v>
+        <v>-2476300</v>
       </c>
       <c r="J27" s="3">
-        <v>-24743800</v>
+        <v>-24851100</v>
       </c>
       <c r="K27" s="3">
         <v>-1011000</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="K29" s="3">
         <v>-170400</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-88600</v>
+        <v>-89000</v>
       </c>
       <c r="E32" s="3">
-        <v>-51700</v>
+        <v>-51900</v>
       </c>
       <c r="F32" s="3">
-        <v>-63600</v>
+        <v>-63900</v>
       </c>
       <c r="G32" s="3">
-        <v>-136200</v>
+        <v>-136800</v>
       </c>
       <c r="H32" s="3">
-        <v>-155800</v>
+        <v>-156500</v>
       </c>
       <c r="I32" s="3">
-        <v>-224700</v>
+        <v>-225700</v>
       </c>
       <c r="J32" s="3">
-        <v>-303200</v>
+        <v>-304500</v>
       </c>
       <c r="K32" s="3">
         <v>-86800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96100</v>
+        <v>96500</v>
       </c>
       <c r="E33" s="3">
-        <v>88000</v>
+        <v>88300</v>
       </c>
       <c r="F33" s="3">
-        <v>198200</v>
+        <v>199100</v>
       </c>
       <c r="G33" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="H33" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2465600</v>
+        <v>-2476300</v>
       </c>
       <c r="J33" s="3">
-        <v>-24712300</v>
+        <v>-24819500</v>
       </c>
       <c r="K33" s="3">
         <v>-1181400</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96100</v>
+        <v>96500</v>
       </c>
       <c r="E35" s="3">
-        <v>88000</v>
+        <v>88300</v>
       </c>
       <c r="F35" s="3">
-        <v>198200</v>
+        <v>199100</v>
       </c>
       <c r="G35" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="H35" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2465600</v>
+        <v>-2476300</v>
       </c>
       <c r="J35" s="3">
-        <v>-24712300</v>
+        <v>-24819500</v>
       </c>
       <c r="K35" s="3">
         <v>-1181400</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1183300</v>
+        <v>1188500</v>
       </c>
       <c r="E41" s="3">
-        <v>2910200</v>
+        <v>2922800</v>
       </c>
       <c r="F41" s="3">
-        <v>4234400</v>
+        <v>4252800</v>
       </c>
       <c r="G41" s="3">
-        <v>3622500</v>
+        <v>3638300</v>
       </c>
       <c r="H41" s="3">
-        <v>3157400</v>
+        <v>3171100</v>
       </c>
       <c r="I41" s="3">
-        <v>2474800</v>
+        <v>2485500</v>
       </c>
       <c r="J41" s="3">
-        <v>1890200</v>
+        <v>1898400</v>
       </c>
       <c r="K41" s="3">
         <v>1300400</v>
@@ -1687,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>713200</v>
+        <v>716300</v>
       </c>
       <c r="E42" s="3">
-        <v>182800</v>
+        <v>183600</v>
       </c>
       <c r="F42" s="3">
-        <v>154600</v>
+        <v>155300</v>
       </c>
       <c r="G42" s="3">
-        <v>145200</v>
+        <v>145900</v>
       </c>
       <c r="H42" s="3">
-        <v>163800</v>
+        <v>164500</v>
       </c>
       <c r="I42" s="3">
-        <v>824000</v>
+        <v>827600</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2111000</v>
+        <v>2120100</v>
       </c>
       <c r="E43" s="3">
-        <v>2147600</v>
+        <v>2156900</v>
       </c>
       <c r="F43" s="3">
-        <v>2303300</v>
+        <v>2313300</v>
       </c>
       <c r="G43" s="3">
-        <v>2728000</v>
+        <v>2739900</v>
       </c>
       <c r="H43" s="3">
-        <v>2307900</v>
+        <v>2317900</v>
       </c>
       <c r="I43" s="3">
-        <v>2142500</v>
+        <v>2151800</v>
       </c>
       <c r="J43" s="3">
-        <v>3386900</v>
+        <v>3401600</v>
       </c>
       <c r="K43" s="3">
         <v>1099500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5937400</v>
+        <v>5963200</v>
       </c>
       <c r="E44" s="3">
-        <v>3112300</v>
+        <v>3125800</v>
       </c>
       <c r="F44" s="3">
-        <v>3125700</v>
+        <v>3139300</v>
       </c>
       <c r="G44" s="3">
-        <v>2728000</v>
+        <v>2739900</v>
       </c>
       <c r="H44" s="3">
-        <v>6163600</v>
+        <v>6190400</v>
       </c>
       <c r="I44" s="3">
-        <v>3429300</v>
+        <v>3444200</v>
       </c>
       <c r="J44" s="3">
-        <v>7160600</v>
+        <v>7191600</v>
       </c>
       <c r="K44" s="3">
         <v>3672600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1837400</v>
+        <v>1845300</v>
       </c>
       <c r="E45" s="3">
-        <v>607200</v>
+        <v>609800</v>
       </c>
       <c r="F45" s="3">
-        <v>624200</v>
+        <v>626900</v>
       </c>
       <c r="G45" s="3">
-        <v>890100</v>
+        <v>894000</v>
       </c>
       <c r="H45" s="3">
-        <v>3493200</v>
+        <v>3508400</v>
       </c>
       <c r="I45" s="3">
-        <v>1365400</v>
+        <v>1371300</v>
       </c>
       <c r="J45" s="3">
-        <v>3804600</v>
+        <v>3821100</v>
       </c>
       <c r="K45" s="3">
         <v>956100</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7408500</v>
+        <v>7440600</v>
       </c>
       <c r="E46" s="3">
-        <v>8960100</v>
+        <v>8999000</v>
       </c>
       <c r="F46" s="3">
-        <v>10442200</v>
+        <v>10487500</v>
       </c>
       <c r="G46" s="3">
-        <v>10114000</v>
+        <v>10157800</v>
       </c>
       <c r="H46" s="3">
-        <v>9806000</v>
+        <v>9848600</v>
       </c>
       <c r="I46" s="3">
-        <v>9674300</v>
+        <v>9716200</v>
       </c>
       <c r="J46" s="3">
-        <v>9593500</v>
+        <v>9635100</v>
       </c>
       <c r="K46" s="3">
         <v>7032800</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2322200</v>
+        <v>2332300</v>
       </c>
       <c r="E47" s="3">
-        <v>1778500</v>
+        <v>1786200</v>
       </c>
       <c r="F47" s="3">
-        <v>2301900</v>
+        <v>2311900</v>
       </c>
       <c r="G47" s="3">
-        <v>2083700</v>
+        <v>2092700</v>
       </c>
       <c r="H47" s="3">
-        <v>3498600</v>
+        <v>3513800</v>
       </c>
       <c r="I47" s="3">
-        <v>2408800</v>
+        <v>2419200</v>
       </c>
       <c r="J47" s="3">
-        <v>1427100</v>
+        <v>1433300</v>
       </c>
       <c r="K47" s="3">
         <v>2756700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18605200</v>
+        <v>18685900</v>
       </c>
       <c r="E48" s="3">
-        <v>16338500</v>
+        <v>16409400</v>
       </c>
       <c r="F48" s="3">
-        <v>14749500</v>
+        <v>14813500</v>
       </c>
       <c r="G48" s="3">
-        <v>14013900</v>
+        <v>14074700</v>
       </c>
       <c r="H48" s="3">
-        <v>27659900</v>
+        <v>27779900</v>
       </c>
       <c r="I48" s="3">
-        <v>12222200</v>
+        <v>12275200</v>
       </c>
       <c r="J48" s="3">
-        <v>30608400</v>
+        <v>30741200</v>
       </c>
       <c r="K48" s="3">
         <v>13809700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2093800</v>
+        <v>2102900</v>
       </c>
       <c r="E49" s="3">
-        <v>2614400</v>
+        <v>2625700</v>
       </c>
       <c r="F49" s="3">
-        <v>2162300</v>
+        <v>2171700</v>
       </c>
       <c r="G49" s="3">
-        <v>2122800</v>
+        <v>2132000</v>
       </c>
       <c r="H49" s="3">
-        <v>4112700</v>
+        <v>4130600</v>
       </c>
       <c r="I49" s="3">
-        <v>2168400</v>
+        <v>2177800</v>
       </c>
       <c r="J49" s="3">
-        <v>4136600</v>
+        <v>4154500</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1188200</v>
+        <v>1193300</v>
       </c>
       <c r="E52" s="3">
-        <v>879300</v>
+        <v>883200</v>
       </c>
       <c r="F52" s="3">
-        <v>740200</v>
+        <v>743400</v>
       </c>
       <c r="G52" s="3">
-        <v>646300</v>
+        <v>649100</v>
       </c>
       <c r="H52" s="3">
-        <v>2277300</v>
+        <v>2287200</v>
       </c>
       <c r="I52" s="3">
-        <v>766400</v>
+        <v>769700</v>
       </c>
       <c r="J52" s="3">
-        <v>2320500</v>
+        <v>2330600</v>
       </c>
       <c r="K52" s="3">
         <v>528700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30901300</v>
+        <v>31035300</v>
       </c>
       <c r="E54" s="3">
-        <v>30570800</v>
+        <v>30703400</v>
       </c>
       <c r="F54" s="3">
-        <v>30396100</v>
+        <v>30528000</v>
       </c>
       <c r="G54" s="3">
-        <v>28980600</v>
+        <v>29106300</v>
       </c>
       <c r="H54" s="3">
-        <v>29215900</v>
+        <v>29342700</v>
       </c>
       <c r="I54" s="3">
-        <v>29335400</v>
+        <v>29462600</v>
       </c>
       <c r="J54" s="3">
-        <v>30349000</v>
+        <v>30480700</v>
       </c>
       <c r="K54" s="3">
         <v>25111400</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1918100</v>
+        <v>1926400</v>
       </c>
       <c r="E57" s="3">
-        <v>2131100</v>
+        <v>2140300</v>
       </c>
       <c r="F57" s="3">
-        <v>1880300</v>
+        <v>1888400</v>
       </c>
       <c r="G57" s="3">
-        <v>1725500</v>
+        <v>1733000</v>
       </c>
       <c r="H57" s="3">
-        <v>2240200</v>
+        <v>2249900</v>
       </c>
       <c r="I57" s="3">
-        <v>5739000</v>
+        <v>5763900</v>
       </c>
       <c r="J57" s="3">
-        <v>1334200</v>
+        <v>1340000</v>
       </c>
       <c r="K57" s="3">
         <v>700700</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6639300</v>
+        <v>6668100</v>
       </c>
       <c r="E58" s="3">
-        <v>7235700</v>
+        <v>7267100</v>
       </c>
       <c r="F58" s="3">
-        <v>9580700</v>
+        <v>9622200</v>
       </c>
       <c r="G58" s="3">
-        <v>8892800</v>
+        <v>8931400</v>
       </c>
       <c r="H58" s="3">
-        <v>8330300</v>
+        <v>8366400</v>
       </c>
       <c r="I58" s="3">
-        <v>12259800</v>
+        <v>12313000</v>
       </c>
       <c r="J58" s="3">
-        <v>8991300</v>
+        <v>9030300</v>
       </c>
       <c r="K58" s="3">
         <v>10056600</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4069200</v>
+        <v>4086800</v>
       </c>
       <c r="E59" s="3">
-        <v>2017400</v>
+        <v>2026200</v>
       </c>
       <c r="F59" s="3">
-        <v>4209800</v>
+        <v>4228100</v>
       </c>
       <c r="G59" s="3">
-        <v>2035000</v>
+        <v>2043800</v>
       </c>
       <c r="H59" s="3">
-        <v>3666200</v>
+        <v>3682100</v>
       </c>
       <c r="I59" s="3">
-        <v>2025000</v>
+        <v>2033800</v>
       </c>
       <c r="J59" s="3">
-        <v>7309300</v>
+        <v>7341000</v>
       </c>
       <c r="K59" s="3">
         <v>1274000</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10527200</v>
+        <v>10572900</v>
       </c>
       <c r="E60" s="3">
-        <v>11384200</v>
+        <v>11433600</v>
       </c>
       <c r="F60" s="3">
-        <v>13742100</v>
+        <v>13801700</v>
       </c>
       <c r="G60" s="3">
-        <v>12653300</v>
+        <v>12708200</v>
       </c>
       <c r="H60" s="3">
-        <v>12444500</v>
+        <v>12498500</v>
       </c>
       <c r="I60" s="3">
-        <v>15884700</v>
+        <v>15953600</v>
       </c>
       <c r="J60" s="3">
-        <v>14715700</v>
+        <v>14779600</v>
       </c>
       <c r="K60" s="3">
         <v>12031300</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9012100</v>
+        <v>9051200</v>
       </c>
       <c r="E61" s="3">
-        <v>8246000</v>
+        <v>8281800</v>
       </c>
       <c r="F61" s="3">
-        <v>6128900</v>
+        <v>6155500</v>
       </c>
       <c r="G61" s="3">
-        <v>7198700</v>
+        <v>7230000</v>
       </c>
       <c r="H61" s="3">
-        <v>8214600</v>
+        <v>8250300</v>
       </c>
       <c r="I61" s="3">
-        <v>6810300</v>
+        <v>6839800</v>
       </c>
       <c r="J61" s="3">
-        <v>7042400</v>
+        <v>7072900</v>
       </c>
       <c r="K61" s="3">
         <v>5256500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>936000</v>
+        <v>940000</v>
       </c>
       <c r="E62" s="3">
-        <v>646700</v>
+        <v>649500</v>
       </c>
       <c r="F62" s="3">
-        <v>524400</v>
+        <v>526700</v>
       </c>
       <c r="G62" s="3">
-        <v>642300</v>
+        <v>645000</v>
       </c>
       <c r="H62" s="3">
-        <v>1165100</v>
+        <v>1170200</v>
       </c>
       <c r="I62" s="3">
-        <v>608200</v>
+        <v>610900</v>
       </c>
       <c r="J62" s="3">
-        <v>421800</v>
+        <v>423600</v>
       </c>
       <c r="K62" s="3">
         <v>108600</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22584600</v>
+        <v>22682600</v>
       </c>
       <c r="E66" s="3">
-        <v>22597300</v>
+        <v>22695400</v>
       </c>
       <c r="F66" s="3">
-        <v>24358800</v>
+        <v>24464500</v>
       </c>
       <c r="G66" s="3">
-        <v>23174400</v>
+        <v>23275000</v>
       </c>
       <c r="H66" s="3">
-        <v>23137800</v>
+        <v>23238200</v>
       </c>
       <c r="I66" s="3">
-        <v>25030300</v>
+        <v>25138900</v>
       </c>
       <c r="J66" s="3">
-        <v>23601300</v>
+        <v>23703700</v>
       </c>
       <c r="K66" s="3">
         <v>18825900</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>746700</v>
+        <v>749900</v>
       </c>
       <c r="E72" s="3">
-        <v>2258600</v>
+        <v>2268400</v>
       </c>
       <c r="F72" s="3">
-        <v>553000</v>
+        <v>555400</v>
       </c>
       <c r="G72" s="3">
-        <v>352200</v>
+        <v>353700</v>
       </c>
       <c r="H72" s="3">
-        <v>4744900</v>
+        <v>4765500</v>
       </c>
       <c r="I72" s="3">
-        <v>283800</v>
+        <v>285000</v>
       </c>
       <c r="J72" s="3">
-        <v>4690400</v>
+        <v>4710700</v>
       </c>
       <c r="K72" s="3">
         <v>2468400</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8316700</v>
+        <v>8352800</v>
       </c>
       <c r="E76" s="3">
-        <v>7973400</v>
+        <v>8008000</v>
       </c>
       <c r="F76" s="3">
-        <v>6037300</v>
+        <v>6063500</v>
       </c>
       <c r="G76" s="3">
-        <v>5806200</v>
+        <v>5831400</v>
       </c>
       <c r="H76" s="3">
-        <v>6078100</v>
+        <v>6104500</v>
       </c>
       <c r="I76" s="3">
-        <v>4305100</v>
+        <v>4323800</v>
       </c>
       <c r="J76" s="3">
-        <v>6747700</v>
+        <v>6777000</v>
       </c>
       <c r="K76" s="3">
         <v>6285500</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96100</v>
+        <v>96500</v>
       </c>
       <c r="E81" s="3">
-        <v>88000</v>
+        <v>88300</v>
       </c>
       <c r="F81" s="3">
-        <v>198200</v>
+        <v>199100</v>
       </c>
       <c r="G81" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="H81" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2465600</v>
+        <v>-2476300</v>
       </c>
       <c r="J81" s="3">
-        <v>-24712300</v>
+        <v>-24819500</v>
       </c>
       <c r="K81" s="3">
         <v>-1181400</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1298500</v>
+        <v>1304100</v>
       </c>
       <c r="E83" s="3">
-        <v>1189200</v>
+        <v>1194400</v>
       </c>
       <c r="F83" s="3">
-        <v>1041200</v>
+        <v>1045700</v>
       </c>
       <c r="G83" s="3">
-        <v>1037900</v>
+        <v>1042400</v>
       </c>
       <c r="H83" s="3">
-        <v>1093300</v>
+        <v>1098000</v>
       </c>
       <c r="I83" s="3">
-        <v>1103800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1100500</v>
+        <v>1108600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>894500</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1897500</v>
+        <v>1905700</v>
       </c>
       <c r="E89" s="3">
-        <v>1982400</v>
+        <v>1991000</v>
       </c>
       <c r="F89" s="3">
-        <v>2008800</v>
+        <v>2017500</v>
       </c>
       <c r="G89" s="3">
-        <v>1754000</v>
+        <v>1761600</v>
       </c>
       <c r="H89" s="3">
-        <v>1110000</v>
+        <v>1114800</v>
       </c>
       <c r="I89" s="3">
-        <v>2102100</v>
+        <v>2111200</v>
       </c>
       <c r="J89" s="3">
-        <v>1255200</v>
+        <v>1260600</v>
       </c>
       <c r="K89" s="3">
         <v>161000</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1352600</v>
+        <v>-1358400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1026300</v>
+        <v>-1030700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1352600</v>
+        <v>-1358500</v>
       </c>
       <c r="G91" s="3">
-        <v>-949700</v>
+        <v>-953800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1399200</v>
+        <v>-1405300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1222800</v>
+        <v>-1228100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1291000</v>
+        <v>-1296600</v>
       </c>
       <c r="K91" s="3">
         <v>-1312600</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2037200</v>
+        <v>-2046100</v>
       </c>
       <c r="E94" s="3">
-        <v>-841100</v>
+        <v>-844700</v>
       </c>
       <c r="F94" s="3">
-        <v>-851500</v>
+        <v>-855200</v>
       </c>
       <c r="G94" s="3">
-        <v>-760400</v>
+        <v>-763700</v>
       </c>
       <c r="H94" s="3">
-        <v>364000</v>
+        <v>365600</v>
       </c>
       <c r="I94" s="3">
-        <v>-748600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1169200</v>
+        <v>-751900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-3322000</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1593300</v>
+        <v>-1600200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2476600</v>
+        <v>-2487400</v>
       </c>
       <c r="F100" s="3">
-        <v>-517100</v>
+        <v>-519300</v>
       </c>
       <c r="G100" s="3">
-        <v>-558600</v>
+        <v>-561000</v>
       </c>
       <c r="H100" s="3">
-        <v>-825300</v>
+        <v>-828900</v>
       </c>
       <c r="I100" s="3">
-        <v>-611000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>267500</v>
+        <v>-613600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>2931100</v>
@@ -3468,13 +3468,13 @@
         <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="F101" s="3">
-        <v>-33700</v>
+        <v>-33900</v>
       </c>
       <c r="G101" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="H101" s="3">
         <v>17500</v>
@@ -3482,8 +3482,8 @@
       <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
-        <v>-800</v>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1729900</v>
+        <v>-1737400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1326500</v>
+        <v>-1332300</v>
       </c>
       <c r="F102" s="3">
-        <v>606600</v>
+        <v>609200</v>
       </c>
       <c r="G102" s="3">
-        <v>464200</v>
+        <v>466200</v>
       </c>
       <c r="H102" s="3">
-        <v>666200</v>
+        <v>669100</v>
       </c>
       <c r="I102" s="3">
-        <v>743400</v>
+        <v>746600</v>
       </c>
       <c r="J102" s="3">
-        <v>352600</v>
+        <v>354200</v>
       </c>
       <c r="K102" s="3">
         <v>-219200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ACH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29039500</v>
+        <v>29017000</v>
       </c>
       <c r="E8" s="3">
-        <v>27537300</v>
+        <v>29675500</v>
       </c>
       <c r="F8" s="3">
-        <v>27656300</v>
+        <v>28119500</v>
       </c>
       <c r="G8" s="3">
-        <v>22035300</v>
+        <v>28241000</v>
       </c>
       <c r="H8" s="3">
-        <v>18864600</v>
+        <v>22501200</v>
       </c>
       <c r="I8" s="3">
-        <v>21694700</v>
+        <v>19263400</v>
       </c>
       <c r="J8" s="3">
+        <v>22153400</v>
+      </c>
+      <c r="K8" s="3">
         <v>26288400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20580300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21649200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27186600</v>
+        <v>26922900</v>
       </c>
       <c r="E9" s="3">
-        <v>25518800</v>
+        <v>27780400</v>
       </c>
       <c r="F9" s="3">
-        <v>25442800</v>
+        <v>26058300</v>
       </c>
       <c r="G9" s="3">
-        <v>20422800</v>
+        <v>25980700</v>
       </c>
       <c r="H9" s="3">
-        <v>18483700</v>
+        <v>20854500</v>
       </c>
       <c r="I9" s="3">
-        <v>43155400</v>
+        <v>18874500</v>
       </c>
       <c r="J9" s="3">
+        <v>44067800</v>
+      </c>
+      <c r="K9" s="3">
         <v>50930700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42072400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20497100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1852900</v>
+        <v>2094100</v>
       </c>
       <c r="E10" s="3">
-        <v>2018500</v>
+        <v>1895100</v>
       </c>
       <c r="F10" s="3">
-        <v>2213500</v>
+        <v>2061200</v>
       </c>
       <c r="G10" s="3">
-        <v>1612500</v>
+        <v>2260300</v>
       </c>
       <c r="H10" s="3">
-        <v>380800</v>
+        <v>1646600</v>
       </c>
       <c r="I10" s="3">
-        <v>-21460700</v>
+        <v>388900</v>
       </c>
       <c r="J10" s="3">
+        <v>-21914400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-24642300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-21492100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1152100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>143700</v>
+        <v>218700</v>
       </c>
       <c r="E12" s="3">
-        <v>95800</v>
+        <v>146800</v>
       </c>
       <c r="F12" s="3">
-        <v>76100</v>
+        <v>97800</v>
       </c>
       <c r="G12" s="3">
-        <v>25800</v>
+        <v>77700</v>
       </c>
       <c r="H12" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="I12" s="3">
-        <v>44900</v>
+        <v>26300</v>
       </c>
       <c r="J12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K12" s="3">
         <v>29600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-38800</v>
+        <v>216000</v>
       </c>
       <c r="E14" s="3">
-        <v>56500</v>
+        <v>-85500</v>
       </c>
       <c r="F14" s="3">
-        <v>-47200</v>
+        <v>57700</v>
       </c>
       <c r="G14" s="3">
-        <v>-98200</v>
+        <v>-48200</v>
       </c>
       <c r="H14" s="3">
-        <v>-521100</v>
+        <v>-100300</v>
       </c>
       <c r="I14" s="3">
-        <v>905800</v>
+        <v>-532100</v>
       </c>
       <c r="J14" s="3">
+        <v>924900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-973800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>32400</v>
+        <v>38800</v>
       </c>
       <c r="E15" s="3">
-        <v>36500</v>
+        <v>33500</v>
       </c>
       <c r="F15" s="3">
-        <v>30800</v>
+        <v>37200</v>
       </c>
       <c r="G15" s="3">
-        <v>34200</v>
+        <v>31500</v>
       </c>
       <c r="H15" s="3">
-        <v>34700</v>
+        <v>34900</v>
       </c>
       <c r="I15" s="3">
-        <v>38800</v>
+        <v>35500</v>
       </c>
       <c r="J15" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>67100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>37800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28053300</v>
+        <v>28077400</v>
       </c>
       <c r="E17" s="3">
-        <v>26496100</v>
+        <v>28667600</v>
       </c>
       <c r="F17" s="3">
-        <v>26479500</v>
+        <v>27056300</v>
       </c>
       <c r="G17" s="3">
-        <v>21147600</v>
+        <v>27039300</v>
       </c>
       <c r="H17" s="3">
-        <v>18104100</v>
+        <v>21594700</v>
       </c>
       <c r="I17" s="3">
-        <v>23333000</v>
+        <v>18486800</v>
       </c>
       <c r="J17" s="3">
+        <v>23826300</v>
+      </c>
+      <c r="K17" s="3">
         <v>50517500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21162900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21118700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>986200</v>
+        <v>939600</v>
       </c>
       <c r="E18" s="3">
-        <v>1041200</v>
+        <v>1007900</v>
       </c>
       <c r="F18" s="3">
-        <v>1176800</v>
+        <v>1063200</v>
       </c>
       <c r="G18" s="3">
-        <v>887700</v>
+        <v>1201700</v>
       </c>
       <c r="H18" s="3">
-        <v>760500</v>
+        <v>906400</v>
       </c>
       <c r="I18" s="3">
-        <v>-1638200</v>
+        <v>776600</v>
       </c>
       <c r="J18" s="3">
+        <v>-1672900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-24229200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-582500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>530500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>89000</v>
+        <v>74400</v>
       </c>
       <c r="E20" s="3">
-        <v>51900</v>
+        <v>100300</v>
       </c>
       <c r="F20" s="3">
-        <v>63900</v>
+        <v>53000</v>
       </c>
       <c r="G20" s="3">
-        <v>136800</v>
+        <v>65200</v>
       </c>
       <c r="H20" s="3">
-        <v>156500</v>
+        <v>139700</v>
       </c>
       <c r="I20" s="3">
-        <v>225700</v>
+        <v>159800</v>
       </c>
       <c r="J20" s="3">
+        <v>230500</v>
+      </c>
+      <c r="K20" s="3">
         <v>304500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>103900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2383700</v>
+        <v>2323400</v>
       </c>
       <c r="E21" s="3">
-        <v>2291500</v>
+        <v>2439200</v>
       </c>
       <c r="F21" s="3">
-        <v>2290000</v>
+        <v>2334400</v>
       </c>
       <c r="G21" s="3">
-        <v>2070400</v>
+        <v>2333500</v>
       </c>
       <c r="H21" s="3">
-        <v>2018700</v>
+        <v>2109300</v>
       </c>
       <c r="I21" s="3">
-        <v>-300200</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2056200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-311800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>398500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1487000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>752200</v>
+        <v>677700</v>
       </c>
       <c r="E22" s="3">
-        <v>747200</v>
+        <v>777600</v>
       </c>
       <c r="F22" s="3">
-        <v>774900</v>
+        <v>762900</v>
       </c>
       <c r="G22" s="3">
-        <v>776100</v>
+        <v>791300</v>
       </c>
       <c r="H22" s="3">
-        <v>896100</v>
+        <v>792600</v>
       </c>
       <c r="I22" s="3">
-        <v>1026700</v>
+        <v>915000</v>
       </c>
       <c r="J22" s="3">
+        <v>1048400</v>
+      </c>
+      <c r="K22" s="3">
         <v>908900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>627400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>513100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>322900</v>
+        <v>336200</v>
       </c>
       <c r="E23" s="3">
-        <v>346000</v>
+        <v>330600</v>
       </c>
       <c r="F23" s="3">
-        <v>465800</v>
+        <v>353300</v>
       </c>
       <c r="G23" s="3">
-        <v>248400</v>
+        <v>475700</v>
       </c>
       <c r="H23" s="3">
-        <v>20900</v>
+        <v>253600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2439300</v>
+        <v>21400</v>
       </c>
       <c r="J23" s="3">
+        <v>-2490800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24833500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1123100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>95600</v>
+        <v>90800</v>
       </c>
       <c r="E24" s="3">
-        <v>125700</v>
+        <v>98000</v>
       </c>
       <c r="F24" s="3">
-        <v>98300</v>
+        <v>128300</v>
       </c>
       <c r="G24" s="3">
-        <v>61700</v>
+        <v>100400</v>
       </c>
       <c r="H24" s="3">
-        <v>-35200</v>
+        <v>63100</v>
       </c>
       <c r="I24" s="3">
-        <v>164200</v>
+        <v>-35900</v>
       </c>
       <c r="J24" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K24" s="3">
         <v>51900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-53200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>227300</v>
+        <v>245400</v>
       </c>
       <c r="E26" s="3">
-        <v>220300</v>
+        <v>232500</v>
       </c>
       <c r="F26" s="3">
-        <v>367500</v>
+        <v>225000</v>
       </c>
       <c r="G26" s="3">
-        <v>186600</v>
+        <v>375200</v>
       </c>
       <c r="H26" s="3">
-        <v>56100</v>
+        <v>190500</v>
       </c>
       <c r="I26" s="3">
-        <v>-2603500</v>
+        <v>57300</v>
       </c>
       <c r="J26" s="3">
+        <v>-2658500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-24885400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1069800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>102500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>96500</v>
+        <v>74900</v>
       </c>
       <c r="E27" s="3">
-        <v>88300</v>
+        <v>98900</v>
       </c>
       <c r="F27" s="3">
-        <v>199100</v>
+        <v>90200</v>
       </c>
       <c r="G27" s="3">
-        <v>39500</v>
+        <v>203300</v>
       </c>
       <c r="H27" s="3">
-        <v>19800</v>
+        <v>40300</v>
       </c>
       <c r="I27" s="3">
-        <v>-2476300</v>
+        <v>20200</v>
       </c>
       <c r="J27" s="3">
+        <v>-2528600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-24851100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1011000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1369,21 +1429,24 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>31600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-170400</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-89000</v>
+        <v>-74400</v>
       </c>
       <c r="E32" s="3">
-        <v>-51900</v>
+        <v>-100300</v>
       </c>
       <c r="F32" s="3">
-        <v>-63900</v>
+        <v>-53000</v>
       </c>
       <c r="G32" s="3">
-        <v>-136800</v>
+        <v>-65200</v>
       </c>
       <c r="H32" s="3">
-        <v>-156500</v>
+        <v>-139700</v>
       </c>
       <c r="I32" s="3">
-        <v>-225700</v>
+        <v>-159800</v>
       </c>
       <c r="J32" s="3">
+        <v>-230500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-304500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-103900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96500</v>
+        <v>74900</v>
       </c>
       <c r="E33" s="3">
-        <v>88300</v>
+        <v>98900</v>
       </c>
       <c r="F33" s="3">
-        <v>199100</v>
+        <v>90200</v>
       </c>
       <c r="G33" s="3">
-        <v>39500</v>
+        <v>203300</v>
       </c>
       <c r="H33" s="3">
-        <v>19800</v>
+        <v>40300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2476300</v>
+        <v>20200</v>
       </c>
       <c r="J33" s="3">
+        <v>-2528600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-24819500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1181400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96500</v>
+        <v>74900</v>
       </c>
       <c r="E35" s="3">
-        <v>88300</v>
+        <v>98900</v>
       </c>
       <c r="F35" s="3">
-        <v>199100</v>
+        <v>90200</v>
       </c>
       <c r="G35" s="3">
-        <v>39500</v>
+        <v>203300</v>
       </c>
       <c r="H35" s="3">
-        <v>19800</v>
+        <v>40300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2476300</v>
+        <v>20200</v>
       </c>
       <c r="J35" s="3">
+        <v>-2528600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-24819500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1181400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1188500</v>
+        <v>1502600</v>
       </c>
       <c r="E41" s="3">
-        <v>2922800</v>
+        <v>1213600</v>
       </c>
       <c r="F41" s="3">
-        <v>4252800</v>
+        <v>2984600</v>
       </c>
       <c r="G41" s="3">
-        <v>3638300</v>
+        <v>4342700</v>
       </c>
       <c r="H41" s="3">
-        <v>3171100</v>
+        <v>3715200</v>
       </c>
       <c r="I41" s="3">
-        <v>2485500</v>
+        <v>3238200</v>
       </c>
       <c r="J41" s="3">
+        <v>2538100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1898400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1571900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>716300</v>
+        <v>168800</v>
       </c>
       <c r="E42" s="3">
-        <v>183600</v>
+        <v>731500</v>
       </c>
       <c r="F42" s="3">
-        <v>155300</v>
+        <v>187500</v>
       </c>
       <c r="G42" s="3">
-        <v>145900</v>
+        <v>158500</v>
       </c>
       <c r="H42" s="3">
-        <v>164500</v>
+        <v>148900</v>
       </c>
       <c r="I42" s="3">
-        <v>827600</v>
+        <v>168000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>845100</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2120100</v>
+        <v>2122700</v>
       </c>
       <c r="E43" s="3">
-        <v>2156900</v>
+        <v>2165000</v>
       </c>
       <c r="F43" s="3">
-        <v>2313300</v>
+        <v>2202500</v>
       </c>
       <c r="G43" s="3">
-        <v>2739900</v>
+        <v>2362200</v>
       </c>
       <c r="H43" s="3">
-        <v>2317900</v>
+        <v>2797800</v>
       </c>
       <c r="I43" s="3">
-        <v>2151800</v>
+        <v>2366900</v>
       </c>
       <c r="J43" s="3">
+        <v>2197300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3401600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1099500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1325200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5963200</v>
+        <v>3097900</v>
       </c>
       <c r="E44" s="3">
-        <v>3125800</v>
+        <v>6089200</v>
       </c>
       <c r="F44" s="3">
-        <v>3139300</v>
+        <v>3191900</v>
       </c>
       <c r="G44" s="3">
-        <v>2739900</v>
+        <v>3205600</v>
       </c>
       <c r="H44" s="3">
-        <v>6190400</v>
+        <v>2797800</v>
       </c>
       <c r="I44" s="3">
-        <v>3444200</v>
+        <v>6321300</v>
       </c>
       <c r="J44" s="3">
+        <v>3517000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7191600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3672600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3580300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1845300</v>
+        <v>316300</v>
       </c>
       <c r="E45" s="3">
-        <v>609800</v>
+        <v>1884300</v>
       </c>
       <c r="F45" s="3">
-        <v>626900</v>
+        <v>622700</v>
       </c>
       <c r="G45" s="3">
-        <v>894000</v>
+        <v>640100</v>
       </c>
       <c r="H45" s="3">
-        <v>3508400</v>
+        <v>912900</v>
       </c>
       <c r="I45" s="3">
-        <v>1371300</v>
+        <v>3582600</v>
       </c>
       <c r="J45" s="3">
+        <v>1400300</v>
+      </c>
+      <c r="K45" s="3">
         <v>3821100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>956100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>931900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7440600</v>
+        <v>7208200</v>
       </c>
       <c r="E46" s="3">
-        <v>8999000</v>
+        <v>7597900</v>
       </c>
       <c r="F46" s="3">
-        <v>10487500</v>
+        <v>9189200</v>
       </c>
       <c r="G46" s="3">
-        <v>10157800</v>
+        <v>10709200</v>
       </c>
       <c r="H46" s="3">
-        <v>9848600</v>
+        <v>10372600</v>
       </c>
       <c r="I46" s="3">
-        <v>9716200</v>
+        <v>10056800</v>
       </c>
       <c r="J46" s="3">
+        <v>9921700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9635100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7032800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7416000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2332300</v>
+        <v>2215700</v>
       </c>
       <c r="E47" s="3">
-        <v>1786200</v>
+        <v>2381600</v>
       </c>
       <c r="F47" s="3">
-        <v>2311900</v>
+        <v>1824000</v>
       </c>
       <c r="G47" s="3">
-        <v>2092700</v>
+        <v>2360700</v>
       </c>
       <c r="H47" s="3">
-        <v>3513800</v>
+        <v>2136900</v>
       </c>
       <c r="I47" s="3">
-        <v>2419200</v>
+        <v>3588100</v>
       </c>
       <c r="J47" s="3">
+        <v>2470400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1433300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2756700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>592900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18685900</v>
+        <v>18179500</v>
       </c>
       <c r="E48" s="3">
-        <v>16409400</v>
+        <v>19081000</v>
       </c>
       <c r="F48" s="3">
-        <v>14813500</v>
+        <v>16756300</v>
       </c>
       <c r="G48" s="3">
-        <v>14074700</v>
+        <v>15126700</v>
       </c>
       <c r="H48" s="3">
-        <v>27779900</v>
+        <v>14372300</v>
       </c>
       <c r="I48" s="3">
-        <v>12275200</v>
+        <v>28367200</v>
       </c>
       <c r="J48" s="3">
+        <v>12534700</v>
+      </c>
+      <c r="K48" s="3">
         <v>30741200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13809700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13917200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2102900</v>
+        <v>2098100</v>
       </c>
       <c r="E49" s="3">
-        <v>2625700</v>
+        <v>2147400</v>
       </c>
       <c r="F49" s="3">
-        <v>2171700</v>
+        <v>2681200</v>
       </c>
       <c r="G49" s="3">
-        <v>2132000</v>
+        <v>2217600</v>
       </c>
       <c r="H49" s="3">
-        <v>4130600</v>
+        <v>2177100</v>
       </c>
       <c r="I49" s="3">
-        <v>2177800</v>
+        <v>4217900</v>
       </c>
       <c r="J49" s="3">
+        <v>2223800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4154500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>983400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>995400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1193300</v>
+        <v>705100</v>
       </c>
       <c r="E52" s="3">
-        <v>883200</v>
+        <v>1218600</v>
       </c>
       <c r="F52" s="3">
-        <v>743400</v>
+        <v>901800</v>
       </c>
       <c r="G52" s="3">
-        <v>649100</v>
+        <v>759100</v>
       </c>
       <c r="H52" s="3">
-        <v>2287200</v>
+        <v>662800</v>
       </c>
       <c r="I52" s="3">
-        <v>769700</v>
+        <v>2335500</v>
       </c>
       <c r="J52" s="3">
+        <v>786000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2330600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>528700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>398800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31035300</v>
+        <v>30406600</v>
       </c>
       <c r="E54" s="3">
-        <v>30703400</v>
+        <v>31691500</v>
       </c>
       <c r="F54" s="3">
-        <v>30528000</v>
+        <v>31352500</v>
       </c>
       <c r="G54" s="3">
-        <v>29106300</v>
+        <v>31173400</v>
       </c>
       <c r="H54" s="3">
-        <v>29342700</v>
+        <v>29721700</v>
       </c>
       <c r="I54" s="3">
-        <v>29462600</v>
+        <v>29963000</v>
       </c>
       <c r="J54" s="3">
+        <v>30085500</v>
+      </c>
+      <c r="K54" s="3">
         <v>30480700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25111400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23320300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1926400</v>
+        <v>2408900</v>
       </c>
       <c r="E57" s="3">
-        <v>2140300</v>
+        <v>1967100</v>
       </c>
       <c r="F57" s="3">
-        <v>1888400</v>
+        <v>2185600</v>
       </c>
       <c r="G57" s="3">
-        <v>1733000</v>
+        <v>1928400</v>
       </c>
       <c r="H57" s="3">
-        <v>2249900</v>
+        <v>1769600</v>
       </c>
       <c r="I57" s="3">
-        <v>5763900</v>
+        <v>2297500</v>
       </c>
       <c r="J57" s="3">
+        <v>5885800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1340000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1558500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6668100</v>
+        <v>5414700</v>
       </c>
       <c r="E58" s="3">
-        <v>7267100</v>
+        <v>6809100</v>
       </c>
       <c r="F58" s="3">
-        <v>9622200</v>
+        <v>7420700</v>
       </c>
       <c r="G58" s="3">
-        <v>8931400</v>
+        <v>9825700</v>
       </c>
       <c r="H58" s="3">
-        <v>8366400</v>
+        <v>9120300</v>
       </c>
       <c r="I58" s="3">
-        <v>12313000</v>
+        <v>8543300</v>
       </c>
       <c r="J58" s="3">
+        <v>12573300</v>
+      </c>
+      <c r="K58" s="3">
         <v>9030300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10056600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7216800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4086800</v>
+        <v>1946900</v>
       </c>
       <c r="E59" s="3">
-        <v>2026200</v>
+        <v>4173200</v>
       </c>
       <c r="F59" s="3">
-        <v>4228100</v>
+        <v>2069000</v>
       </c>
       <c r="G59" s="3">
-        <v>2043800</v>
+        <v>4317500</v>
       </c>
       <c r="H59" s="3">
-        <v>3682100</v>
+        <v>2087000</v>
       </c>
       <c r="I59" s="3">
-        <v>2033800</v>
+        <v>3759900</v>
       </c>
       <c r="J59" s="3">
+        <v>2076800</v>
+      </c>
+      <c r="K59" s="3">
         <v>7341000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>479600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10572900</v>
+        <v>9770500</v>
       </c>
       <c r="E60" s="3">
-        <v>11433600</v>
+        <v>10796400</v>
       </c>
       <c r="F60" s="3">
-        <v>13801700</v>
+        <v>11675300</v>
       </c>
       <c r="G60" s="3">
-        <v>12708200</v>
+        <v>14093500</v>
       </c>
       <c r="H60" s="3">
-        <v>12498500</v>
+        <v>12976900</v>
       </c>
       <c r="I60" s="3">
-        <v>15953600</v>
+        <v>12762800</v>
       </c>
       <c r="J60" s="3">
+        <v>16290900</v>
+      </c>
+      <c r="K60" s="3">
         <v>14779600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12031300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9254900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9051200</v>
+        <v>8973400</v>
       </c>
       <c r="E61" s="3">
-        <v>8281800</v>
+        <v>9242600</v>
       </c>
       <c r="F61" s="3">
-        <v>6155500</v>
+        <v>8456900</v>
       </c>
       <c r="G61" s="3">
-        <v>7230000</v>
+        <v>6285600</v>
       </c>
       <c r="H61" s="3">
-        <v>8250300</v>
+        <v>7382800</v>
       </c>
       <c r="I61" s="3">
-        <v>6839800</v>
+        <v>8424700</v>
       </c>
       <c r="J61" s="3">
+        <v>6984400</v>
+      </c>
+      <c r="K61" s="3">
         <v>7072900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5256500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5338100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>940000</v>
+        <v>559200</v>
       </c>
       <c r="E62" s="3">
-        <v>649500</v>
+        <v>959900</v>
       </c>
       <c r="F62" s="3">
-        <v>526700</v>
+        <v>663200</v>
       </c>
       <c r="G62" s="3">
-        <v>645000</v>
+        <v>537800</v>
       </c>
       <c r="H62" s="3">
-        <v>1170200</v>
+        <v>658700</v>
       </c>
       <c r="I62" s="3">
-        <v>610900</v>
+        <v>1194900</v>
       </c>
       <c r="J62" s="3">
+        <v>623800</v>
+      </c>
+      <c r="K62" s="3">
         <v>423600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22682600</v>
+        <v>21930300</v>
       </c>
       <c r="E66" s="3">
-        <v>22695400</v>
+        <v>23162100</v>
       </c>
       <c r="F66" s="3">
-        <v>24464500</v>
+        <v>23175200</v>
       </c>
       <c r="G66" s="3">
-        <v>23275000</v>
+        <v>24981700</v>
       </c>
       <c r="H66" s="3">
-        <v>23238200</v>
+        <v>23767100</v>
       </c>
       <c r="I66" s="3">
-        <v>25138900</v>
+        <v>23729500</v>
       </c>
       <c r="J66" s="3">
+        <v>25670300</v>
+      </c>
+      <c r="K66" s="3">
         <v>23703700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18825900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15628800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>749900</v>
+        <v>852800</v>
       </c>
       <c r="E72" s="3">
-        <v>2268400</v>
+        <v>765800</v>
       </c>
       <c r="F72" s="3">
-        <v>555400</v>
+        <v>2316400</v>
       </c>
       <c r="G72" s="3">
-        <v>353700</v>
+        <v>567100</v>
       </c>
       <c r="H72" s="3">
-        <v>4765500</v>
+        <v>361200</v>
       </c>
       <c r="I72" s="3">
-        <v>285000</v>
+        <v>4866200</v>
       </c>
       <c r="J72" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4710700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2468400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3783100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8352800</v>
+        <v>8476300</v>
       </c>
       <c r="E76" s="3">
-        <v>8008000</v>
+        <v>8529400</v>
       </c>
       <c r="F76" s="3">
-        <v>6063500</v>
+        <v>8177300</v>
       </c>
       <c r="G76" s="3">
-        <v>5831400</v>
+        <v>6191700</v>
       </c>
       <c r="H76" s="3">
-        <v>6104500</v>
+        <v>5954600</v>
       </c>
       <c r="I76" s="3">
-        <v>4323800</v>
+        <v>6233500</v>
       </c>
       <c r="J76" s="3">
+        <v>4415200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6777000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6285500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7691500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96500</v>
+        <v>74900</v>
       </c>
       <c r="E81" s="3">
-        <v>88300</v>
+        <v>98900</v>
       </c>
       <c r="F81" s="3">
-        <v>199100</v>
+        <v>90200</v>
       </c>
       <c r="G81" s="3">
-        <v>39500</v>
+        <v>203300</v>
       </c>
       <c r="H81" s="3">
-        <v>19800</v>
+        <v>40300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2476300</v>
+        <v>20200</v>
       </c>
       <c r="J81" s="3">
+        <v>-2528600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-24819500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1181400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1304100</v>
+        <v>1311000</v>
       </c>
       <c r="E83" s="3">
-        <v>1194400</v>
+        <v>1332700</v>
       </c>
       <c r="F83" s="3">
-        <v>1045700</v>
+        <v>1219600</v>
       </c>
       <c r="G83" s="3">
-        <v>1042400</v>
+        <v>1067900</v>
       </c>
       <c r="H83" s="3">
-        <v>1098000</v>
+        <v>1064400</v>
       </c>
       <c r="I83" s="3">
-        <v>1108600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1121200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>894500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>851100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1905700</v>
+        <v>2321600</v>
       </c>
       <c r="E89" s="3">
-        <v>1991000</v>
+        <v>1948800</v>
       </c>
       <c r="F89" s="3">
-        <v>2017500</v>
+        <v>2033100</v>
       </c>
       <c r="G89" s="3">
-        <v>1761600</v>
+        <v>2060200</v>
       </c>
       <c r="H89" s="3">
-        <v>1114800</v>
+        <v>1798900</v>
       </c>
       <c r="I89" s="3">
-        <v>2111200</v>
+        <v>1138400</v>
       </c>
       <c r="J89" s="3">
+        <v>2155900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1260600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>369500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1358400</v>
+        <v>-786100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1030700</v>
+        <v>-1412000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1358500</v>
+        <v>-1052500</v>
       </c>
       <c r="G91" s="3">
-        <v>-953800</v>
+        <v>-1387200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1405300</v>
+        <v>-974000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1228100</v>
+        <v>-1435000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1254100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1296600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1312600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1269300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2046100</v>
+        <v>301500</v>
       </c>
       <c r="E94" s="3">
-        <v>-844700</v>
+        <v>-2089900</v>
       </c>
       <c r="F94" s="3">
-        <v>-855200</v>
+        <v>-862600</v>
       </c>
       <c r="G94" s="3">
-        <v>-763700</v>
+        <v>-873300</v>
       </c>
       <c r="H94" s="3">
-        <v>365600</v>
+        <v>-779800</v>
       </c>
       <c r="I94" s="3">
-        <v>-751900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>373300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-767800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3322000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1441700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,11 +3557,14 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-22800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600200</v>
+        <v>-2460800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2487400</v>
+        <v>-1634100</v>
       </c>
       <c r="F100" s="3">
-        <v>-519300</v>
+        <v>-2539900</v>
       </c>
       <c r="G100" s="3">
-        <v>-561000</v>
+        <v>-530300</v>
       </c>
       <c r="H100" s="3">
-        <v>-828900</v>
+        <v>-572900</v>
       </c>
       <c r="I100" s="3">
-        <v>-613600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-846500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-626600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2931100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1312300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>-13800</v>
       </c>
       <c r="E101" s="3">
-        <v>8800</v>
+        <v>3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-33900</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>29300</v>
+        <v>-34600</v>
       </c>
       <c r="H101" s="3">
-        <v>17500</v>
+        <v>29900</v>
       </c>
       <c r="I101" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1737400</v>
+        <v>148600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1332300</v>
+        <v>-1771800</v>
       </c>
       <c r="F102" s="3">
-        <v>609200</v>
+        <v>-1360400</v>
       </c>
       <c r="G102" s="3">
-        <v>466200</v>
+        <v>622100</v>
       </c>
       <c r="H102" s="3">
-        <v>669100</v>
+        <v>476100</v>
       </c>
       <c r="I102" s="3">
-        <v>746600</v>
+        <v>683200</v>
       </c>
       <c r="J102" s="3">
+        <v>762400</v>
+      </c>
+      <c r="K102" s="3">
         <v>354200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-219200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>238700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29017000</v>
+        <v>28639400</v>
       </c>
       <c r="E8" s="3">
-        <v>29675500</v>
+        <v>29289400</v>
       </c>
       <c r="F8" s="3">
-        <v>28119500</v>
+        <v>27753600</v>
       </c>
       <c r="G8" s="3">
-        <v>28241000</v>
+        <v>27873500</v>
       </c>
       <c r="H8" s="3">
-        <v>22501200</v>
+        <v>22208400</v>
       </c>
       <c r="I8" s="3">
-        <v>19263400</v>
+        <v>19012700</v>
       </c>
       <c r="J8" s="3">
-        <v>22153400</v>
+        <v>21865100</v>
       </c>
       <c r="K8" s="3">
         <v>26288400</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26922900</v>
+        <v>26572500</v>
       </c>
       <c r="E9" s="3">
-        <v>27780400</v>
+        <v>27418900</v>
       </c>
       <c r="F9" s="3">
-        <v>26058300</v>
+        <v>25719200</v>
       </c>
       <c r="G9" s="3">
-        <v>25980700</v>
+        <v>25642700</v>
       </c>
       <c r="H9" s="3">
-        <v>20854500</v>
+        <v>20583200</v>
       </c>
       <c r="I9" s="3">
-        <v>18874500</v>
+        <v>18628900</v>
       </c>
       <c r="J9" s="3">
-        <v>44067800</v>
+        <v>43494400</v>
       </c>
       <c r="K9" s="3">
         <v>50930700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2094100</v>
+        <v>2066900</v>
       </c>
       <c r="E10" s="3">
-        <v>1895100</v>
+        <v>1870400</v>
       </c>
       <c r="F10" s="3">
-        <v>2061200</v>
+        <v>2034400</v>
       </c>
       <c r="G10" s="3">
-        <v>2260300</v>
+        <v>2230900</v>
       </c>
       <c r="H10" s="3">
-        <v>1646600</v>
+        <v>1625200</v>
       </c>
       <c r="I10" s="3">
-        <v>388900</v>
+        <v>383800</v>
       </c>
       <c r="J10" s="3">
-        <v>-21914400</v>
+        <v>-21629300</v>
       </c>
       <c r="K10" s="3">
         <v>-24642300</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>218700</v>
+        <v>215800</v>
       </c>
       <c r="E12" s="3">
-        <v>146800</v>
+        <v>144900</v>
       </c>
       <c r="F12" s="3">
-        <v>97800</v>
+        <v>96500</v>
       </c>
       <c r="G12" s="3">
-        <v>77700</v>
+        <v>76700</v>
       </c>
       <c r="H12" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="I12" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="J12" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="K12" s="3">
         <v>29600</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>216000</v>
+        <v>213200</v>
       </c>
       <c r="E14" s="3">
-        <v>-85500</v>
+        <v>-84400</v>
       </c>
       <c r="F14" s="3">
-        <v>57700</v>
+        <v>56900</v>
       </c>
       <c r="G14" s="3">
-        <v>-48200</v>
+        <v>-47600</v>
       </c>
       <c r="H14" s="3">
-        <v>-100300</v>
+        <v>-99000</v>
       </c>
       <c r="I14" s="3">
-        <v>-532100</v>
+        <v>-525100</v>
       </c>
       <c r="J14" s="3">
-        <v>924900</v>
+        <v>912900</v>
       </c>
       <c r="K14" s="3">
         <v>-973800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="E15" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="F15" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="G15" s="3">
-        <v>31500</v>
+        <v>31000</v>
       </c>
       <c r="H15" s="3">
-        <v>34900</v>
+        <v>34400</v>
       </c>
       <c r="I15" s="3">
-        <v>35500</v>
+        <v>35000</v>
       </c>
       <c r="J15" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="K15" s="3">
         <v>34000</v>
@@ -1003,25 +1003,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28077400</v>
+        <v>27712000</v>
       </c>
       <c r="E17" s="3">
-        <v>28667600</v>
+        <v>28294600</v>
       </c>
       <c r="F17" s="3">
-        <v>27056300</v>
+        <v>26704200</v>
       </c>
       <c r="G17" s="3">
-        <v>27039300</v>
+        <v>26687400</v>
       </c>
       <c r="H17" s="3">
-        <v>21594700</v>
+        <v>21313700</v>
       </c>
       <c r="I17" s="3">
-        <v>18486800</v>
+        <v>18246300</v>
       </c>
       <c r="J17" s="3">
-        <v>23826300</v>
+        <v>23516200</v>
       </c>
       <c r="K17" s="3">
         <v>50517500</v>
@@ -1039,25 +1039,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>939600</v>
+        <v>927400</v>
       </c>
       <c r="E18" s="3">
-        <v>1007900</v>
+        <v>994800</v>
       </c>
       <c r="F18" s="3">
-        <v>1063200</v>
+        <v>1049400</v>
       </c>
       <c r="G18" s="3">
-        <v>1201700</v>
+        <v>1186100</v>
       </c>
       <c r="H18" s="3">
-        <v>906400</v>
+        <v>894600</v>
       </c>
       <c r="I18" s="3">
-        <v>776600</v>
+        <v>766500</v>
       </c>
       <c r="J18" s="3">
-        <v>-1672900</v>
+        <v>-1651100</v>
       </c>
       <c r="K18" s="3">
         <v>-24229200</v>
@@ -1091,25 +1091,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>74400</v>
+        <v>73400</v>
       </c>
       <c r="E20" s="3">
-        <v>100300</v>
+        <v>99000</v>
       </c>
       <c r="F20" s="3">
-        <v>53000</v>
+        <v>52400</v>
       </c>
       <c r="G20" s="3">
-        <v>65200</v>
+        <v>64400</v>
       </c>
       <c r="H20" s="3">
-        <v>139700</v>
+        <v>137900</v>
       </c>
       <c r="I20" s="3">
-        <v>159800</v>
+        <v>157700</v>
       </c>
       <c r="J20" s="3">
-        <v>230500</v>
+        <v>227500</v>
       </c>
       <c r="K20" s="3">
         <v>304500</v>
@@ -1127,25 +1127,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2323400</v>
+        <v>2296800</v>
       </c>
       <c r="E21" s="3">
-        <v>2439200</v>
+        <v>2411100</v>
       </c>
       <c r="F21" s="3">
-        <v>2334400</v>
+        <v>2307300</v>
       </c>
       <c r="G21" s="3">
-        <v>2333500</v>
+        <v>2306000</v>
       </c>
       <c r="H21" s="3">
-        <v>2109300</v>
+        <v>2084700</v>
       </c>
       <c r="I21" s="3">
-        <v>2056200</v>
+        <v>2032500</v>
       </c>
       <c r="J21" s="3">
-        <v>-311800</v>
+        <v>-304600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>677700</v>
+        <v>668900</v>
       </c>
       <c r="E22" s="3">
-        <v>777600</v>
+        <v>767500</v>
       </c>
       <c r="F22" s="3">
-        <v>762900</v>
+        <v>753000</v>
       </c>
       <c r="G22" s="3">
-        <v>791300</v>
+        <v>781000</v>
       </c>
       <c r="H22" s="3">
-        <v>792600</v>
+        <v>782200</v>
       </c>
       <c r="I22" s="3">
-        <v>915000</v>
+        <v>903100</v>
       </c>
       <c r="J22" s="3">
-        <v>1048400</v>
+        <v>1034800</v>
       </c>
       <c r="K22" s="3">
         <v>908900</v>
@@ -1199,25 +1199,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>336200</v>
+        <v>331900</v>
       </c>
       <c r="E23" s="3">
-        <v>330600</v>
+        <v>326300</v>
       </c>
       <c r="F23" s="3">
-        <v>353300</v>
+        <v>348700</v>
       </c>
       <c r="G23" s="3">
-        <v>475700</v>
+        <v>469500</v>
       </c>
       <c r="H23" s="3">
-        <v>253600</v>
+        <v>250300</v>
       </c>
       <c r="I23" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="J23" s="3">
-        <v>-2490800</v>
+        <v>-2458400</v>
       </c>
       <c r="K23" s="3">
         <v>-24833500</v>
@@ -1235,25 +1235,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>90800</v>
+        <v>89600</v>
       </c>
       <c r="E24" s="3">
-        <v>98000</v>
+        <v>96800</v>
       </c>
       <c r="F24" s="3">
-        <v>128300</v>
+        <v>126700</v>
       </c>
       <c r="G24" s="3">
-        <v>100400</v>
+        <v>99100</v>
       </c>
       <c r="H24" s="3">
-        <v>63100</v>
+        <v>62200</v>
       </c>
       <c r="I24" s="3">
-        <v>-35900</v>
+        <v>-35400</v>
       </c>
       <c r="J24" s="3">
-        <v>167700</v>
+        <v>165500</v>
       </c>
       <c r="K24" s="3">
         <v>51900</v>
@@ -1307,25 +1307,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>245400</v>
+        <v>242200</v>
       </c>
       <c r="E26" s="3">
-        <v>232500</v>
+        <v>229500</v>
       </c>
       <c r="F26" s="3">
-        <v>225000</v>
+        <v>222000</v>
       </c>
       <c r="G26" s="3">
-        <v>375200</v>
+        <v>370400</v>
       </c>
       <c r="H26" s="3">
-        <v>190500</v>
+        <v>188100</v>
       </c>
       <c r="I26" s="3">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="J26" s="3">
-        <v>-2658500</v>
+        <v>-2623900</v>
       </c>
       <c r="K26" s="3">
         <v>-24885400</v>
@@ -1343,25 +1343,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="E27" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="F27" s="3">
-        <v>90200</v>
+        <v>89000</v>
       </c>
       <c r="G27" s="3">
-        <v>203300</v>
+        <v>200600</v>
       </c>
       <c r="H27" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="I27" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="J27" s="3">
-        <v>-2528600</v>
+        <v>-2495700</v>
       </c>
       <c r="K27" s="3">
         <v>-24851100</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74400</v>
+        <v>-73400</v>
       </c>
       <c r="E32" s="3">
-        <v>-100300</v>
+        <v>-99000</v>
       </c>
       <c r="F32" s="3">
-        <v>-53000</v>
+        <v>-52400</v>
       </c>
       <c r="G32" s="3">
-        <v>-65200</v>
+        <v>-64400</v>
       </c>
       <c r="H32" s="3">
-        <v>-139700</v>
+        <v>-137900</v>
       </c>
       <c r="I32" s="3">
-        <v>-159800</v>
+        <v>-157700</v>
       </c>
       <c r="J32" s="3">
-        <v>-230500</v>
+        <v>-227500</v>
       </c>
       <c r="K32" s="3">
         <v>-304500</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="E33" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="F33" s="3">
-        <v>90200</v>
+        <v>89000</v>
       </c>
       <c r="G33" s="3">
-        <v>203300</v>
+        <v>200600</v>
       </c>
       <c r="H33" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="I33" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="J33" s="3">
-        <v>-2528600</v>
+        <v>-2495700</v>
       </c>
       <c r="K33" s="3">
         <v>-24819500</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="E35" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="F35" s="3">
-        <v>90200</v>
+        <v>89000</v>
       </c>
       <c r="G35" s="3">
-        <v>203300</v>
+        <v>200600</v>
       </c>
       <c r="H35" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="I35" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="J35" s="3">
-        <v>-2528600</v>
+        <v>-2495700</v>
       </c>
       <c r="K35" s="3">
         <v>-24819500</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1502600</v>
+        <v>1483000</v>
       </c>
       <c r="E41" s="3">
-        <v>1213600</v>
+        <v>1197800</v>
       </c>
       <c r="F41" s="3">
-        <v>2984600</v>
+        <v>2945800</v>
       </c>
       <c r="G41" s="3">
-        <v>4342700</v>
+        <v>4286200</v>
       </c>
       <c r="H41" s="3">
-        <v>3715200</v>
+        <v>3666800</v>
       </c>
       <c r="I41" s="3">
-        <v>3238200</v>
+        <v>3196000</v>
       </c>
       <c r="J41" s="3">
-        <v>2538100</v>
+        <v>2505000</v>
       </c>
       <c r="K41" s="3">
         <v>1898400</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168800</v>
+        <v>166600</v>
       </c>
       <c r="E42" s="3">
-        <v>731500</v>
+        <v>722000</v>
       </c>
       <c r="F42" s="3">
-        <v>187500</v>
+        <v>185000</v>
       </c>
       <c r="G42" s="3">
-        <v>158500</v>
+        <v>156500</v>
       </c>
       <c r="H42" s="3">
-        <v>148900</v>
+        <v>147000</v>
       </c>
       <c r="I42" s="3">
-        <v>168000</v>
+        <v>165800</v>
       </c>
       <c r="J42" s="3">
-        <v>845100</v>
+        <v>834100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2122700</v>
+        <v>2095100</v>
       </c>
       <c r="E43" s="3">
-        <v>2165000</v>
+        <v>2136800</v>
       </c>
       <c r="F43" s="3">
-        <v>2202500</v>
+        <v>2173900</v>
       </c>
       <c r="G43" s="3">
-        <v>2362200</v>
+        <v>2331500</v>
       </c>
       <c r="H43" s="3">
-        <v>2797800</v>
+        <v>2761400</v>
       </c>
       <c r="I43" s="3">
-        <v>2366900</v>
+        <v>2336100</v>
       </c>
       <c r="J43" s="3">
-        <v>2197300</v>
+        <v>2168700</v>
       </c>
       <c r="K43" s="3">
         <v>3401600</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3097900</v>
+        <v>3057500</v>
       </c>
       <c r="E44" s="3">
-        <v>6089200</v>
+        <v>6010000</v>
       </c>
       <c r="F44" s="3">
-        <v>3191900</v>
+        <v>3150400</v>
       </c>
       <c r="G44" s="3">
-        <v>3205600</v>
+        <v>3163900</v>
       </c>
       <c r="H44" s="3">
-        <v>2797800</v>
+        <v>2761400</v>
       </c>
       <c r="I44" s="3">
-        <v>6321300</v>
+        <v>6239000</v>
       </c>
       <c r="J44" s="3">
-        <v>3517000</v>
+        <v>3471200</v>
       </c>
       <c r="K44" s="3">
         <v>7191600</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>316300</v>
+        <v>312200</v>
       </c>
       <c r="E45" s="3">
-        <v>1884300</v>
+        <v>1859800</v>
       </c>
       <c r="F45" s="3">
-        <v>622700</v>
+        <v>614600</v>
       </c>
       <c r="G45" s="3">
-        <v>640100</v>
+        <v>631800</v>
       </c>
       <c r="H45" s="3">
-        <v>912900</v>
+        <v>901000</v>
       </c>
       <c r="I45" s="3">
-        <v>3582600</v>
+        <v>3535900</v>
       </c>
       <c r="J45" s="3">
-        <v>1400300</v>
+        <v>1382100</v>
       </c>
       <c r="K45" s="3">
         <v>3821100</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7208200</v>
+        <v>7114400</v>
       </c>
       <c r="E46" s="3">
-        <v>7597900</v>
+        <v>7499100</v>
       </c>
       <c r="F46" s="3">
-        <v>9189200</v>
+        <v>9069600</v>
       </c>
       <c r="G46" s="3">
-        <v>10709200</v>
+        <v>10569900</v>
       </c>
       <c r="H46" s="3">
-        <v>10372600</v>
+        <v>10237600</v>
       </c>
       <c r="I46" s="3">
-        <v>10056800</v>
+        <v>9925900</v>
       </c>
       <c r="J46" s="3">
-        <v>9921700</v>
+        <v>9792600</v>
       </c>
       <c r="K46" s="3">
         <v>9635100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2215700</v>
+        <v>2186900</v>
       </c>
       <c r="E47" s="3">
-        <v>2381600</v>
+        <v>2350600</v>
       </c>
       <c r="F47" s="3">
-        <v>1824000</v>
+        <v>1800200</v>
       </c>
       <c r="G47" s="3">
-        <v>2360700</v>
+        <v>2330000</v>
       </c>
       <c r="H47" s="3">
-        <v>2136900</v>
+        <v>2109100</v>
       </c>
       <c r="I47" s="3">
-        <v>3588100</v>
+        <v>3541400</v>
       </c>
       <c r="J47" s="3">
-        <v>2470400</v>
+        <v>2438200</v>
       </c>
       <c r="K47" s="3">
         <v>1433300</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18179500</v>
+        <v>17943000</v>
       </c>
       <c r="E48" s="3">
-        <v>19081000</v>
+        <v>18832700</v>
       </c>
       <c r="F48" s="3">
-        <v>16756300</v>
+        <v>16538200</v>
       </c>
       <c r="G48" s="3">
-        <v>15126700</v>
+        <v>14929900</v>
       </c>
       <c r="H48" s="3">
-        <v>14372300</v>
+        <v>14185300</v>
       </c>
       <c r="I48" s="3">
-        <v>28367200</v>
+        <v>27998100</v>
       </c>
       <c r="J48" s="3">
-        <v>12534700</v>
+        <v>12371600</v>
       </c>
       <c r="K48" s="3">
         <v>30741200</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2098100</v>
+        <v>2070800</v>
       </c>
       <c r="E49" s="3">
-        <v>2147400</v>
+        <v>2119500</v>
       </c>
       <c r="F49" s="3">
-        <v>2681200</v>
+        <v>2646300</v>
       </c>
       <c r="G49" s="3">
-        <v>2217600</v>
+        <v>2188800</v>
       </c>
       <c r="H49" s="3">
-        <v>2177100</v>
+        <v>2148800</v>
       </c>
       <c r="I49" s="3">
-        <v>4217900</v>
+        <v>4163000</v>
       </c>
       <c r="J49" s="3">
-        <v>2223800</v>
+        <v>2194900</v>
       </c>
       <c r="K49" s="3">
         <v>4154500</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>705100</v>
+        <v>695900</v>
       </c>
       <c r="E52" s="3">
-        <v>1218600</v>
+        <v>1202700</v>
       </c>
       <c r="F52" s="3">
-        <v>901800</v>
+        <v>890100</v>
       </c>
       <c r="G52" s="3">
-        <v>759100</v>
+        <v>749200</v>
       </c>
       <c r="H52" s="3">
-        <v>662800</v>
+        <v>654200</v>
       </c>
       <c r="I52" s="3">
-        <v>2335500</v>
+        <v>2305100</v>
       </c>
       <c r="J52" s="3">
-        <v>786000</v>
+        <v>775800</v>
       </c>
       <c r="K52" s="3">
         <v>2330600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30406600</v>
+        <v>30011000</v>
       </c>
       <c r="E54" s="3">
-        <v>31691500</v>
+        <v>31279100</v>
       </c>
       <c r="F54" s="3">
-        <v>31352500</v>
+        <v>30944600</v>
       </c>
       <c r="G54" s="3">
-        <v>31173400</v>
+        <v>30767800</v>
       </c>
       <c r="H54" s="3">
-        <v>29721700</v>
+        <v>29335000</v>
       </c>
       <c r="I54" s="3">
-        <v>29963000</v>
+        <v>29573200</v>
       </c>
       <c r="J54" s="3">
-        <v>30085500</v>
+        <v>29694100</v>
       </c>
       <c r="K54" s="3">
         <v>30480700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2408900</v>
+        <v>2377600</v>
       </c>
       <c r="E57" s="3">
-        <v>1967100</v>
+        <v>1941500</v>
       </c>
       <c r="F57" s="3">
-        <v>2185600</v>
+        <v>2157100</v>
       </c>
       <c r="G57" s="3">
-        <v>1928400</v>
+        <v>1903300</v>
       </c>
       <c r="H57" s="3">
-        <v>1769600</v>
+        <v>1746600</v>
       </c>
       <c r="I57" s="3">
-        <v>2297500</v>
+        <v>2267600</v>
       </c>
       <c r="J57" s="3">
-        <v>5885800</v>
+        <v>5809200</v>
       </c>
       <c r="K57" s="3">
         <v>1340000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5414700</v>
+        <v>5344200</v>
       </c>
       <c r="E58" s="3">
-        <v>6809100</v>
+        <v>6720500</v>
       </c>
       <c r="F58" s="3">
-        <v>7420700</v>
+        <v>7324100</v>
       </c>
       <c r="G58" s="3">
-        <v>9825700</v>
+        <v>9697800</v>
       </c>
       <c r="H58" s="3">
-        <v>9120300</v>
+        <v>9001600</v>
       </c>
       <c r="I58" s="3">
-        <v>8543300</v>
+        <v>8432100</v>
       </c>
       <c r="J58" s="3">
-        <v>12573300</v>
+        <v>12409700</v>
       </c>
       <c r="K58" s="3">
         <v>9030300</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1946900</v>
+        <v>1921500</v>
       </c>
       <c r="E59" s="3">
-        <v>4173200</v>
+        <v>4118900</v>
       </c>
       <c r="F59" s="3">
-        <v>2069000</v>
+        <v>2042100</v>
       </c>
       <c r="G59" s="3">
-        <v>4317500</v>
+        <v>4261300</v>
       </c>
       <c r="H59" s="3">
-        <v>2087000</v>
+        <v>2059900</v>
       </c>
       <c r="I59" s="3">
-        <v>3759900</v>
+        <v>3711000</v>
       </c>
       <c r="J59" s="3">
-        <v>2076800</v>
+        <v>2049800</v>
       </c>
       <c r="K59" s="3">
         <v>7341000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9770500</v>
+        <v>9643300</v>
       </c>
       <c r="E60" s="3">
-        <v>10796400</v>
+        <v>10655900</v>
       </c>
       <c r="F60" s="3">
-        <v>11675300</v>
+        <v>11523400</v>
       </c>
       <c r="G60" s="3">
-        <v>14093500</v>
+        <v>13910100</v>
       </c>
       <c r="H60" s="3">
-        <v>12976900</v>
+        <v>12808000</v>
       </c>
       <c r="I60" s="3">
-        <v>12762800</v>
+        <v>12596700</v>
       </c>
       <c r="J60" s="3">
-        <v>16290900</v>
+        <v>16078900</v>
       </c>
       <c r="K60" s="3">
         <v>14779600</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8973400</v>
+        <v>8856600</v>
       </c>
       <c r="E61" s="3">
-        <v>9242600</v>
+        <v>9122300</v>
       </c>
       <c r="F61" s="3">
-        <v>8456900</v>
+        <v>8346900</v>
       </c>
       <c r="G61" s="3">
-        <v>6285600</v>
+        <v>6203800</v>
       </c>
       <c r="H61" s="3">
-        <v>7382800</v>
+        <v>7286800</v>
       </c>
       <c r="I61" s="3">
-        <v>8424700</v>
+        <v>8315100</v>
       </c>
       <c r="J61" s="3">
-        <v>6984400</v>
+        <v>6893600</v>
       </c>
       <c r="K61" s="3">
         <v>7072900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>559200</v>
+        <v>552000</v>
       </c>
       <c r="E62" s="3">
-        <v>959900</v>
+        <v>947400</v>
       </c>
       <c r="F62" s="3">
-        <v>663200</v>
+        <v>654600</v>
       </c>
       <c r="G62" s="3">
-        <v>537800</v>
+        <v>530800</v>
       </c>
       <c r="H62" s="3">
-        <v>658700</v>
+        <v>650100</v>
       </c>
       <c r="I62" s="3">
-        <v>1194900</v>
+        <v>1179400</v>
       </c>
       <c r="J62" s="3">
-        <v>623800</v>
+        <v>615700</v>
       </c>
       <c r="K62" s="3">
         <v>423600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21930300</v>
+        <v>21644900</v>
       </c>
       <c r="E66" s="3">
-        <v>23162100</v>
+        <v>22860700</v>
       </c>
       <c r="F66" s="3">
-        <v>23175200</v>
+        <v>22873600</v>
       </c>
       <c r="G66" s="3">
-        <v>24981700</v>
+        <v>24656600</v>
       </c>
       <c r="H66" s="3">
-        <v>23767100</v>
+        <v>23457800</v>
       </c>
       <c r="I66" s="3">
-        <v>23729500</v>
+        <v>23420700</v>
       </c>
       <c r="J66" s="3">
-        <v>25670300</v>
+        <v>25336300</v>
       </c>
       <c r="K66" s="3">
         <v>23703700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>852800</v>
+        <v>841700</v>
       </c>
       <c r="E72" s="3">
-        <v>765800</v>
+        <v>755800</v>
       </c>
       <c r="F72" s="3">
-        <v>2316400</v>
+        <v>2286300</v>
       </c>
       <c r="G72" s="3">
-        <v>567100</v>
+        <v>559700</v>
       </c>
       <c r="H72" s="3">
-        <v>361200</v>
+        <v>356500</v>
       </c>
       <c r="I72" s="3">
-        <v>4866200</v>
+        <v>4802900</v>
       </c>
       <c r="J72" s="3">
-        <v>291000</v>
+        <v>287200</v>
       </c>
       <c r="K72" s="3">
         <v>4710700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8476300</v>
+        <v>8366000</v>
       </c>
       <c r="E76" s="3">
-        <v>8529400</v>
+        <v>8418400</v>
       </c>
       <c r="F76" s="3">
-        <v>8177300</v>
+        <v>8070900</v>
       </c>
       <c r="G76" s="3">
-        <v>6191700</v>
+        <v>6111200</v>
       </c>
       <c r="H76" s="3">
-        <v>5954600</v>
+        <v>5877200</v>
       </c>
       <c r="I76" s="3">
-        <v>6233500</v>
+        <v>6152400</v>
       </c>
       <c r="J76" s="3">
-        <v>4415200</v>
+        <v>4357700</v>
       </c>
       <c r="K76" s="3">
         <v>6777000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="E81" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="F81" s="3">
-        <v>90200</v>
+        <v>89000</v>
       </c>
       <c r="G81" s="3">
-        <v>203300</v>
+        <v>200600</v>
       </c>
       <c r="H81" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="I81" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="J81" s="3">
-        <v>-2528600</v>
+        <v>-2495700</v>
       </c>
       <c r="K81" s="3">
         <v>-24819500</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1311000</v>
+        <v>1294000</v>
       </c>
       <c r="E83" s="3">
-        <v>1332700</v>
+        <v>1315300</v>
       </c>
       <c r="F83" s="3">
-        <v>1219600</v>
+        <v>1203700</v>
       </c>
       <c r="G83" s="3">
-        <v>1067900</v>
+        <v>1054000</v>
       </c>
       <c r="H83" s="3">
-        <v>1064400</v>
+        <v>1050600</v>
       </c>
       <c r="I83" s="3">
-        <v>1121200</v>
+        <v>1106600</v>
       </c>
       <c r="J83" s="3">
-        <v>1132000</v>
+        <v>1117300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2321600</v>
+        <v>2291400</v>
       </c>
       <c r="E89" s="3">
-        <v>1948800</v>
+        <v>1923500</v>
       </c>
       <c r="F89" s="3">
-        <v>2033100</v>
+        <v>2006700</v>
       </c>
       <c r="G89" s="3">
-        <v>2060200</v>
+        <v>2033400</v>
       </c>
       <c r="H89" s="3">
-        <v>1798900</v>
+        <v>1775500</v>
       </c>
       <c r="I89" s="3">
-        <v>1138400</v>
+        <v>1123600</v>
       </c>
       <c r="J89" s="3">
-        <v>2155900</v>
+        <v>2127800</v>
       </c>
       <c r="K89" s="3">
         <v>1260600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-786100</v>
+        <v>-775900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1412000</v>
+        <v>-1393700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1052500</v>
+        <v>-1038800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1387200</v>
+        <v>-1369200</v>
       </c>
       <c r="H91" s="3">
-        <v>-974000</v>
+        <v>-961300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1435000</v>
+        <v>-1416300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1254100</v>
+        <v>-1237700</v>
       </c>
       <c r="K91" s="3">
         <v>-1296600</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>301500</v>
+        <v>297600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2089900</v>
+        <v>-2062700</v>
       </c>
       <c r="F94" s="3">
-        <v>-862600</v>
+        <v>-851400</v>
       </c>
       <c r="G94" s="3">
-        <v>-873300</v>
+        <v>-861900</v>
       </c>
       <c r="H94" s="3">
-        <v>-779800</v>
+        <v>-769700</v>
       </c>
       <c r="I94" s="3">
-        <v>373300</v>
+        <v>368500</v>
       </c>
       <c r="J94" s="3">
-        <v>-767800</v>
+        <v>-757800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2460800</v>
+        <v>-2428800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1634100</v>
+        <v>-1612800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2539900</v>
+        <v>-2506900</v>
       </c>
       <c r="G100" s="3">
-        <v>-530300</v>
+        <v>-523400</v>
       </c>
       <c r="H100" s="3">
-        <v>-572900</v>
+        <v>-565400</v>
       </c>
       <c r="I100" s="3">
-        <v>-846500</v>
+        <v>-835400</v>
       </c>
       <c r="J100" s="3">
-        <v>-626600</v>
+        <v>-618500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3713,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="E101" s="3">
         <v>3300</v>
       </c>
       <c r="F101" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="G101" s="3">
-        <v>-34600</v>
+        <v>-34100</v>
       </c>
       <c r="H101" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="I101" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="J101" s="3">
         <v>900</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>148600</v>
+        <v>146600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1771800</v>
+        <v>-1748700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1360400</v>
+        <v>-1342700</v>
       </c>
       <c r="G102" s="3">
-        <v>622100</v>
+        <v>614000</v>
       </c>
       <c r="H102" s="3">
-        <v>476100</v>
+        <v>469900</v>
       </c>
       <c r="I102" s="3">
-        <v>683200</v>
+        <v>674300</v>
       </c>
       <c r="J102" s="3">
-        <v>762400</v>
+        <v>752500</v>
       </c>
       <c r="K102" s="3">
         <v>354200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28639400</v>
+        <v>29119300</v>
       </c>
       <c r="E8" s="3">
-        <v>29289400</v>
+        <v>29780100</v>
       </c>
       <c r="F8" s="3">
-        <v>27753600</v>
+        <v>28218600</v>
       </c>
       <c r="G8" s="3">
-        <v>27873500</v>
+        <v>28340600</v>
       </c>
       <c r="H8" s="3">
-        <v>22208400</v>
+        <v>22580500</v>
       </c>
       <c r="I8" s="3">
-        <v>19012700</v>
+        <v>19331300</v>
       </c>
       <c r="J8" s="3">
-        <v>21865100</v>
+        <v>22231500</v>
       </c>
       <c r="K8" s="3">
         <v>26288400</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26572500</v>
+        <v>27017800</v>
       </c>
       <c r="E9" s="3">
-        <v>27418900</v>
+        <v>27878300</v>
       </c>
       <c r="F9" s="3">
-        <v>25719200</v>
+        <v>26150100</v>
       </c>
       <c r="G9" s="3">
-        <v>25642700</v>
+        <v>26072300</v>
       </c>
       <c r="H9" s="3">
-        <v>20583200</v>
+        <v>20928100</v>
       </c>
       <c r="I9" s="3">
-        <v>18628900</v>
+        <v>18941100</v>
       </c>
       <c r="J9" s="3">
-        <v>43494400</v>
+        <v>44223200</v>
       </c>
       <c r="K9" s="3">
         <v>50930700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2066900</v>
+        <v>2101500</v>
       </c>
       <c r="E10" s="3">
-        <v>1870400</v>
+        <v>1901800</v>
       </c>
       <c r="F10" s="3">
-        <v>2034400</v>
+        <v>2068500</v>
       </c>
       <c r="G10" s="3">
-        <v>2230900</v>
+        <v>2268200</v>
       </c>
       <c r="H10" s="3">
-        <v>1625200</v>
+        <v>1652400</v>
       </c>
       <c r="I10" s="3">
-        <v>383800</v>
+        <v>390300</v>
       </c>
       <c r="J10" s="3">
-        <v>-21629300</v>
+        <v>-21991700</v>
       </c>
       <c r="K10" s="3">
         <v>-24642300</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>215800</v>
+        <v>219400</v>
       </c>
       <c r="E12" s="3">
-        <v>144900</v>
+        <v>147300</v>
       </c>
       <c r="F12" s="3">
-        <v>96500</v>
+        <v>98100</v>
       </c>
       <c r="G12" s="3">
-        <v>76700</v>
+        <v>78000</v>
       </c>
       <c r="H12" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="I12" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="K12" s="3">
         <v>29600</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>213200</v>
+        <v>216700</v>
       </c>
       <c r="E14" s="3">
-        <v>-84400</v>
+        <v>-85800</v>
       </c>
       <c r="F14" s="3">
-        <v>56900</v>
+        <v>57900</v>
       </c>
       <c r="G14" s="3">
-        <v>-47600</v>
+        <v>-48300</v>
       </c>
       <c r="H14" s="3">
-        <v>-99000</v>
+        <v>-100700</v>
       </c>
       <c r="I14" s="3">
-        <v>-525100</v>
+        <v>-533900</v>
       </c>
       <c r="J14" s="3">
-        <v>912900</v>
+        <v>928200</v>
       </c>
       <c r="K14" s="3">
         <v>-973800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="E15" s="3">
-        <v>33100</v>
+        <v>33600</v>
       </c>
       <c r="F15" s="3">
-        <v>36800</v>
+        <v>37400</v>
       </c>
       <c r="G15" s="3">
-        <v>31000</v>
+        <v>31600</v>
       </c>
       <c r="H15" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="I15" s="3">
-        <v>35000</v>
+        <v>35600</v>
       </c>
       <c r="J15" s="3">
-        <v>39100</v>
+        <v>39700</v>
       </c>
       <c r="K15" s="3">
         <v>34000</v>
@@ -1003,25 +1003,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>27712000</v>
+        <v>28176400</v>
       </c>
       <c r="E17" s="3">
-        <v>28294600</v>
+        <v>28768700</v>
       </c>
       <c r="F17" s="3">
-        <v>26704200</v>
+        <v>27151700</v>
       </c>
       <c r="G17" s="3">
-        <v>26687400</v>
+        <v>27134600</v>
       </c>
       <c r="H17" s="3">
-        <v>21313700</v>
+        <v>21670800</v>
       </c>
       <c r="I17" s="3">
-        <v>18246300</v>
+        <v>18552000</v>
       </c>
       <c r="J17" s="3">
-        <v>23516200</v>
+        <v>23910300</v>
       </c>
       <c r="K17" s="3">
         <v>50517500</v>
@@ -1039,25 +1039,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>927400</v>
+        <v>942900</v>
       </c>
       <c r="E18" s="3">
-        <v>994800</v>
+        <v>1011400</v>
       </c>
       <c r="F18" s="3">
-        <v>1049400</v>
+        <v>1066900</v>
       </c>
       <c r="G18" s="3">
-        <v>1186100</v>
+        <v>1206000</v>
       </c>
       <c r="H18" s="3">
-        <v>894600</v>
+        <v>909600</v>
       </c>
       <c r="I18" s="3">
-        <v>766500</v>
+        <v>779300</v>
       </c>
       <c r="J18" s="3">
-        <v>-1651100</v>
+        <v>-1678800</v>
       </c>
       <c r="K18" s="3">
         <v>-24229200</v>
@@ -1091,25 +1091,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>73400</v>
+        <v>74700</v>
       </c>
       <c r="E20" s="3">
-        <v>99000</v>
+        <v>100600</v>
       </c>
       <c r="F20" s="3">
-        <v>52400</v>
+        <v>53200</v>
       </c>
       <c r="G20" s="3">
-        <v>64400</v>
+        <v>65400</v>
       </c>
       <c r="H20" s="3">
-        <v>137900</v>
+        <v>140200</v>
       </c>
       <c r="I20" s="3">
-        <v>157700</v>
+        <v>160400</v>
       </c>
       <c r="J20" s="3">
-        <v>227500</v>
+        <v>231300</v>
       </c>
       <c r="K20" s="3">
         <v>304500</v>
@@ -1127,25 +1127,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2296800</v>
+        <v>2332200</v>
       </c>
       <c r="E21" s="3">
-        <v>2411100</v>
+        <v>2448400</v>
       </c>
       <c r="F21" s="3">
-        <v>2307300</v>
+        <v>2343100</v>
       </c>
       <c r="G21" s="3">
-        <v>2306000</v>
+        <v>2342200</v>
       </c>
       <c r="H21" s="3">
-        <v>2084700</v>
+        <v>2117200</v>
       </c>
       <c r="I21" s="3">
-        <v>2032500</v>
+        <v>2064000</v>
       </c>
       <c r="J21" s="3">
-        <v>-304600</v>
+        <v>-312400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>668900</v>
+        <v>680100</v>
       </c>
       <c r="E22" s="3">
-        <v>767500</v>
+        <v>780300</v>
       </c>
       <c r="F22" s="3">
-        <v>753000</v>
+        <v>765600</v>
       </c>
       <c r="G22" s="3">
-        <v>781000</v>
+        <v>794000</v>
       </c>
       <c r="H22" s="3">
-        <v>782200</v>
+        <v>795300</v>
       </c>
       <c r="I22" s="3">
-        <v>903100</v>
+        <v>918200</v>
       </c>
       <c r="J22" s="3">
-        <v>1034800</v>
+        <v>1052100</v>
       </c>
       <c r="K22" s="3">
         <v>908900</v>
@@ -1199,25 +1199,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>331900</v>
+        <v>337400</v>
       </c>
       <c r="E23" s="3">
-        <v>326300</v>
+        <v>331700</v>
       </c>
       <c r="F23" s="3">
-        <v>348700</v>
+        <v>354500</v>
       </c>
       <c r="G23" s="3">
-        <v>469500</v>
+        <v>477400</v>
       </c>
       <c r="H23" s="3">
-        <v>250300</v>
+        <v>254500</v>
       </c>
       <c r="I23" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="J23" s="3">
-        <v>-2458400</v>
+        <v>-2499600</v>
       </c>
       <c r="K23" s="3">
         <v>-24833500</v>
@@ -1235,25 +1235,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>89600</v>
+        <v>91100</v>
       </c>
       <c r="E24" s="3">
-        <v>96800</v>
+        <v>98400</v>
       </c>
       <c r="F24" s="3">
-        <v>126700</v>
+        <v>128800</v>
       </c>
       <c r="G24" s="3">
-        <v>99100</v>
+        <v>100800</v>
       </c>
       <c r="H24" s="3">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="I24" s="3">
-        <v>-35400</v>
+        <v>-36000</v>
       </c>
       <c r="J24" s="3">
-        <v>165500</v>
+        <v>168300</v>
       </c>
       <c r="K24" s="3">
         <v>51900</v>
@@ -1307,25 +1307,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>242200</v>
+        <v>246300</v>
       </c>
       <c r="E26" s="3">
-        <v>229500</v>
+        <v>233400</v>
       </c>
       <c r="F26" s="3">
-        <v>222000</v>
+        <v>225800</v>
       </c>
       <c r="G26" s="3">
-        <v>370400</v>
+        <v>376600</v>
       </c>
       <c r="H26" s="3">
-        <v>188100</v>
+        <v>191200</v>
       </c>
       <c r="I26" s="3">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="J26" s="3">
-        <v>-2623900</v>
+        <v>-2667900</v>
       </c>
       <c r="K26" s="3">
         <v>-24885400</v>
@@ -1343,25 +1343,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="E27" s="3">
-        <v>97600</v>
+        <v>99200</v>
       </c>
       <c r="F27" s="3">
-        <v>89000</v>
+        <v>90500</v>
       </c>
       <c r="G27" s="3">
-        <v>200600</v>
+        <v>204000</v>
       </c>
       <c r="H27" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I27" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="J27" s="3">
-        <v>-2495700</v>
+        <v>-2537600</v>
       </c>
       <c r="K27" s="3">
         <v>-24851100</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-73400</v>
+        <v>-74700</v>
       </c>
       <c r="E32" s="3">
-        <v>-99000</v>
+        <v>-100600</v>
       </c>
       <c r="F32" s="3">
-        <v>-52400</v>
+        <v>-53200</v>
       </c>
       <c r="G32" s="3">
-        <v>-64400</v>
+        <v>-65400</v>
       </c>
       <c r="H32" s="3">
-        <v>-137900</v>
+        <v>-140200</v>
       </c>
       <c r="I32" s="3">
-        <v>-157700</v>
+        <v>-160400</v>
       </c>
       <c r="J32" s="3">
-        <v>-227500</v>
+        <v>-231300</v>
       </c>
       <c r="K32" s="3">
         <v>-304500</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="E33" s="3">
-        <v>97600</v>
+        <v>99200</v>
       </c>
       <c r="F33" s="3">
-        <v>89000</v>
+        <v>90500</v>
       </c>
       <c r="G33" s="3">
-        <v>200600</v>
+        <v>204000</v>
       </c>
       <c r="H33" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I33" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="J33" s="3">
-        <v>-2495700</v>
+        <v>-2537600</v>
       </c>
       <c r="K33" s="3">
         <v>-24819500</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="E35" s="3">
-        <v>97600</v>
+        <v>99200</v>
       </c>
       <c r="F35" s="3">
-        <v>89000</v>
+        <v>90500</v>
       </c>
       <c r="G35" s="3">
-        <v>200600</v>
+        <v>204000</v>
       </c>
       <c r="H35" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I35" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="J35" s="3">
-        <v>-2495700</v>
+        <v>-2537600</v>
       </c>
       <c r="K35" s="3">
         <v>-24819500</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1483000</v>
+        <v>1507900</v>
       </c>
       <c r="E41" s="3">
-        <v>1197800</v>
+        <v>1217900</v>
       </c>
       <c r="F41" s="3">
-        <v>2945800</v>
+        <v>2995100</v>
       </c>
       <c r="G41" s="3">
-        <v>4286200</v>
+        <v>4358000</v>
       </c>
       <c r="H41" s="3">
-        <v>3666800</v>
+        <v>3728300</v>
       </c>
       <c r="I41" s="3">
-        <v>3196000</v>
+        <v>3249600</v>
       </c>
       <c r="J41" s="3">
-        <v>2505000</v>
+        <v>2547000</v>
       </c>
       <c r="K41" s="3">
         <v>1898400</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>166600</v>
+        <v>169400</v>
       </c>
       <c r="E42" s="3">
-        <v>722000</v>
+        <v>734100</v>
       </c>
       <c r="F42" s="3">
-        <v>185000</v>
+        <v>188100</v>
       </c>
       <c r="G42" s="3">
-        <v>156500</v>
+        <v>159100</v>
       </c>
       <c r="H42" s="3">
-        <v>147000</v>
+        <v>149500</v>
       </c>
       <c r="I42" s="3">
-        <v>165800</v>
+        <v>168600</v>
       </c>
       <c r="J42" s="3">
-        <v>834100</v>
+        <v>848100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2095100</v>
+        <v>2130200</v>
       </c>
       <c r="E43" s="3">
-        <v>2136800</v>
+        <v>2172600</v>
       </c>
       <c r="F43" s="3">
-        <v>2173900</v>
+        <v>2210300</v>
       </c>
       <c r="G43" s="3">
-        <v>2331500</v>
+        <v>2370500</v>
       </c>
       <c r="H43" s="3">
-        <v>2761400</v>
+        <v>2807700</v>
       </c>
       <c r="I43" s="3">
-        <v>2336100</v>
+        <v>2375300</v>
       </c>
       <c r="J43" s="3">
-        <v>2168700</v>
+        <v>2205100</v>
       </c>
       <c r="K43" s="3">
         <v>3401600</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3057500</v>
+        <v>3108800</v>
       </c>
       <c r="E44" s="3">
-        <v>6010000</v>
+        <v>6110700</v>
       </c>
       <c r="F44" s="3">
-        <v>3150400</v>
+        <v>3203200</v>
       </c>
       <c r="G44" s="3">
-        <v>3163900</v>
+        <v>3216900</v>
       </c>
       <c r="H44" s="3">
-        <v>2761400</v>
+        <v>2807700</v>
       </c>
       <c r="I44" s="3">
-        <v>6239000</v>
+        <v>6343600</v>
       </c>
       <c r="J44" s="3">
-        <v>3471200</v>
+        <v>3529400</v>
       </c>
       <c r="K44" s="3">
         <v>7191600</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>312200</v>
+        <v>317400</v>
       </c>
       <c r="E45" s="3">
-        <v>1859800</v>
+        <v>1891000</v>
       </c>
       <c r="F45" s="3">
-        <v>614600</v>
+        <v>624900</v>
       </c>
       <c r="G45" s="3">
-        <v>631800</v>
+        <v>642400</v>
       </c>
       <c r="H45" s="3">
-        <v>901000</v>
+        <v>916100</v>
       </c>
       <c r="I45" s="3">
-        <v>3535900</v>
+        <v>3595200</v>
       </c>
       <c r="J45" s="3">
-        <v>1382100</v>
+        <v>1405300</v>
       </c>
       <c r="K45" s="3">
         <v>3821100</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7114400</v>
+        <v>7233700</v>
       </c>
       <c r="E46" s="3">
-        <v>7499100</v>
+        <v>7624700</v>
       </c>
       <c r="F46" s="3">
-        <v>9069600</v>
+        <v>9221600</v>
       </c>
       <c r="G46" s="3">
-        <v>10569900</v>
+        <v>10747000</v>
       </c>
       <c r="H46" s="3">
-        <v>10237600</v>
+        <v>10409200</v>
       </c>
       <c r="I46" s="3">
-        <v>9925900</v>
+        <v>10092200</v>
       </c>
       <c r="J46" s="3">
-        <v>9792600</v>
+        <v>9956600</v>
       </c>
       <c r="K46" s="3">
         <v>9635100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2186900</v>
+        <v>2223500</v>
       </c>
       <c r="E47" s="3">
-        <v>2350600</v>
+        <v>2390000</v>
       </c>
       <c r="F47" s="3">
-        <v>1800200</v>
+        <v>1830400</v>
       </c>
       <c r="G47" s="3">
-        <v>2330000</v>
+        <v>2369100</v>
       </c>
       <c r="H47" s="3">
-        <v>2109100</v>
+        <v>2144500</v>
       </c>
       <c r="I47" s="3">
-        <v>3541400</v>
+        <v>3600700</v>
       </c>
       <c r="J47" s="3">
-        <v>2438200</v>
+        <v>2479100</v>
       </c>
       <c r="K47" s="3">
         <v>1433300</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17943000</v>
+        <v>18243600</v>
       </c>
       <c r="E48" s="3">
-        <v>18832700</v>
+        <v>19148200</v>
       </c>
       <c r="F48" s="3">
-        <v>16538200</v>
+        <v>16815300</v>
       </c>
       <c r="G48" s="3">
-        <v>14929900</v>
+        <v>15180000</v>
       </c>
       <c r="H48" s="3">
-        <v>14185300</v>
+        <v>14422900</v>
       </c>
       <c r="I48" s="3">
-        <v>27998100</v>
+        <v>28467200</v>
       </c>
       <c r="J48" s="3">
-        <v>12371600</v>
+        <v>12578900</v>
       </c>
       <c r="K48" s="3">
         <v>30741200</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2070800</v>
+        <v>2105500</v>
       </c>
       <c r="E49" s="3">
-        <v>2119500</v>
+        <v>2155000</v>
       </c>
       <c r="F49" s="3">
-        <v>2646300</v>
+        <v>2690700</v>
       </c>
       <c r="G49" s="3">
-        <v>2188800</v>
+        <v>2225400</v>
       </c>
       <c r="H49" s="3">
-        <v>2148800</v>
+        <v>2184800</v>
       </c>
       <c r="I49" s="3">
-        <v>4163000</v>
+        <v>4232800</v>
       </c>
       <c r="J49" s="3">
-        <v>2194900</v>
+        <v>2231700</v>
       </c>
       <c r="K49" s="3">
         <v>4154500</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>695900</v>
+        <v>707600</v>
       </c>
       <c r="E52" s="3">
-        <v>1202700</v>
+        <v>1222900</v>
       </c>
       <c r="F52" s="3">
-        <v>890100</v>
+        <v>905000</v>
       </c>
       <c r="G52" s="3">
-        <v>749200</v>
+        <v>761800</v>
       </c>
       <c r="H52" s="3">
-        <v>654200</v>
+        <v>665100</v>
       </c>
       <c r="I52" s="3">
-        <v>2305100</v>
+        <v>2343800</v>
       </c>
       <c r="J52" s="3">
-        <v>775800</v>
+        <v>788800</v>
       </c>
       <c r="K52" s="3">
         <v>2330600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30011000</v>
+        <v>30513800</v>
       </c>
       <c r="E54" s="3">
-        <v>31279100</v>
+        <v>31803200</v>
       </c>
       <c r="F54" s="3">
-        <v>30944600</v>
+        <v>31463000</v>
       </c>
       <c r="G54" s="3">
-        <v>30767800</v>
+        <v>31283300</v>
       </c>
       <c r="H54" s="3">
-        <v>29335000</v>
+        <v>29826500</v>
       </c>
       <c r="I54" s="3">
-        <v>29573200</v>
+        <v>30068700</v>
       </c>
       <c r="J54" s="3">
-        <v>29694100</v>
+        <v>30191600</v>
       </c>
       <c r="K54" s="3">
         <v>30480700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2377600</v>
+        <v>2417400</v>
       </c>
       <c r="E57" s="3">
-        <v>1941500</v>
+        <v>1974000</v>
       </c>
       <c r="F57" s="3">
-        <v>2157100</v>
+        <v>2193300</v>
       </c>
       <c r="G57" s="3">
-        <v>1903300</v>
+        <v>1935200</v>
       </c>
       <c r="H57" s="3">
-        <v>1746600</v>
+        <v>1775800</v>
       </c>
       <c r="I57" s="3">
-        <v>2267600</v>
+        <v>2305600</v>
       </c>
       <c r="J57" s="3">
-        <v>5809200</v>
+        <v>5906600</v>
       </c>
       <c r="K57" s="3">
         <v>1340000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5344200</v>
+        <v>5433800</v>
       </c>
       <c r="E58" s="3">
-        <v>6720500</v>
+        <v>6833100</v>
       </c>
       <c r="F58" s="3">
-        <v>7324100</v>
+        <v>7446900</v>
       </c>
       <c r="G58" s="3">
-        <v>9697800</v>
+        <v>9860300</v>
       </c>
       <c r="H58" s="3">
-        <v>9001600</v>
+        <v>9152400</v>
       </c>
       <c r="I58" s="3">
-        <v>8432100</v>
+        <v>8573400</v>
       </c>
       <c r="J58" s="3">
-        <v>12409700</v>
+        <v>12617600</v>
       </c>
       <c r="K58" s="3">
         <v>9030300</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1921500</v>
+        <v>1953700</v>
       </c>
       <c r="E59" s="3">
-        <v>4118900</v>
+        <v>4188000</v>
       </c>
       <c r="F59" s="3">
-        <v>2042100</v>
+        <v>2076300</v>
       </c>
       <c r="G59" s="3">
-        <v>4261300</v>
+        <v>4332700</v>
       </c>
       <c r="H59" s="3">
-        <v>2059900</v>
+        <v>2094400</v>
       </c>
       <c r="I59" s="3">
-        <v>3711000</v>
+        <v>3773200</v>
       </c>
       <c r="J59" s="3">
-        <v>2049800</v>
+        <v>2084100</v>
       </c>
       <c r="K59" s="3">
         <v>7341000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9643300</v>
+        <v>9804900</v>
       </c>
       <c r="E60" s="3">
-        <v>10655900</v>
+        <v>10834400</v>
       </c>
       <c r="F60" s="3">
-        <v>11523400</v>
+        <v>11716400</v>
       </c>
       <c r="G60" s="3">
-        <v>13910100</v>
+        <v>14143200</v>
       </c>
       <c r="H60" s="3">
-        <v>12808000</v>
+        <v>13022600</v>
       </c>
       <c r="I60" s="3">
-        <v>12596700</v>
+        <v>12807700</v>
       </c>
       <c r="J60" s="3">
-        <v>16078900</v>
+        <v>16348300</v>
       </c>
       <c r="K60" s="3">
         <v>14779600</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8856600</v>
+        <v>9005000</v>
       </c>
       <c r="E61" s="3">
-        <v>9122300</v>
+        <v>9275200</v>
       </c>
       <c r="F61" s="3">
-        <v>8346900</v>
+        <v>8486700</v>
       </c>
       <c r="G61" s="3">
-        <v>6203800</v>
+        <v>6307800</v>
       </c>
       <c r="H61" s="3">
-        <v>7286800</v>
+        <v>7408800</v>
       </c>
       <c r="I61" s="3">
-        <v>8315100</v>
+        <v>8454400</v>
       </c>
       <c r="J61" s="3">
-        <v>6893600</v>
+        <v>7009100</v>
       </c>
       <c r="K61" s="3">
         <v>7072900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>552000</v>
+        <v>561200</v>
       </c>
       <c r="E62" s="3">
-        <v>947400</v>
+        <v>963300</v>
       </c>
       <c r="F62" s="3">
-        <v>654600</v>
+        <v>665500</v>
       </c>
       <c r="G62" s="3">
-        <v>530800</v>
+        <v>539700</v>
       </c>
       <c r="H62" s="3">
-        <v>650100</v>
+        <v>661000</v>
       </c>
       <c r="I62" s="3">
-        <v>1179400</v>
+        <v>1199200</v>
       </c>
       <c r="J62" s="3">
-        <v>615700</v>
+        <v>626000</v>
       </c>
       <c r="K62" s="3">
         <v>423600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21644900</v>
+        <v>22007600</v>
       </c>
       <c r="E66" s="3">
-        <v>22860700</v>
+        <v>23243800</v>
       </c>
       <c r="F66" s="3">
-        <v>22873600</v>
+        <v>23256900</v>
       </c>
       <c r="G66" s="3">
-        <v>24656600</v>
+        <v>25069800</v>
       </c>
       <c r="H66" s="3">
-        <v>23457800</v>
+        <v>23850800</v>
       </c>
       <c r="I66" s="3">
-        <v>23420700</v>
+        <v>23813200</v>
       </c>
       <c r="J66" s="3">
-        <v>25336300</v>
+        <v>25760800</v>
       </c>
       <c r="K66" s="3">
         <v>23703700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>841700</v>
+        <v>855900</v>
       </c>
       <c r="E72" s="3">
-        <v>755800</v>
+        <v>768500</v>
       </c>
       <c r="F72" s="3">
-        <v>2286300</v>
+        <v>2324600</v>
       </c>
       <c r="G72" s="3">
-        <v>559700</v>
+        <v>569100</v>
       </c>
       <c r="H72" s="3">
-        <v>356500</v>
+        <v>362500</v>
       </c>
       <c r="I72" s="3">
-        <v>4802900</v>
+        <v>4883400</v>
       </c>
       <c r="J72" s="3">
-        <v>287200</v>
+        <v>292100</v>
       </c>
       <c r="K72" s="3">
         <v>4710700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8366000</v>
+        <v>8506200</v>
       </c>
       <c r="E76" s="3">
-        <v>8418400</v>
+        <v>8559400</v>
       </c>
       <c r="F76" s="3">
-        <v>8070900</v>
+        <v>8206100</v>
       </c>
       <c r="G76" s="3">
-        <v>6111200</v>
+        <v>6213600</v>
       </c>
       <c r="H76" s="3">
-        <v>5877200</v>
+        <v>5975600</v>
       </c>
       <c r="I76" s="3">
-        <v>6152400</v>
+        <v>6255500</v>
       </c>
       <c r="J76" s="3">
-        <v>4357700</v>
+        <v>4430800</v>
       </c>
       <c r="K76" s="3">
         <v>6777000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="E81" s="3">
-        <v>97600</v>
+        <v>99200</v>
       </c>
       <c r="F81" s="3">
-        <v>89000</v>
+        <v>90500</v>
       </c>
       <c r="G81" s="3">
-        <v>200600</v>
+        <v>204000</v>
       </c>
       <c r="H81" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I81" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="J81" s="3">
-        <v>-2495700</v>
+        <v>-2537600</v>
       </c>
       <c r="K81" s="3">
         <v>-24819500</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1294000</v>
+        <v>1315700</v>
       </c>
       <c r="E83" s="3">
-        <v>1315300</v>
+        <v>1337400</v>
       </c>
       <c r="F83" s="3">
-        <v>1203700</v>
+        <v>1223900</v>
       </c>
       <c r="G83" s="3">
-        <v>1054000</v>
+        <v>1071600</v>
       </c>
       <c r="H83" s="3">
-        <v>1050600</v>
+        <v>1068200</v>
       </c>
       <c r="I83" s="3">
-        <v>1106600</v>
+        <v>1125200</v>
       </c>
       <c r="J83" s="3">
-        <v>1117300</v>
+        <v>1136000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2291400</v>
+        <v>2329800</v>
       </c>
       <c r="E89" s="3">
-        <v>1923500</v>
+        <v>1955700</v>
       </c>
       <c r="F89" s="3">
-        <v>2006700</v>
+        <v>2040300</v>
       </c>
       <c r="G89" s="3">
-        <v>2033400</v>
+        <v>2067500</v>
       </c>
       <c r="H89" s="3">
-        <v>1775500</v>
+        <v>1805200</v>
       </c>
       <c r="I89" s="3">
-        <v>1123600</v>
+        <v>1142400</v>
       </c>
       <c r="J89" s="3">
-        <v>2127800</v>
+        <v>2163500</v>
       </c>
       <c r="K89" s="3">
         <v>1260600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-775900</v>
+        <v>-788900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1393700</v>
+        <v>-1417000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1038800</v>
+        <v>-1056300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1369200</v>
+        <v>-1392100</v>
       </c>
       <c r="H91" s="3">
-        <v>-961300</v>
+        <v>-977400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1416300</v>
+        <v>-1440100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1237700</v>
+        <v>-1258500</v>
       </c>
       <c r="K91" s="3">
         <v>-1296600</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>297600</v>
+        <v>302600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2062700</v>
+        <v>-2097300</v>
       </c>
       <c r="F94" s="3">
-        <v>-851400</v>
+        <v>-865600</v>
       </c>
       <c r="G94" s="3">
-        <v>-861900</v>
+        <v>-876300</v>
       </c>
       <c r="H94" s="3">
-        <v>-769700</v>
+        <v>-782600</v>
       </c>
       <c r="I94" s="3">
-        <v>368500</v>
+        <v>374700</v>
       </c>
       <c r="J94" s="3">
-        <v>-757800</v>
+        <v>-770500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2428800</v>
+        <v>-2469500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1612800</v>
+        <v>-1639800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2506900</v>
+        <v>-2548900</v>
       </c>
       <c r="G100" s="3">
-        <v>-523400</v>
+        <v>-532100</v>
       </c>
       <c r="H100" s="3">
-        <v>-565400</v>
+        <v>-574900</v>
       </c>
       <c r="I100" s="3">
-        <v>-835400</v>
+        <v>-849400</v>
       </c>
       <c r="J100" s="3">
-        <v>-618500</v>
+        <v>-628800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3713,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="E101" s="3">
         <v>3300</v>
       </c>
       <c r="F101" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="H101" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="I101" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="J101" s="3">
         <v>900</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>146600</v>
+        <v>149100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1748700</v>
+        <v>-1778100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1342700</v>
+        <v>-1365200</v>
       </c>
       <c r="G102" s="3">
-        <v>614000</v>
+        <v>624300</v>
       </c>
       <c r="H102" s="3">
-        <v>469900</v>
+        <v>477700</v>
       </c>
       <c r="I102" s="3">
-        <v>674300</v>
+        <v>685600</v>
       </c>
       <c r="J102" s="3">
-        <v>752500</v>
+        <v>765100</v>
       </c>
       <c r="K102" s="3">
         <v>354200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29119300</v>
+        <v>29342500</v>
       </c>
       <c r="E8" s="3">
-        <v>29780100</v>
+        <v>30008400</v>
       </c>
       <c r="F8" s="3">
-        <v>28218600</v>
+        <v>28434900</v>
       </c>
       <c r="G8" s="3">
-        <v>28340600</v>
+        <v>28557800</v>
       </c>
       <c r="H8" s="3">
-        <v>22580500</v>
+        <v>22753600</v>
       </c>
       <c r="I8" s="3">
-        <v>19331300</v>
+        <v>19479500</v>
       </c>
       <c r="J8" s="3">
-        <v>22231500</v>
+        <v>22401900</v>
       </c>
       <c r="K8" s="3">
         <v>26288400</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27017800</v>
+        <v>27224900</v>
       </c>
       <c r="E9" s="3">
-        <v>27878300</v>
+        <v>28092000</v>
       </c>
       <c r="F9" s="3">
-        <v>26150100</v>
+        <v>26350600</v>
       </c>
       <c r="G9" s="3">
-        <v>26072300</v>
+        <v>26272200</v>
       </c>
       <c r="H9" s="3">
-        <v>20928100</v>
+        <v>21088500</v>
       </c>
       <c r="I9" s="3">
-        <v>18941100</v>
+        <v>19086200</v>
       </c>
       <c r="J9" s="3">
-        <v>44223200</v>
+        <v>44562100</v>
       </c>
       <c r="K9" s="3">
         <v>50930700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2101500</v>
+        <v>2117600</v>
       </c>
       <c r="E10" s="3">
-        <v>1901800</v>
+        <v>1916400</v>
       </c>
       <c r="F10" s="3">
-        <v>2068500</v>
+        <v>2084300</v>
       </c>
       <c r="G10" s="3">
-        <v>2268200</v>
+        <v>2285600</v>
       </c>
       <c r="H10" s="3">
-        <v>1652400</v>
+        <v>1665100</v>
       </c>
       <c r="I10" s="3">
-        <v>390300</v>
+        <v>393200</v>
       </c>
       <c r="J10" s="3">
-        <v>-21991700</v>
+        <v>-22160200</v>
       </c>
       <c r="K10" s="3">
         <v>-24642300</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>219400</v>
+        <v>221100</v>
       </c>
       <c r="E12" s="3">
-        <v>147300</v>
+        <v>148400</v>
       </c>
       <c r="F12" s="3">
-        <v>98100</v>
+        <v>98900</v>
       </c>
       <c r="G12" s="3">
-        <v>78000</v>
+        <v>78600</v>
       </c>
       <c r="H12" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="I12" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="J12" s="3">
-        <v>46000</v>
+        <v>46300</v>
       </c>
       <c r="K12" s="3">
         <v>29600</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>216700</v>
+        <v>218400</v>
       </c>
       <c r="E14" s="3">
-        <v>-85800</v>
+        <v>-86500</v>
       </c>
       <c r="F14" s="3">
-        <v>57900</v>
+        <v>58300</v>
       </c>
       <c r="G14" s="3">
-        <v>-48300</v>
+        <v>-48700</v>
       </c>
       <c r="H14" s="3">
-        <v>-100700</v>
+        <v>-101400</v>
       </c>
       <c r="I14" s="3">
-        <v>-533900</v>
+        <v>-538000</v>
       </c>
       <c r="J14" s="3">
-        <v>928200</v>
+        <v>935300</v>
       </c>
       <c r="K14" s="3">
         <v>-973800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>39000</v>
+        <v>39300</v>
       </c>
       <c r="E15" s="3">
-        <v>33600</v>
+        <v>33900</v>
       </c>
       <c r="F15" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="G15" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="H15" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="I15" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="J15" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="K15" s="3">
         <v>34000</v>
@@ -1003,25 +1003,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28176400</v>
+        <v>28392300</v>
       </c>
       <c r="E17" s="3">
-        <v>28768700</v>
+        <v>28989200</v>
       </c>
       <c r="F17" s="3">
-        <v>27151700</v>
+        <v>27359800</v>
       </c>
       <c r="G17" s="3">
-        <v>27134600</v>
+        <v>27342600</v>
       </c>
       <c r="H17" s="3">
-        <v>21670800</v>
+        <v>21836900</v>
       </c>
       <c r="I17" s="3">
-        <v>18552000</v>
+        <v>18694200</v>
       </c>
       <c r="J17" s="3">
-        <v>23910300</v>
+        <v>24093500</v>
       </c>
       <c r="K17" s="3">
         <v>50517500</v>
@@ -1039,25 +1039,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>942900</v>
+        <v>950100</v>
       </c>
       <c r="E18" s="3">
-        <v>1011400</v>
+        <v>1019200</v>
       </c>
       <c r="F18" s="3">
-        <v>1066900</v>
+        <v>1075100</v>
       </c>
       <c r="G18" s="3">
-        <v>1206000</v>
+        <v>1215200</v>
       </c>
       <c r="H18" s="3">
-        <v>909600</v>
+        <v>916600</v>
       </c>
       <c r="I18" s="3">
-        <v>779300</v>
+        <v>785300</v>
       </c>
       <c r="J18" s="3">
-        <v>-1678800</v>
+        <v>-1691600</v>
       </c>
       <c r="K18" s="3">
         <v>-24229200</v>
@@ -1091,25 +1091,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>74700</v>
+        <v>75200</v>
       </c>
       <c r="E20" s="3">
-        <v>100600</v>
+        <v>101400</v>
       </c>
       <c r="F20" s="3">
-        <v>53200</v>
+        <v>53600</v>
       </c>
       <c r="G20" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="H20" s="3">
-        <v>140200</v>
+        <v>141300</v>
       </c>
       <c r="I20" s="3">
-        <v>160400</v>
+        <v>161600</v>
       </c>
       <c r="J20" s="3">
-        <v>231300</v>
+        <v>233000</v>
       </c>
       <c r="K20" s="3">
         <v>304500</v>
@@ -1127,25 +1127,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2332200</v>
+        <v>2355600</v>
       </c>
       <c r="E21" s="3">
-        <v>2448400</v>
+        <v>2472700</v>
       </c>
       <c r="F21" s="3">
-        <v>2343100</v>
+        <v>2366200</v>
       </c>
       <c r="G21" s="3">
-        <v>2342200</v>
+        <v>2364600</v>
       </c>
       <c r="H21" s="3">
-        <v>2117200</v>
+        <v>2137900</v>
       </c>
       <c r="I21" s="3">
-        <v>2064000</v>
+        <v>2084500</v>
       </c>
       <c r="J21" s="3">
-        <v>-312400</v>
+        <v>-310000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>680100</v>
+        <v>685300</v>
       </c>
       <c r="E22" s="3">
-        <v>780300</v>
+        <v>786300</v>
       </c>
       <c r="F22" s="3">
-        <v>765600</v>
+        <v>771500</v>
       </c>
       <c r="G22" s="3">
-        <v>794000</v>
+        <v>800100</v>
       </c>
       <c r="H22" s="3">
-        <v>795300</v>
+        <v>801400</v>
       </c>
       <c r="I22" s="3">
-        <v>918200</v>
+        <v>925300</v>
       </c>
       <c r="J22" s="3">
-        <v>1052100</v>
+        <v>1060200</v>
       </c>
       <c r="K22" s="3">
         <v>908900</v>
@@ -1199,25 +1199,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>337400</v>
+        <v>340000</v>
       </c>
       <c r="E23" s="3">
-        <v>331700</v>
+        <v>334300</v>
       </c>
       <c r="F23" s="3">
-        <v>354500</v>
+        <v>357200</v>
       </c>
       <c r="G23" s="3">
-        <v>477400</v>
+        <v>481000</v>
       </c>
       <c r="H23" s="3">
-        <v>254500</v>
+        <v>256400</v>
       </c>
       <c r="I23" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="J23" s="3">
-        <v>-2499600</v>
+        <v>-2518800</v>
       </c>
       <c r="K23" s="3">
         <v>-24833500</v>
@@ -1235,25 +1235,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>91100</v>
+        <v>91800</v>
       </c>
       <c r="E24" s="3">
-        <v>98400</v>
+        <v>99100</v>
       </c>
       <c r="F24" s="3">
-        <v>128800</v>
+        <v>129800</v>
       </c>
       <c r="G24" s="3">
-        <v>100800</v>
+        <v>101600</v>
       </c>
       <c r="H24" s="3">
-        <v>63300</v>
+        <v>63800</v>
       </c>
       <c r="I24" s="3">
-        <v>-36000</v>
+        <v>-36300</v>
       </c>
       <c r="J24" s="3">
-        <v>168300</v>
+        <v>169600</v>
       </c>
       <c r="K24" s="3">
         <v>51900</v>
@@ -1307,25 +1307,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>246300</v>
+        <v>248200</v>
       </c>
       <c r="E26" s="3">
-        <v>233400</v>
+        <v>235200</v>
       </c>
       <c r="F26" s="3">
-        <v>225800</v>
+        <v>227500</v>
       </c>
       <c r="G26" s="3">
-        <v>376600</v>
+        <v>379500</v>
       </c>
       <c r="H26" s="3">
-        <v>191200</v>
+        <v>192700</v>
       </c>
       <c r="I26" s="3">
-        <v>57500</v>
+        <v>57900</v>
       </c>
       <c r="J26" s="3">
-        <v>-2667900</v>
+        <v>-2688300</v>
       </c>
       <c r="K26" s="3">
         <v>-24885400</v>
@@ -1343,25 +1343,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="E27" s="3">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="F27" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="G27" s="3">
-        <v>204000</v>
+        <v>205600</v>
       </c>
       <c r="H27" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="I27" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="J27" s="3">
-        <v>-2537600</v>
+        <v>-2557000</v>
       </c>
       <c r="K27" s="3">
         <v>-24851100</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74700</v>
+        <v>-75200</v>
       </c>
       <c r="E32" s="3">
-        <v>-100600</v>
+        <v>-101400</v>
       </c>
       <c r="F32" s="3">
-        <v>-53200</v>
+        <v>-53600</v>
       </c>
       <c r="G32" s="3">
-        <v>-65400</v>
+        <v>-65900</v>
       </c>
       <c r="H32" s="3">
-        <v>-140200</v>
+        <v>-141300</v>
       </c>
       <c r="I32" s="3">
-        <v>-160400</v>
+        <v>-161600</v>
       </c>
       <c r="J32" s="3">
-        <v>-231300</v>
+        <v>-233000</v>
       </c>
       <c r="K32" s="3">
         <v>-304500</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="E33" s="3">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="F33" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="G33" s="3">
-        <v>204000</v>
+        <v>205600</v>
       </c>
       <c r="H33" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="I33" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="J33" s="3">
-        <v>-2537600</v>
+        <v>-2557000</v>
       </c>
       <c r="K33" s="3">
         <v>-24819500</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="E35" s="3">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="F35" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="G35" s="3">
-        <v>204000</v>
+        <v>205600</v>
       </c>
       <c r="H35" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="I35" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="J35" s="3">
-        <v>-2537600</v>
+        <v>-2557000</v>
       </c>
       <c r="K35" s="3">
         <v>-24819500</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1507900</v>
+        <v>1519400</v>
       </c>
       <c r="E41" s="3">
-        <v>1217900</v>
+        <v>1227200</v>
       </c>
       <c r="F41" s="3">
-        <v>2995100</v>
+        <v>3018100</v>
       </c>
       <c r="G41" s="3">
-        <v>4358000</v>
+        <v>4391400</v>
       </c>
       <c r="H41" s="3">
-        <v>3728300</v>
+        <v>3756900</v>
       </c>
       <c r="I41" s="3">
-        <v>3249600</v>
+        <v>3274500</v>
       </c>
       <c r="J41" s="3">
-        <v>2547000</v>
+        <v>2566500</v>
       </c>
       <c r="K41" s="3">
         <v>1898400</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>169400</v>
+        <v>170700</v>
       </c>
       <c r="E42" s="3">
-        <v>734100</v>
+        <v>739700</v>
       </c>
       <c r="F42" s="3">
-        <v>188100</v>
+        <v>189600</v>
       </c>
       <c r="G42" s="3">
-        <v>159100</v>
+        <v>160300</v>
       </c>
       <c r="H42" s="3">
-        <v>149500</v>
+        <v>150600</v>
       </c>
       <c r="I42" s="3">
-        <v>168600</v>
+        <v>169900</v>
       </c>
       <c r="J42" s="3">
-        <v>848100</v>
+        <v>854600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2130200</v>
+        <v>2146500</v>
       </c>
       <c r="E43" s="3">
-        <v>2172600</v>
+        <v>2189200</v>
       </c>
       <c r="F43" s="3">
-        <v>2210300</v>
+        <v>2227300</v>
       </c>
       <c r="G43" s="3">
-        <v>2370500</v>
+        <v>2388700</v>
       </c>
       <c r="H43" s="3">
-        <v>2807700</v>
+        <v>2829200</v>
       </c>
       <c r="I43" s="3">
-        <v>2375300</v>
+        <v>2393500</v>
       </c>
       <c r="J43" s="3">
-        <v>2205100</v>
+        <v>2222000</v>
       </c>
       <c r="K43" s="3">
         <v>3401600</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3108800</v>
+        <v>3132600</v>
       </c>
       <c r="E44" s="3">
-        <v>6110700</v>
+        <v>6157500</v>
       </c>
       <c r="F44" s="3">
-        <v>3203200</v>
+        <v>3227700</v>
       </c>
       <c r="G44" s="3">
-        <v>3216900</v>
+        <v>3241600</v>
       </c>
       <c r="H44" s="3">
-        <v>2807700</v>
+        <v>2829200</v>
       </c>
       <c r="I44" s="3">
-        <v>6343600</v>
+        <v>6392200</v>
       </c>
       <c r="J44" s="3">
-        <v>3529400</v>
+        <v>3556400</v>
       </c>
       <c r="K44" s="3">
         <v>7191600</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>317400</v>
+        <v>319800</v>
       </c>
       <c r="E45" s="3">
-        <v>1891000</v>
+        <v>1905500</v>
       </c>
       <c r="F45" s="3">
-        <v>624900</v>
+        <v>629700</v>
       </c>
       <c r="G45" s="3">
-        <v>642400</v>
+        <v>647300</v>
       </c>
       <c r="H45" s="3">
-        <v>916100</v>
+        <v>923100</v>
       </c>
       <c r="I45" s="3">
-        <v>3595200</v>
+        <v>3622700</v>
       </c>
       <c r="J45" s="3">
-        <v>1405300</v>
+        <v>1416000</v>
       </c>
       <c r="K45" s="3">
         <v>3821100</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7233700</v>
+        <v>7289100</v>
       </c>
       <c r="E46" s="3">
-        <v>7624700</v>
+        <v>7683100</v>
       </c>
       <c r="F46" s="3">
-        <v>9221600</v>
+        <v>9292300</v>
       </c>
       <c r="G46" s="3">
-        <v>10747000</v>
+        <v>10829300</v>
       </c>
       <c r="H46" s="3">
-        <v>10409200</v>
+        <v>10488900</v>
       </c>
       <c r="I46" s="3">
-        <v>10092200</v>
+        <v>10169600</v>
       </c>
       <c r="J46" s="3">
-        <v>9956600</v>
+        <v>10032900</v>
       </c>
       <c r="K46" s="3">
         <v>9635100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2223500</v>
+        <v>2240600</v>
       </c>
       <c r="E47" s="3">
-        <v>2390000</v>
+        <v>2408300</v>
       </c>
       <c r="F47" s="3">
-        <v>1830400</v>
+        <v>1844400</v>
       </c>
       <c r="G47" s="3">
-        <v>2369100</v>
+        <v>2387200</v>
       </c>
       <c r="H47" s="3">
-        <v>2144500</v>
+        <v>2160900</v>
       </c>
       <c r="I47" s="3">
-        <v>3600700</v>
+        <v>3628300</v>
       </c>
       <c r="J47" s="3">
-        <v>2479100</v>
+        <v>2498100</v>
       </c>
       <c r="K47" s="3">
         <v>1433300</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18243600</v>
+        <v>18383400</v>
       </c>
       <c r="E48" s="3">
-        <v>19148200</v>
+        <v>19295000</v>
       </c>
       <c r="F48" s="3">
-        <v>16815300</v>
+        <v>16944200</v>
       </c>
       <c r="G48" s="3">
-        <v>15180000</v>
+        <v>15296400</v>
       </c>
       <c r="H48" s="3">
-        <v>14422900</v>
+        <v>14533500</v>
       </c>
       <c r="I48" s="3">
-        <v>28467200</v>
+        <v>28685400</v>
       </c>
       <c r="J48" s="3">
-        <v>12578900</v>
+        <v>12675300</v>
       </c>
       <c r="K48" s="3">
         <v>30741200</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2105500</v>
+        <v>2121600</v>
       </c>
       <c r="E49" s="3">
-        <v>2155000</v>
+        <v>2171500</v>
       </c>
       <c r="F49" s="3">
-        <v>2690700</v>
+        <v>2711300</v>
       </c>
       <c r="G49" s="3">
-        <v>2225400</v>
+        <v>2242500</v>
       </c>
       <c r="H49" s="3">
-        <v>2184800</v>
+        <v>2201500</v>
       </c>
       <c r="I49" s="3">
-        <v>4232800</v>
+        <v>4265200</v>
       </c>
       <c r="J49" s="3">
-        <v>2231700</v>
+        <v>2248800</v>
       </c>
       <c r="K49" s="3">
         <v>4154500</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>707600</v>
+        <v>713000</v>
       </c>
       <c r="E52" s="3">
-        <v>1222900</v>
+        <v>1232200</v>
       </c>
       <c r="F52" s="3">
-        <v>905000</v>
+        <v>911900</v>
       </c>
       <c r="G52" s="3">
-        <v>761800</v>
+        <v>767600</v>
       </c>
       <c r="H52" s="3">
-        <v>665100</v>
+        <v>670200</v>
       </c>
       <c r="I52" s="3">
-        <v>2343800</v>
+        <v>2361700</v>
       </c>
       <c r="J52" s="3">
-        <v>788800</v>
+        <v>794800</v>
       </c>
       <c r="K52" s="3">
         <v>2330600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30513800</v>
+        <v>30747700</v>
       </c>
       <c r="E54" s="3">
-        <v>31803200</v>
+        <v>32047000</v>
       </c>
       <c r="F54" s="3">
-        <v>31463000</v>
+        <v>31704200</v>
       </c>
       <c r="G54" s="3">
-        <v>31283300</v>
+        <v>31523100</v>
       </c>
       <c r="H54" s="3">
-        <v>29826500</v>
+        <v>30055100</v>
       </c>
       <c r="I54" s="3">
-        <v>30068700</v>
+        <v>30299100</v>
       </c>
       <c r="J54" s="3">
-        <v>30191600</v>
+        <v>30423000</v>
       </c>
       <c r="K54" s="3">
         <v>30480700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2417400</v>
+        <v>2435900</v>
       </c>
       <c r="E57" s="3">
-        <v>1974000</v>
+        <v>1989200</v>
       </c>
       <c r="F57" s="3">
-        <v>2193300</v>
+        <v>2210100</v>
       </c>
       <c r="G57" s="3">
-        <v>1935200</v>
+        <v>1950000</v>
       </c>
       <c r="H57" s="3">
-        <v>1775800</v>
+        <v>1789500</v>
       </c>
       <c r="I57" s="3">
-        <v>2305600</v>
+        <v>2323300</v>
       </c>
       <c r="J57" s="3">
-        <v>5906600</v>
+        <v>5951800</v>
       </c>
       <c r="K57" s="3">
         <v>1340000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5433800</v>
+        <v>5475400</v>
       </c>
       <c r="E58" s="3">
-        <v>6833100</v>
+        <v>6885500</v>
       </c>
       <c r="F58" s="3">
-        <v>7446900</v>
+        <v>7503900</v>
       </c>
       <c r="G58" s="3">
-        <v>9860300</v>
+        <v>9935900</v>
       </c>
       <c r="H58" s="3">
-        <v>9152400</v>
+        <v>9222600</v>
       </c>
       <c r="I58" s="3">
-        <v>8573400</v>
+        <v>8639100</v>
       </c>
       <c r="J58" s="3">
-        <v>12617600</v>
+        <v>12714400</v>
       </c>
       <c r="K58" s="3">
         <v>9030300</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1953700</v>
+        <v>1968700</v>
       </c>
       <c r="E59" s="3">
-        <v>4188000</v>
+        <v>4220100</v>
       </c>
       <c r="F59" s="3">
-        <v>2076300</v>
+        <v>2092200</v>
       </c>
       <c r="G59" s="3">
-        <v>4332700</v>
+        <v>4365900</v>
       </c>
       <c r="H59" s="3">
-        <v>2094400</v>
+        <v>2110400</v>
       </c>
       <c r="I59" s="3">
-        <v>3773200</v>
+        <v>3802100</v>
       </c>
       <c r="J59" s="3">
-        <v>2084100</v>
+        <v>2100100</v>
       </c>
       <c r="K59" s="3">
         <v>7341000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9804900</v>
+        <v>9880100</v>
       </c>
       <c r="E60" s="3">
-        <v>10834400</v>
+        <v>10917500</v>
       </c>
       <c r="F60" s="3">
-        <v>11716400</v>
+        <v>11806200</v>
       </c>
       <c r="G60" s="3">
-        <v>14143200</v>
+        <v>14251600</v>
       </c>
       <c r="H60" s="3">
-        <v>13022600</v>
+        <v>13122500</v>
       </c>
       <c r="I60" s="3">
-        <v>12807700</v>
+        <v>12905900</v>
       </c>
       <c r="J60" s="3">
-        <v>16348300</v>
+        <v>16473600</v>
       </c>
       <c r="K60" s="3">
         <v>14779600</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9005000</v>
+        <v>9074100</v>
       </c>
       <c r="E61" s="3">
-        <v>9275200</v>
+        <v>9346300</v>
       </c>
       <c r="F61" s="3">
-        <v>8486700</v>
+        <v>8551800</v>
       </c>
       <c r="G61" s="3">
-        <v>6307800</v>
+        <v>6356100</v>
       </c>
       <c r="H61" s="3">
-        <v>7408800</v>
+        <v>7465600</v>
       </c>
       <c r="I61" s="3">
-        <v>8454400</v>
+        <v>8519200</v>
       </c>
       <c r="J61" s="3">
-        <v>7009100</v>
+        <v>7062800</v>
       </c>
       <c r="K61" s="3">
         <v>7072900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>561200</v>
+        <v>565500</v>
       </c>
       <c r="E62" s="3">
-        <v>963300</v>
+        <v>970700</v>
       </c>
       <c r="F62" s="3">
-        <v>665500</v>
+        <v>670600</v>
       </c>
       <c r="G62" s="3">
-        <v>539700</v>
+        <v>543900</v>
       </c>
       <c r="H62" s="3">
-        <v>661000</v>
+        <v>666100</v>
       </c>
       <c r="I62" s="3">
-        <v>1199200</v>
+        <v>1208300</v>
       </c>
       <c r="J62" s="3">
-        <v>626000</v>
+        <v>630800</v>
       </c>
       <c r="K62" s="3">
         <v>423600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22007600</v>
+        <v>22176300</v>
       </c>
       <c r="E66" s="3">
-        <v>23243800</v>
+        <v>23421900</v>
       </c>
       <c r="F66" s="3">
-        <v>23256900</v>
+        <v>23435200</v>
       </c>
       <c r="G66" s="3">
-        <v>25069800</v>
+        <v>25261900</v>
       </c>
       <c r="H66" s="3">
-        <v>23850800</v>
+        <v>24033700</v>
       </c>
       <c r="I66" s="3">
-        <v>23813200</v>
+        <v>23995700</v>
       </c>
       <c r="J66" s="3">
-        <v>25760800</v>
+        <v>25958300</v>
       </c>
       <c r="K66" s="3">
         <v>23703700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>855900</v>
+        <v>862400</v>
       </c>
       <c r="E72" s="3">
-        <v>768500</v>
+        <v>774300</v>
       </c>
       <c r="F72" s="3">
-        <v>2324600</v>
+        <v>2342400</v>
       </c>
       <c r="G72" s="3">
-        <v>569100</v>
+        <v>573500</v>
       </c>
       <c r="H72" s="3">
-        <v>362500</v>
+        <v>365300</v>
       </c>
       <c r="I72" s="3">
-        <v>4883400</v>
+        <v>4920800</v>
       </c>
       <c r="J72" s="3">
-        <v>292100</v>
+        <v>294300</v>
       </c>
       <c r="K72" s="3">
         <v>4710700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8506200</v>
+        <v>8571400</v>
       </c>
       <c r="E76" s="3">
-        <v>8559400</v>
+        <v>8625100</v>
       </c>
       <c r="F76" s="3">
-        <v>8206100</v>
+        <v>8269000</v>
       </c>
       <c r="G76" s="3">
-        <v>6213600</v>
+        <v>6261200</v>
       </c>
       <c r="H76" s="3">
-        <v>5975600</v>
+        <v>6021400</v>
       </c>
       <c r="I76" s="3">
-        <v>6255500</v>
+        <v>6303400</v>
       </c>
       <c r="J76" s="3">
-        <v>4430800</v>
+        <v>4464700</v>
       </c>
       <c r="K76" s="3">
         <v>6777000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="E81" s="3">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="F81" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="G81" s="3">
-        <v>204000</v>
+        <v>205600</v>
       </c>
       <c r="H81" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="I81" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="J81" s="3">
-        <v>-2537600</v>
+        <v>-2557000</v>
       </c>
       <c r="K81" s="3">
         <v>-24819500</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1315700</v>
+        <v>1325800</v>
       </c>
       <c r="E83" s="3">
-        <v>1337400</v>
+        <v>1347600</v>
       </c>
       <c r="F83" s="3">
-        <v>1223900</v>
+        <v>1233300</v>
       </c>
       <c r="G83" s="3">
-        <v>1071600</v>
+        <v>1079800</v>
       </c>
       <c r="H83" s="3">
-        <v>1068200</v>
+        <v>1076400</v>
       </c>
       <c r="I83" s="3">
-        <v>1125200</v>
+        <v>1133800</v>
       </c>
       <c r="J83" s="3">
-        <v>1136000</v>
+        <v>1144700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2329800</v>
+        <v>2347700</v>
       </c>
       <c r="E89" s="3">
-        <v>1955700</v>
+        <v>1970700</v>
       </c>
       <c r="F89" s="3">
-        <v>2040300</v>
+        <v>2055900</v>
       </c>
       <c r="G89" s="3">
-        <v>2067500</v>
+        <v>2083300</v>
       </c>
       <c r="H89" s="3">
-        <v>1805200</v>
+        <v>1819000</v>
       </c>
       <c r="I89" s="3">
-        <v>1142400</v>
+        <v>1151200</v>
       </c>
       <c r="J89" s="3">
-        <v>2163500</v>
+        <v>2180000</v>
       </c>
       <c r="K89" s="3">
         <v>1260600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-788900</v>
+        <v>-794900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1417000</v>
+        <v>-1427900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1056300</v>
+        <v>-1064300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1392100</v>
+        <v>-1402800</v>
       </c>
       <c r="H91" s="3">
-        <v>-977400</v>
+        <v>-984900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1440100</v>
+        <v>-1451100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1258500</v>
+        <v>-1268100</v>
       </c>
       <c r="K91" s="3">
         <v>-1296600</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>302600</v>
+        <v>304900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2097300</v>
+        <v>-2113300</v>
       </c>
       <c r="F94" s="3">
-        <v>-865600</v>
+        <v>-872300</v>
       </c>
       <c r="G94" s="3">
-        <v>-876300</v>
+        <v>-883100</v>
       </c>
       <c r="H94" s="3">
-        <v>-782600</v>
+        <v>-788600</v>
       </c>
       <c r="I94" s="3">
-        <v>374700</v>
+        <v>377500</v>
       </c>
       <c r="J94" s="3">
-        <v>-770500</v>
+        <v>-776400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2469500</v>
+        <v>-2488400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1639800</v>
+        <v>-1652400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2548900</v>
+        <v>-2568400</v>
       </c>
       <c r="G100" s="3">
-        <v>-532100</v>
+        <v>-536200</v>
       </c>
       <c r="H100" s="3">
-        <v>-574900</v>
+        <v>-579300</v>
       </c>
       <c r="I100" s="3">
-        <v>-849400</v>
+        <v>-855900</v>
       </c>
       <c r="J100" s="3">
-        <v>-628800</v>
+        <v>-633600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3713,7 +3713,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="E101" s="3">
         <v>3300</v>
@@ -3722,13 +3722,13 @@
         <v>9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-34700</v>
+        <v>-35000</v>
       </c>
       <c r="H101" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="I101" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="J101" s="3">
         <v>900</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>149100</v>
+        <v>150200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1778100</v>
+        <v>-1791700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1365200</v>
+        <v>-1375700</v>
       </c>
       <c r="G102" s="3">
-        <v>624300</v>
+        <v>629100</v>
       </c>
       <c r="H102" s="3">
-        <v>477700</v>
+        <v>481400</v>
       </c>
       <c r="I102" s="3">
-        <v>685600</v>
+        <v>690900</v>
       </c>
       <c r="J102" s="3">
-        <v>765100</v>
+        <v>771000</v>
       </c>
       <c r="K102" s="3">
         <v>354200</v>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ACH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29342500</v>
+        <v>39750100</v>
       </c>
       <c r="E8" s="3">
-        <v>30008400</v>
+        <v>27407600</v>
       </c>
       <c r="F8" s="3">
-        <v>28434900</v>
+        <v>28030100</v>
       </c>
       <c r="G8" s="3">
-        <v>28557800</v>
+        <v>26560400</v>
       </c>
       <c r="H8" s="3">
-        <v>22753600</v>
+        <v>26675200</v>
       </c>
       <c r="I8" s="3">
-        <v>19479500</v>
+        <v>21253600</v>
       </c>
       <c r="J8" s="3">
+        <v>18195300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22401900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26288400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20580300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21649200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27224900</v>
+        <v>35848300</v>
       </c>
       <c r="E9" s="3">
-        <v>28092000</v>
+        <v>25592600</v>
       </c>
       <c r="F9" s="3">
-        <v>26350600</v>
+        <v>26240100</v>
       </c>
       <c r="G9" s="3">
-        <v>26272200</v>
+        <v>24613500</v>
       </c>
       <c r="H9" s="3">
-        <v>21088500</v>
+        <v>24540200</v>
       </c>
       <c r="I9" s="3">
-        <v>19086200</v>
+        <v>19698300</v>
       </c>
       <c r="J9" s="3">
+        <v>17828000</v>
+      </c>
+      <c r="K9" s="3">
         <v>44562100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50930700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42072400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20497100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2117600</v>
+        <v>3901800</v>
       </c>
       <c r="E10" s="3">
-        <v>1916400</v>
+        <v>1814900</v>
       </c>
       <c r="F10" s="3">
-        <v>2084300</v>
+        <v>1790000</v>
       </c>
       <c r="G10" s="3">
-        <v>2285600</v>
+        <v>1946900</v>
       </c>
       <c r="H10" s="3">
-        <v>1665100</v>
+        <v>2134900</v>
       </c>
       <c r="I10" s="3">
-        <v>393200</v>
+        <v>1555300</v>
       </c>
       <c r="J10" s="3">
+        <v>367300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-22160200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-24642300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-21492100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1152100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>221100</v>
+        <v>320800</v>
       </c>
       <c r="E12" s="3">
-        <v>148400</v>
+        <v>188400</v>
       </c>
       <c r="F12" s="3">
-        <v>98900</v>
+        <v>138600</v>
       </c>
       <c r="G12" s="3">
-        <v>78600</v>
+        <v>92400</v>
       </c>
       <c r="H12" s="3">
-        <v>26600</v>
+        <v>73400</v>
       </c>
       <c r="I12" s="3">
-        <v>26600</v>
+        <v>24900</v>
       </c>
       <c r="J12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K12" s="3">
         <v>46300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>218400</v>
+        <v>551200</v>
       </c>
       <c r="E14" s="3">
-        <v>-86500</v>
+        <v>204000</v>
       </c>
       <c r="F14" s="3">
-        <v>58300</v>
+        <v>-80800</v>
       </c>
       <c r="G14" s="3">
-        <v>-48700</v>
+        <v>54500</v>
       </c>
       <c r="H14" s="3">
-        <v>-101400</v>
+        <v>-45500</v>
       </c>
       <c r="I14" s="3">
-        <v>-538000</v>
+        <v>-94800</v>
       </c>
       <c r="J14" s="3">
+        <v>-502600</v>
+      </c>
+      <c r="K14" s="3">
         <v>935300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-973800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>39300</v>
+        <v>66200</v>
       </c>
       <c r="E15" s="3">
-        <v>33900</v>
+        <v>54800</v>
       </c>
       <c r="F15" s="3">
-        <v>37700</v>
+        <v>31600</v>
       </c>
       <c r="G15" s="3">
-        <v>31800</v>
+        <v>35200</v>
       </c>
       <c r="H15" s="3">
-        <v>35300</v>
+        <v>29700</v>
       </c>
       <c r="I15" s="3">
-        <v>35900</v>
+        <v>33000</v>
       </c>
       <c r="J15" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K15" s="3">
         <v>40000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>67100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>37800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28392300</v>
+        <v>37774200</v>
       </c>
       <c r="E17" s="3">
-        <v>28989200</v>
+        <v>26515100</v>
       </c>
       <c r="F17" s="3">
-        <v>27359800</v>
+        <v>27078100</v>
       </c>
       <c r="G17" s="3">
-        <v>27342600</v>
+        <v>25556100</v>
       </c>
       <c r="H17" s="3">
-        <v>21836900</v>
+        <v>25540100</v>
       </c>
       <c r="I17" s="3">
-        <v>18694200</v>
+        <v>20397400</v>
       </c>
       <c r="J17" s="3">
+        <v>17461800</v>
+      </c>
+      <c r="K17" s="3">
         <v>24093500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50517500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21162900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21118700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>950100</v>
+        <v>1975900</v>
       </c>
       <c r="E18" s="3">
-        <v>1019200</v>
+        <v>892500</v>
       </c>
       <c r="F18" s="3">
-        <v>1075100</v>
+        <v>952000</v>
       </c>
       <c r="G18" s="3">
-        <v>1215200</v>
+        <v>1004200</v>
       </c>
       <c r="H18" s="3">
-        <v>916600</v>
+        <v>1135100</v>
       </c>
       <c r="I18" s="3">
-        <v>785300</v>
+        <v>856200</v>
       </c>
       <c r="J18" s="3">
+        <v>733500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1691600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24229200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-582500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>530500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>75200</v>
+        <v>102000</v>
       </c>
       <c r="E20" s="3">
-        <v>101400</v>
+        <v>70300</v>
       </c>
       <c r="F20" s="3">
-        <v>53600</v>
+        <v>94700</v>
       </c>
       <c r="G20" s="3">
-        <v>65900</v>
+        <v>50100</v>
       </c>
       <c r="H20" s="3">
-        <v>141300</v>
+        <v>61600</v>
       </c>
       <c r="I20" s="3">
-        <v>161600</v>
+        <v>132000</v>
       </c>
       <c r="J20" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K20" s="3">
         <v>233000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>304500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>103900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2355600</v>
+        <v>3346400</v>
       </c>
       <c r="E21" s="3">
-        <v>2472700</v>
+        <v>2215000</v>
       </c>
       <c r="F21" s="3">
-        <v>2366200</v>
+        <v>2318100</v>
       </c>
       <c r="G21" s="3">
-        <v>2364600</v>
+        <v>2217900</v>
       </c>
       <c r="H21" s="3">
-        <v>2137900</v>
+        <v>2215500</v>
       </c>
       <c r="I21" s="3">
-        <v>2084500</v>
+        <v>2003600</v>
       </c>
       <c r="J21" s="3">
+        <v>1954100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-310000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>398500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1487000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>685300</v>
+        <v>578000</v>
       </c>
       <c r="E22" s="3">
-        <v>786300</v>
+        <v>640200</v>
       </c>
       <c r="F22" s="3">
-        <v>771500</v>
+        <v>734500</v>
       </c>
       <c r="G22" s="3">
-        <v>800100</v>
+        <v>720600</v>
       </c>
       <c r="H22" s="3">
-        <v>801400</v>
+        <v>747400</v>
       </c>
       <c r="I22" s="3">
-        <v>925300</v>
+        <v>748600</v>
       </c>
       <c r="J22" s="3">
+        <v>864300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1060200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>908900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>627400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>513100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>340000</v>
+        <v>1499900</v>
       </c>
       <c r="E23" s="3">
-        <v>334300</v>
+        <v>322600</v>
       </c>
       <c r="F23" s="3">
-        <v>357200</v>
+        <v>312300</v>
       </c>
       <c r="G23" s="3">
-        <v>481000</v>
+        <v>333700</v>
       </c>
       <c r="H23" s="3">
-        <v>256400</v>
+        <v>449300</v>
       </c>
       <c r="I23" s="3">
-        <v>21600</v>
+        <v>239500</v>
       </c>
       <c r="J23" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2518800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24833500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1123100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>91800</v>
+        <v>352200</v>
       </c>
       <c r="E24" s="3">
-        <v>99100</v>
+        <v>86900</v>
       </c>
       <c r="F24" s="3">
-        <v>129800</v>
+        <v>92600</v>
       </c>
       <c r="G24" s="3">
-        <v>101600</v>
+        <v>121200</v>
       </c>
       <c r="H24" s="3">
-        <v>63800</v>
+        <v>94900</v>
       </c>
       <c r="I24" s="3">
-        <v>-36300</v>
+        <v>59600</v>
       </c>
       <c r="J24" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K24" s="3">
         <v>169600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-53200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>248200</v>
+        <v>1147800</v>
       </c>
       <c r="E26" s="3">
-        <v>235200</v>
+        <v>235700</v>
       </c>
       <c r="F26" s="3">
-        <v>227500</v>
+        <v>219700</v>
       </c>
       <c r="G26" s="3">
-        <v>379500</v>
+        <v>212500</v>
       </c>
       <c r="H26" s="3">
-        <v>192700</v>
+        <v>354400</v>
       </c>
       <c r="I26" s="3">
-        <v>57900</v>
+        <v>180000</v>
       </c>
       <c r="J26" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2688300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24885400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1069800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>102500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>75700</v>
+        <v>717700</v>
       </c>
       <c r="E27" s="3">
-        <v>100000</v>
+        <v>74100</v>
       </c>
       <c r="F27" s="3">
-        <v>91200</v>
+        <v>93400</v>
       </c>
       <c r="G27" s="3">
-        <v>205600</v>
+        <v>85200</v>
       </c>
       <c r="H27" s="3">
-        <v>40800</v>
+        <v>192000</v>
       </c>
       <c r="I27" s="3">
-        <v>20400</v>
+        <v>38100</v>
       </c>
       <c r="J27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2557000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24851100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1011000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,45 +1465,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>31600</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-170400</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>31600</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-170400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75200</v>
+        <v>-102000</v>
       </c>
       <c r="E32" s="3">
-        <v>-101400</v>
+        <v>-70300</v>
       </c>
       <c r="F32" s="3">
-        <v>-53600</v>
+        <v>-94700</v>
       </c>
       <c r="G32" s="3">
-        <v>-65900</v>
+        <v>-50100</v>
       </c>
       <c r="H32" s="3">
-        <v>-141300</v>
+        <v>-61600</v>
       </c>
       <c r="I32" s="3">
-        <v>-161600</v>
+        <v>-132000</v>
       </c>
       <c r="J32" s="3">
+        <v>-150900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-233000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-304500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-103900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75700</v>
+        <v>717700</v>
       </c>
       <c r="E33" s="3">
-        <v>100000</v>
+        <v>74100</v>
       </c>
       <c r="F33" s="3">
-        <v>91200</v>
+        <v>93400</v>
       </c>
       <c r="G33" s="3">
-        <v>205600</v>
+        <v>85200</v>
       </c>
       <c r="H33" s="3">
-        <v>40800</v>
+        <v>192000</v>
       </c>
       <c r="I33" s="3">
-        <v>20400</v>
+        <v>38100</v>
       </c>
       <c r="J33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2557000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24819500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1181400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75700</v>
+        <v>717700</v>
       </c>
       <c r="E35" s="3">
-        <v>100000</v>
+        <v>74100</v>
       </c>
       <c r="F35" s="3">
-        <v>91200</v>
+        <v>93400</v>
       </c>
       <c r="G35" s="3">
-        <v>205600</v>
+        <v>85200</v>
       </c>
       <c r="H35" s="3">
-        <v>40800</v>
+        <v>192000</v>
       </c>
       <c r="I35" s="3">
-        <v>20400</v>
+        <v>38100</v>
       </c>
       <c r="J35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2557000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24819500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1181400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1519400</v>
+        <v>2630900</v>
       </c>
       <c r="E41" s="3">
-        <v>1227200</v>
+        <v>1425200</v>
       </c>
       <c r="F41" s="3">
-        <v>3018100</v>
+        <v>1146300</v>
       </c>
       <c r="G41" s="3">
-        <v>4391400</v>
+        <v>2819100</v>
       </c>
       <c r="H41" s="3">
-        <v>3756900</v>
+        <v>4101900</v>
       </c>
       <c r="I41" s="3">
-        <v>3274500</v>
+        <v>3509200</v>
       </c>
       <c r="J41" s="3">
+        <v>3058600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2566500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1898400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1571900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>170700</v>
+        <v>102100</v>
       </c>
       <c r="E42" s="3">
-        <v>739700</v>
+        <v>203800</v>
       </c>
       <c r="F42" s="3">
-        <v>189600</v>
+        <v>690900</v>
       </c>
       <c r="G42" s="3">
-        <v>160300</v>
+        <v>177100</v>
       </c>
       <c r="H42" s="3">
-        <v>150600</v>
+        <v>149800</v>
       </c>
       <c r="I42" s="3">
-        <v>169900</v>
+        <v>140700</v>
       </c>
       <c r="J42" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K42" s="3">
         <v>854600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2146500</v>
+        <v>1328700</v>
       </c>
       <c r="E43" s="3">
-        <v>2189200</v>
+        <v>1961000</v>
       </c>
       <c r="F43" s="3">
-        <v>2227300</v>
+        <v>2044900</v>
       </c>
       <c r="G43" s="3">
-        <v>2388700</v>
+        <v>2080400</v>
       </c>
       <c r="H43" s="3">
-        <v>2829200</v>
+        <v>2231200</v>
       </c>
       <c r="I43" s="3">
-        <v>2393500</v>
+        <v>2642700</v>
       </c>
       <c r="J43" s="3">
+        <v>2235700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2222000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3401600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1099500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1325200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3132600</v>
+        <v>2752400</v>
       </c>
       <c r="E44" s="3">
-        <v>6157500</v>
+        <v>2926800</v>
       </c>
       <c r="F44" s="3">
-        <v>3227700</v>
+        <v>5751600</v>
       </c>
       <c r="G44" s="3">
-        <v>3241600</v>
+        <v>3014900</v>
       </c>
       <c r="H44" s="3">
-        <v>2829200</v>
+        <v>3027900</v>
       </c>
       <c r="I44" s="3">
-        <v>6392200</v>
+        <v>2642700</v>
       </c>
       <c r="J44" s="3">
+        <v>5970800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3556400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7191600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3672600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3580300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>319800</v>
+        <v>364500</v>
       </c>
       <c r="E45" s="3">
-        <v>1905500</v>
+        <v>301300</v>
       </c>
       <c r="F45" s="3">
-        <v>629700</v>
+        <v>1779900</v>
       </c>
       <c r="G45" s="3">
-        <v>647300</v>
+        <v>588200</v>
       </c>
       <c r="H45" s="3">
-        <v>923100</v>
+        <v>604600</v>
       </c>
       <c r="I45" s="3">
-        <v>3622700</v>
+        <v>862200</v>
       </c>
       <c r="J45" s="3">
+        <v>3383900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1416000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3821100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>956100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>931900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7289100</v>
+        <v>7178500</v>
       </c>
       <c r="E46" s="3">
-        <v>7683100</v>
+        <v>6818100</v>
       </c>
       <c r="F46" s="3">
-        <v>9292300</v>
+        <v>7176600</v>
       </c>
       <c r="G46" s="3">
-        <v>10829300</v>
+        <v>8679700</v>
       </c>
       <c r="H46" s="3">
-        <v>10488900</v>
+        <v>10115400</v>
       </c>
       <c r="I46" s="3">
-        <v>10169600</v>
+        <v>9797500</v>
       </c>
       <c r="J46" s="3">
+        <v>9499200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10032900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9635100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7032800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7416000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2240600</v>
+        <v>1965600</v>
       </c>
       <c r="E47" s="3">
-        <v>2408300</v>
+        <v>2092900</v>
       </c>
       <c r="F47" s="3">
-        <v>1844400</v>
+        <v>2249600</v>
       </c>
       <c r="G47" s="3">
-        <v>2387200</v>
+        <v>1722800</v>
       </c>
       <c r="H47" s="3">
-        <v>2160900</v>
+        <v>2229900</v>
       </c>
       <c r="I47" s="3">
-        <v>3628300</v>
+        <v>2018500</v>
       </c>
       <c r="J47" s="3">
+        <v>3389100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2498100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1433300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2756700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>592900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18383400</v>
+        <v>16738300</v>
       </c>
       <c r="E48" s="3">
-        <v>19295000</v>
+        <v>17182500</v>
       </c>
       <c r="F48" s="3">
-        <v>16944200</v>
+        <v>18023000</v>
       </c>
       <c r="G48" s="3">
-        <v>15296400</v>
+        <v>15827200</v>
       </c>
       <c r="H48" s="3">
-        <v>14533500</v>
+        <v>14288000</v>
       </c>
       <c r="I48" s="3">
-        <v>28685400</v>
+        <v>13575400</v>
       </c>
       <c r="J48" s="3">
+        <v>26794400</v>
+      </c>
+      <c r="K48" s="3">
         <v>12675300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30741200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13809700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13917200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2121600</v>
+        <v>1913700</v>
       </c>
       <c r="E49" s="3">
-        <v>2171500</v>
+        <v>1981700</v>
       </c>
       <c r="F49" s="3">
-        <v>2711300</v>
+        <v>2028300</v>
       </c>
       <c r="G49" s="3">
-        <v>2242500</v>
+        <v>2532600</v>
       </c>
       <c r="H49" s="3">
-        <v>2201500</v>
+        <v>2094700</v>
       </c>
       <c r="I49" s="3">
-        <v>4265200</v>
+        <v>2056400</v>
       </c>
       <c r="J49" s="3">
+        <v>3984000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2248800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4154500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>983400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>995400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>713000</v>
+        <v>552500</v>
       </c>
       <c r="E52" s="3">
-        <v>1232200</v>
+        <v>666000</v>
       </c>
       <c r="F52" s="3">
-        <v>911900</v>
+        <v>1151000</v>
       </c>
       <c r="G52" s="3">
-        <v>767600</v>
+        <v>851800</v>
       </c>
       <c r="H52" s="3">
-        <v>670200</v>
+        <v>717000</v>
       </c>
       <c r="I52" s="3">
-        <v>2361700</v>
+        <v>626100</v>
       </c>
       <c r="J52" s="3">
+        <v>2206000</v>
+      </c>
+      <c r="K52" s="3">
         <v>794800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2330600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>528700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>398800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30747700</v>
+        <v>28348700</v>
       </c>
       <c r="E54" s="3">
-        <v>32047000</v>
+        <v>28741200</v>
       </c>
       <c r="F54" s="3">
-        <v>31704200</v>
+        <v>29934300</v>
       </c>
       <c r="G54" s="3">
-        <v>31523100</v>
+        <v>29614200</v>
       </c>
       <c r="H54" s="3">
-        <v>30055100</v>
+        <v>29445000</v>
       </c>
       <c r="I54" s="3">
-        <v>30299100</v>
+        <v>28073800</v>
       </c>
       <c r="J54" s="3">
+        <v>28301700</v>
+      </c>
+      <c r="K54" s="3">
         <v>30423000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30480700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25111400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23320300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2435900</v>
+        <v>2284900</v>
       </c>
       <c r="E57" s="3">
-        <v>1989200</v>
+        <v>2275900</v>
       </c>
       <c r="F57" s="3">
-        <v>2210100</v>
+        <v>1858000</v>
       </c>
       <c r="G57" s="3">
-        <v>1950000</v>
+        <v>2064400</v>
       </c>
       <c r="H57" s="3">
-        <v>1789500</v>
+        <v>1821400</v>
       </c>
       <c r="I57" s="3">
-        <v>2323300</v>
+        <v>1671500</v>
       </c>
       <c r="J57" s="3">
+        <v>2170100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5951800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1340000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1558500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5475400</v>
+        <v>3611200</v>
       </c>
       <c r="E58" s="3">
-        <v>6885500</v>
+        <v>5114500</v>
       </c>
       <c r="F58" s="3">
-        <v>7503900</v>
+        <v>6431600</v>
       </c>
       <c r="G58" s="3">
-        <v>9935900</v>
+        <v>7009300</v>
       </c>
       <c r="H58" s="3">
-        <v>9222600</v>
+        <v>9280900</v>
       </c>
       <c r="I58" s="3">
-        <v>8639100</v>
+        <v>8614600</v>
       </c>
       <c r="J58" s="3">
+        <v>8069600</v>
+      </c>
+      <c r="K58" s="3">
         <v>12714400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9030300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10056600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7216800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1968700</v>
+        <v>1793300</v>
       </c>
       <c r="E59" s="3">
-        <v>4220100</v>
+        <v>3424000</v>
       </c>
       <c r="F59" s="3">
-        <v>2092200</v>
+        <v>3941900</v>
       </c>
       <c r="G59" s="3">
-        <v>4365900</v>
+        <v>1954300</v>
       </c>
       <c r="H59" s="3">
-        <v>2110400</v>
+        <v>4078100</v>
       </c>
       <c r="I59" s="3">
-        <v>3802100</v>
+        <v>1971300</v>
       </c>
       <c r="J59" s="3">
+        <v>3551400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7341000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>479600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9880100</v>
+        <v>7689400</v>
       </c>
       <c r="E60" s="3">
-        <v>10917500</v>
+        <v>9229600</v>
       </c>
       <c r="F60" s="3">
-        <v>11806200</v>
+        <v>10197800</v>
       </c>
       <c r="G60" s="3">
-        <v>14251600</v>
+        <v>11027900</v>
       </c>
       <c r="H60" s="3">
-        <v>13122500</v>
+        <v>13312100</v>
       </c>
       <c r="I60" s="3">
-        <v>12905900</v>
+        <v>12257400</v>
       </c>
       <c r="J60" s="3">
+        <v>12055100</v>
+      </c>
+      <c r="K60" s="3">
         <v>16473600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14779600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12031300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9254900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9074100</v>
+        <v>9445200</v>
       </c>
       <c r="E61" s="3">
-        <v>9346300</v>
+        <v>8475900</v>
       </c>
       <c r="F61" s="3">
-        <v>8551800</v>
+        <v>8730100</v>
       </c>
       <c r="G61" s="3">
-        <v>6356100</v>
+        <v>7988000</v>
       </c>
       <c r="H61" s="3">
-        <v>7465600</v>
+        <v>5937100</v>
       </c>
       <c r="I61" s="3">
-        <v>8519200</v>
+        <v>6973500</v>
       </c>
       <c r="J61" s="3">
+        <v>7957600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7062800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7072900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5256500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5338100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>565500</v>
+        <v>488800</v>
       </c>
       <c r="E62" s="3">
-        <v>970700</v>
+        <v>528200</v>
       </c>
       <c r="F62" s="3">
-        <v>670600</v>
+        <v>906700</v>
       </c>
       <c r="G62" s="3">
-        <v>543900</v>
+        <v>626400</v>
       </c>
       <c r="H62" s="3">
-        <v>666100</v>
+        <v>508000</v>
       </c>
       <c r="I62" s="3">
-        <v>1208300</v>
+        <v>622200</v>
       </c>
       <c r="J62" s="3">
+        <v>1128700</v>
+      </c>
+      <c r="K62" s="3">
         <v>630800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>423600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22176300</v>
+        <v>19910100</v>
       </c>
       <c r="E66" s="3">
-        <v>23421900</v>
+        <v>20717600</v>
       </c>
       <c r="F66" s="3">
-        <v>23435200</v>
+        <v>21877900</v>
       </c>
       <c r="G66" s="3">
-        <v>25261900</v>
+        <v>21890200</v>
       </c>
       <c r="H66" s="3">
-        <v>24033700</v>
+        <v>23596600</v>
       </c>
       <c r="I66" s="3">
-        <v>23995700</v>
+        <v>22449300</v>
       </c>
       <c r="J66" s="3">
+        <v>22413800</v>
+      </c>
+      <c r="K66" s="3">
         <v>25958300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23703700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18825900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15628800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>862400</v>
+        <v>1497700</v>
       </c>
       <c r="E72" s="3">
-        <v>774300</v>
+        <v>771200</v>
       </c>
       <c r="F72" s="3">
-        <v>2342400</v>
+        <v>723300</v>
       </c>
       <c r="G72" s="3">
-        <v>573500</v>
+        <v>2188000</v>
       </c>
       <c r="H72" s="3">
-        <v>365300</v>
+        <v>535700</v>
       </c>
       <c r="I72" s="3">
-        <v>4920800</v>
+        <v>341200</v>
       </c>
       <c r="J72" s="3">
+        <v>4596400</v>
+      </c>
+      <c r="K72" s="3">
         <v>294300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4710700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2468400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3783100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8571400</v>
+        <v>8438500</v>
       </c>
       <c r="E76" s="3">
-        <v>8625100</v>
+        <v>8023700</v>
       </c>
       <c r="F76" s="3">
-        <v>8269000</v>
+        <v>8056500</v>
       </c>
       <c r="G76" s="3">
-        <v>6261200</v>
+        <v>7723900</v>
       </c>
       <c r="H76" s="3">
-        <v>6021400</v>
+        <v>5848400</v>
       </c>
       <c r="I76" s="3">
-        <v>6303400</v>
+        <v>5624500</v>
       </c>
       <c r="J76" s="3">
+        <v>5887900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4464700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6777000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6285500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7691500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75700</v>
+        <v>717700</v>
       </c>
       <c r="E81" s="3">
-        <v>100000</v>
+        <v>74100</v>
       </c>
       <c r="F81" s="3">
-        <v>91200</v>
+        <v>93400</v>
       </c>
       <c r="G81" s="3">
-        <v>205600</v>
+        <v>85200</v>
       </c>
       <c r="H81" s="3">
-        <v>40800</v>
+        <v>192000</v>
       </c>
       <c r="I81" s="3">
-        <v>20400</v>
+        <v>38100</v>
       </c>
       <c r="J81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2557000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24819500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1181400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1325800</v>
+        <v>1255800</v>
       </c>
       <c r="E83" s="3">
-        <v>1347600</v>
+        <v>1239700</v>
       </c>
       <c r="F83" s="3">
-        <v>1233300</v>
+        <v>1258800</v>
       </c>
       <c r="G83" s="3">
-        <v>1079800</v>
+        <v>1152000</v>
       </c>
       <c r="H83" s="3">
-        <v>1076400</v>
+        <v>1008600</v>
       </c>
       <c r="I83" s="3">
-        <v>1133800</v>
+        <v>1005400</v>
       </c>
       <c r="J83" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1144700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>894500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>851100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2347700</v>
+        <v>4160000</v>
       </c>
       <c r="E89" s="3">
-        <v>1970700</v>
+        <v>2196800</v>
       </c>
       <c r="F89" s="3">
-        <v>2055900</v>
+        <v>1840800</v>
       </c>
       <c r="G89" s="3">
-        <v>2083300</v>
+        <v>1920400</v>
       </c>
       <c r="H89" s="3">
-        <v>1819000</v>
+        <v>1946000</v>
       </c>
       <c r="I89" s="3">
-        <v>1151200</v>
+        <v>1699100</v>
       </c>
       <c r="J89" s="3">
+        <v>1075300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2180000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1260600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>369500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-794900</v>
+        <v>-300900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1427900</v>
+        <v>-742500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1064300</v>
+        <v>-1333700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1402800</v>
+        <v>-994200</v>
       </c>
       <c r="H91" s="3">
-        <v>-984900</v>
+        <v>-1310300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1451100</v>
+        <v>-920000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1355500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1268100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1296600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1312600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1269300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>304900</v>
+        <v>-109700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2113300</v>
+        <v>284800</v>
       </c>
       <c r="F94" s="3">
-        <v>-872300</v>
+        <v>-1974000</v>
       </c>
       <c r="G94" s="3">
-        <v>-883100</v>
+        <v>-814800</v>
       </c>
       <c r="H94" s="3">
-        <v>-788600</v>
+        <v>-824800</v>
       </c>
       <c r="I94" s="3">
-        <v>377500</v>
+        <v>-736600</v>
       </c>
       <c r="J94" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-776400</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3322000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1441700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,11 +3793,14 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2488400</v>
+        <v>-2723000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1652400</v>
+        <v>-2324400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2568400</v>
+        <v>-1543500</v>
       </c>
       <c r="G100" s="3">
-        <v>-536200</v>
+        <v>-2399100</v>
       </c>
       <c r="H100" s="3">
-        <v>-579300</v>
+        <v>-500900</v>
       </c>
       <c r="I100" s="3">
-        <v>-855900</v>
+        <v>-541100</v>
       </c>
       <c r="J100" s="3">
+        <v>-799500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-633600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2931100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1312300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13900</v>
+        <v>10900</v>
       </c>
       <c r="E101" s="3">
-        <v>3300</v>
+        <v>-13000</v>
       </c>
       <c r="F101" s="3">
-        <v>9000</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-35000</v>
+        <v>8500</v>
       </c>
       <c r="H101" s="3">
-        <v>30200</v>
+        <v>-32700</v>
       </c>
       <c r="I101" s="3">
-        <v>18100</v>
+        <v>28200</v>
       </c>
       <c r="J101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>150200</v>
+        <v>1338300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1791700</v>
+        <v>144200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1375700</v>
+        <v>-1673600</v>
       </c>
       <c r="G102" s="3">
-        <v>629100</v>
+        <v>-1285000</v>
       </c>
       <c r="H102" s="3">
-        <v>481400</v>
+        <v>587600</v>
       </c>
       <c r="I102" s="3">
-        <v>690900</v>
+        <v>449700</v>
       </c>
       <c r="J102" s="3">
+        <v>645300</v>
+      </c>
+      <c r="K102" s="3">
         <v>771000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>354200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-219200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>238700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACH_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39750100</v>
+        <v>39391300</v>
       </c>
       <c r="E8" s="3">
-        <v>27407600</v>
+        <v>27160200</v>
       </c>
       <c r="F8" s="3">
-        <v>28030100</v>
+        <v>27777200</v>
       </c>
       <c r="G8" s="3">
-        <v>26560400</v>
+        <v>26320700</v>
       </c>
       <c r="H8" s="3">
-        <v>26675200</v>
+        <v>26434400</v>
       </c>
       <c r="I8" s="3">
-        <v>21253600</v>
+        <v>21061700</v>
       </c>
       <c r="J8" s="3">
-        <v>18195300</v>
+        <v>18031100</v>
       </c>
       <c r="K8" s="3">
         <v>22401900</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35848300</v>
+        <v>35524700</v>
       </c>
       <c r="E9" s="3">
-        <v>25592600</v>
+        <v>25361600</v>
       </c>
       <c r="F9" s="3">
-        <v>26240100</v>
+        <v>26003300</v>
       </c>
       <c r="G9" s="3">
-        <v>24613500</v>
+        <v>24391300</v>
       </c>
       <c r="H9" s="3">
-        <v>24540200</v>
+        <v>24318700</v>
       </c>
       <c r="I9" s="3">
-        <v>19698300</v>
+        <v>19520500</v>
       </c>
       <c r="J9" s="3">
-        <v>17828000</v>
+        <v>17667100</v>
       </c>
       <c r="K9" s="3">
         <v>44562100</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3901800</v>
+        <v>3866600</v>
       </c>
       <c r="E10" s="3">
-        <v>1814900</v>
+        <v>1798600</v>
       </c>
       <c r="F10" s="3">
-        <v>1790000</v>
+        <v>1773900</v>
       </c>
       <c r="G10" s="3">
-        <v>1946900</v>
+        <v>1929300</v>
       </c>
       <c r="H10" s="3">
-        <v>2134900</v>
+        <v>2115700</v>
       </c>
       <c r="I10" s="3">
-        <v>1555300</v>
+        <v>1541300</v>
       </c>
       <c r="J10" s="3">
-        <v>367300</v>
+        <v>364000</v>
       </c>
       <c r="K10" s="3">
         <v>-22160200</v>
@@ -859,25 +859,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>320800</v>
+        <v>317900</v>
       </c>
       <c r="E12" s="3">
-        <v>188400</v>
+        <v>186700</v>
       </c>
       <c r="F12" s="3">
-        <v>138600</v>
+        <v>137400</v>
       </c>
       <c r="G12" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="H12" s="3">
-        <v>73400</v>
+        <v>72800</v>
       </c>
       <c r="I12" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="J12" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="K12" s="3">
         <v>46300</v>
@@ -937,25 +937,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>551200</v>
+        <v>546200</v>
       </c>
       <c r="E14" s="3">
-        <v>204000</v>
+        <v>202200</v>
       </c>
       <c r="F14" s="3">
-        <v>-80800</v>
+        <v>-80100</v>
       </c>
       <c r="G14" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="H14" s="3">
-        <v>-45500</v>
+        <v>-45100</v>
       </c>
       <c r="I14" s="3">
-        <v>-94800</v>
+        <v>-93900</v>
       </c>
       <c r="J14" s="3">
-        <v>-502600</v>
+        <v>-498000</v>
       </c>
       <c r="K14" s="3">
         <v>935300</v>
@@ -976,25 +976,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="E15" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="F15" s="3">
-        <v>31600</v>
+        <v>31400</v>
       </c>
       <c r="G15" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="H15" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="I15" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="J15" s="3">
-        <v>33500</v>
+        <v>33200</v>
       </c>
       <c r="K15" s="3">
         <v>40000</v>
@@ -1029,25 +1029,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>37774200</v>
+        <v>37433200</v>
       </c>
       <c r="E17" s="3">
-        <v>26515100</v>
+        <v>26275800</v>
       </c>
       <c r="F17" s="3">
-        <v>27078100</v>
+        <v>26833700</v>
       </c>
       <c r="G17" s="3">
-        <v>25556100</v>
+        <v>25325500</v>
       </c>
       <c r="H17" s="3">
-        <v>25540100</v>
+        <v>25309600</v>
       </c>
       <c r="I17" s="3">
-        <v>20397400</v>
+        <v>20213300</v>
       </c>
       <c r="J17" s="3">
-        <v>17461800</v>
+        <v>17304200</v>
       </c>
       <c r="K17" s="3">
         <v>24093500</v>
@@ -1068,25 +1068,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1975900</v>
+        <v>1958100</v>
       </c>
       <c r="E18" s="3">
-        <v>892500</v>
+        <v>884400</v>
       </c>
       <c r="F18" s="3">
-        <v>952000</v>
+        <v>943400</v>
       </c>
       <c r="G18" s="3">
-        <v>1004200</v>
+        <v>995200</v>
       </c>
       <c r="H18" s="3">
-        <v>1135100</v>
+        <v>1124800</v>
       </c>
       <c r="I18" s="3">
-        <v>856200</v>
+        <v>848500</v>
       </c>
       <c r="J18" s="3">
-        <v>733500</v>
+        <v>726900</v>
       </c>
       <c r="K18" s="3">
         <v>-1691600</v>
@@ -1124,25 +1124,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>102000</v>
+        <v>101100</v>
       </c>
       <c r="E20" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="F20" s="3">
-        <v>94700</v>
+        <v>93900</v>
       </c>
       <c r="G20" s="3">
-        <v>50100</v>
+        <v>49700</v>
       </c>
       <c r="H20" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="I20" s="3">
-        <v>132000</v>
+        <v>130800</v>
       </c>
       <c r="J20" s="3">
-        <v>150900</v>
+        <v>149600</v>
       </c>
       <c r="K20" s="3">
         <v>233000</v>
@@ -1163,25 +1163,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3346400</v>
+        <v>3301800</v>
       </c>
       <c r="E21" s="3">
-        <v>2215000</v>
+        <v>2180800</v>
       </c>
       <c r="F21" s="3">
-        <v>2318100</v>
+        <v>2282800</v>
       </c>
       <c r="G21" s="3">
-        <v>2217900</v>
+        <v>2184700</v>
       </c>
       <c r="H21" s="3">
-        <v>2215500</v>
+        <v>2183900</v>
       </c>
       <c r="I21" s="3">
-        <v>2003600</v>
+        <v>1974100</v>
       </c>
       <c r="J21" s="3">
-        <v>1954100</v>
+        <v>1924400</v>
       </c>
       <c r="K21" s="3">
         <v>-310000</v>
@@ -1202,25 +1202,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>578000</v>
+        <v>572800</v>
       </c>
       <c r="E22" s="3">
-        <v>640200</v>
+        <v>634400</v>
       </c>
       <c r="F22" s="3">
-        <v>734500</v>
+        <v>727900</v>
       </c>
       <c r="G22" s="3">
-        <v>720600</v>
+        <v>714100</v>
       </c>
       <c r="H22" s="3">
-        <v>747400</v>
+        <v>740600</v>
       </c>
       <c r="I22" s="3">
-        <v>748600</v>
+        <v>741900</v>
       </c>
       <c r="J22" s="3">
-        <v>864300</v>
+        <v>856500</v>
       </c>
       <c r="K22" s="3">
         <v>1060200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1499900</v>
+        <v>1486400</v>
       </c>
       <c r="E23" s="3">
-        <v>322600</v>
+        <v>319700</v>
       </c>
       <c r="F23" s="3">
-        <v>312300</v>
+        <v>309400</v>
       </c>
       <c r="G23" s="3">
-        <v>333700</v>
+        <v>330700</v>
       </c>
       <c r="H23" s="3">
-        <v>449300</v>
+        <v>445200</v>
       </c>
       <c r="I23" s="3">
-        <v>239500</v>
+        <v>237400</v>
       </c>
       <c r="J23" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="K23" s="3">
         <v>-2518800</v>
@@ -1280,25 +1280,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>352200</v>
+        <v>349000</v>
       </c>
       <c r="E24" s="3">
-        <v>86900</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>92600</v>
+        <v>91800</v>
       </c>
       <c r="G24" s="3">
-        <v>121200</v>
+        <v>120100</v>
       </c>
       <c r="H24" s="3">
-        <v>94900</v>
+        <v>94000</v>
       </c>
       <c r="I24" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="J24" s="3">
-        <v>-33900</v>
+        <v>-33600</v>
       </c>
       <c r="K24" s="3">
         <v>169600</v>
@@ -1358,25 +1358,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1147800</v>
+        <v>1137400</v>
       </c>
       <c r="E26" s="3">
-        <v>235700</v>
+        <v>233500</v>
       </c>
       <c r="F26" s="3">
-        <v>219700</v>
+        <v>217700</v>
       </c>
       <c r="G26" s="3">
-        <v>212500</v>
+        <v>210600</v>
       </c>
       <c r="H26" s="3">
-        <v>354400</v>
+        <v>351200</v>
       </c>
       <c r="I26" s="3">
-        <v>180000</v>
+        <v>178400</v>
       </c>
       <c r="J26" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="K26" s="3">
         <v>-2688300</v>
@@ -1397,25 +1397,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>717700</v>
+        <v>711200</v>
       </c>
       <c r="E27" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="F27" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="G27" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="H27" s="3">
-        <v>192000</v>
+        <v>190300</v>
       </c>
       <c r="I27" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J27" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K27" s="3">
         <v>-2557000</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102000</v>
+        <v>-101100</v>
       </c>
       <c r="E32" s="3">
-        <v>-70300</v>
+        <v>-69700</v>
       </c>
       <c r="F32" s="3">
-        <v>-94700</v>
+        <v>-93900</v>
       </c>
       <c r="G32" s="3">
-        <v>-50100</v>
+        <v>-49700</v>
       </c>
       <c r="H32" s="3">
-        <v>-61600</v>
+        <v>-61000</v>
       </c>
       <c r="I32" s="3">
-        <v>-132000</v>
+        <v>-130800</v>
       </c>
       <c r="J32" s="3">
-        <v>-150900</v>
+        <v>-149600</v>
       </c>
       <c r="K32" s="3">
         <v>-233000</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>717700</v>
+        <v>711200</v>
       </c>
       <c r="E33" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="F33" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="G33" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="H33" s="3">
-        <v>192000</v>
+        <v>190300</v>
       </c>
       <c r="I33" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J33" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K33" s="3">
         <v>-2557000</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>717700</v>
+        <v>711200</v>
       </c>
       <c r="E35" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="F35" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="G35" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="H35" s="3">
-        <v>192000</v>
+        <v>190300</v>
       </c>
       <c r="I35" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J35" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K35" s="3">
         <v>-2557000</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2630900</v>
+        <v>2607100</v>
       </c>
       <c r="E41" s="3">
-        <v>1425200</v>
+        <v>1412300</v>
       </c>
       <c r="F41" s="3">
-        <v>1146300</v>
+        <v>1135900</v>
       </c>
       <c r="G41" s="3">
-        <v>2819100</v>
+        <v>2793700</v>
       </c>
       <c r="H41" s="3">
-        <v>4101900</v>
+        <v>4064900</v>
       </c>
       <c r="I41" s="3">
-        <v>3509200</v>
+        <v>3477500</v>
       </c>
       <c r="J41" s="3">
-        <v>3058600</v>
+        <v>3031000</v>
       </c>
       <c r="K41" s="3">
         <v>2566500</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>102100</v>
+        <v>101200</v>
       </c>
       <c r="E42" s="3">
-        <v>203800</v>
+        <v>202000</v>
       </c>
       <c r="F42" s="3">
-        <v>690900</v>
+        <v>684700</v>
       </c>
       <c r="G42" s="3">
-        <v>177100</v>
+        <v>175500</v>
       </c>
       <c r="H42" s="3">
-        <v>149800</v>
+        <v>148400</v>
       </c>
       <c r="I42" s="3">
-        <v>140700</v>
+        <v>139400</v>
       </c>
       <c r="J42" s="3">
-        <v>158700</v>
+        <v>157300</v>
       </c>
       <c r="K42" s="3">
         <v>854600</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1328700</v>
+        <v>1316700</v>
       </c>
       <c r="E43" s="3">
-        <v>1961000</v>
+        <v>1943300</v>
       </c>
       <c r="F43" s="3">
-        <v>2044900</v>
+        <v>2026500</v>
       </c>
       <c r="G43" s="3">
-        <v>2080400</v>
+        <v>2061700</v>
       </c>
       <c r="H43" s="3">
-        <v>2231200</v>
+        <v>2211100</v>
       </c>
       <c r="I43" s="3">
-        <v>2642700</v>
+        <v>2618800</v>
       </c>
       <c r="J43" s="3">
-        <v>2235700</v>
+        <v>2215500</v>
       </c>
       <c r="K43" s="3">
         <v>2222000</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2752400</v>
+        <v>2727500</v>
       </c>
       <c r="E44" s="3">
-        <v>2926800</v>
+        <v>2900400</v>
       </c>
       <c r="F44" s="3">
-        <v>5751600</v>
+        <v>5699700</v>
       </c>
       <c r="G44" s="3">
-        <v>3014900</v>
+        <v>2987700</v>
       </c>
       <c r="H44" s="3">
-        <v>3027900</v>
+        <v>3000600</v>
       </c>
       <c r="I44" s="3">
-        <v>2642700</v>
+        <v>2618800</v>
       </c>
       <c r="J44" s="3">
-        <v>5970800</v>
+        <v>5916900</v>
       </c>
       <c r="K44" s="3">
         <v>3556400</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364500</v>
+        <v>361200</v>
       </c>
       <c r="E45" s="3">
-        <v>301300</v>
+        <v>298600</v>
       </c>
       <c r="F45" s="3">
-        <v>1779900</v>
+        <v>1763800</v>
       </c>
       <c r="G45" s="3">
-        <v>588200</v>
+        <v>582900</v>
       </c>
       <c r="H45" s="3">
-        <v>604600</v>
+        <v>599200</v>
       </c>
       <c r="I45" s="3">
-        <v>862200</v>
+        <v>854500</v>
       </c>
       <c r="J45" s="3">
-        <v>3383900</v>
+        <v>3353400</v>
       </c>
       <c r="K45" s="3">
         <v>1416000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7178500</v>
+        <v>7113700</v>
       </c>
       <c r="E46" s="3">
-        <v>6818100</v>
+        <v>6756600</v>
       </c>
       <c r="F46" s="3">
-        <v>7176600</v>
+        <v>7111900</v>
       </c>
       <c r="G46" s="3">
-        <v>8679700</v>
+        <v>8601400</v>
       </c>
       <c r="H46" s="3">
-        <v>10115400</v>
+        <v>10024100</v>
       </c>
       <c r="I46" s="3">
-        <v>9797500</v>
+        <v>9709000</v>
       </c>
       <c r="J46" s="3">
-        <v>9499200</v>
+        <v>9413400</v>
       </c>
       <c r="K46" s="3">
         <v>10032900</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1965600</v>
+        <v>1947900</v>
       </c>
       <c r="E47" s="3">
-        <v>2092900</v>
+        <v>2074000</v>
       </c>
       <c r="F47" s="3">
-        <v>2249600</v>
+        <v>2229300</v>
       </c>
       <c r="G47" s="3">
-        <v>1722800</v>
+        <v>1707300</v>
       </c>
       <c r="H47" s="3">
-        <v>2229900</v>
+        <v>2209700</v>
       </c>
       <c r="I47" s="3">
-        <v>2018500</v>
+        <v>2000200</v>
       </c>
       <c r="J47" s="3">
-        <v>3389100</v>
+        <v>3358500</v>
       </c>
       <c r="K47" s="3">
         <v>2498100</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16738300</v>
+        <v>16587200</v>
       </c>
       <c r="E48" s="3">
-        <v>17182500</v>
+        <v>17027400</v>
       </c>
       <c r="F48" s="3">
-        <v>18023000</v>
+        <v>17860300</v>
       </c>
       <c r="G48" s="3">
-        <v>15827200</v>
+        <v>15684400</v>
       </c>
       <c r="H48" s="3">
-        <v>14288000</v>
+        <v>14159100</v>
       </c>
       <c r="I48" s="3">
-        <v>13575400</v>
+        <v>13452900</v>
       </c>
       <c r="J48" s="3">
-        <v>26794400</v>
+        <v>26552600</v>
       </c>
       <c r="K48" s="3">
         <v>12675300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1913700</v>
+        <v>1896500</v>
       </c>
       <c r="E49" s="3">
-        <v>1981700</v>
+        <v>1963900</v>
       </c>
       <c r="F49" s="3">
-        <v>2028300</v>
+        <v>2010000</v>
       </c>
       <c r="G49" s="3">
-        <v>2532600</v>
+        <v>2509700</v>
       </c>
       <c r="H49" s="3">
-        <v>2094700</v>
+        <v>2075800</v>
       </c>
       <c r="I49" s="3">
-        <v>2056400</v>
+        <v>2037800</v>
       </c>
       <c r="J49" s="3">
-        <v>3984000</v>
+        <v>3948100</v>
       </c>
       <c r="K49" s="3">
         <v>2248800</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>552500</v>
+        <v>547500</v>
       </c>
       <c r="E52" s="3">
-        <v>666000</v>
+        <v>660000</v>
       </c>
       <c r="F52" s="3">
-        <v>1151000</v>
+        <v>1140600</v>
       </c>
       <c r="G52" s="3">
-        <v>851800</v>
+        <v>844100</v>
       </c>
       <c r="H52" s="3">
-        <v>717000</v>
+        <v>710600</v>
       </c>
       <c r="I52" s="3">
-        <v>626100</v>
+        <v>620400</v>
       </c>
       <c r="J52" s="3">
-        <v>2206000</v>
+        <v>2186100</v>
       </c>
       <c r="K52" s="3">
         <v>794800</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28348700</v>
+        <v>28092800</v>
       </c>
       <c r="E54" s="3">
-        <v>28741200</v>
+        <v>28481800</v>
       </c>
       <c r="F54" s="3">
-        <v>29934300</v>
+        <v>29664200</v>
       </c>
       <c r="G54" s="3">
-        <v>29614200</v>
+        <v>29346900</v>
       </c>
       <c r="H54" s="3">
-        <v>29445000</v>
+        <v>29179200</v>
       </c>
       <c r="I54" s="3">
-        <v>28073800</v>
+        <v>27820400</v>
       </c>
       <c r="J54" s="3">
-        <v>28301700</v>
+        <v>28046300</v>
       </c>
       <c r="K54" s="3">
         <v>30423000</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2284900</v>
+        <v>2264300</v>
       </c>
       <c r="E57" s="3">
-        <v>2275900</v>
+        <v>2255300</v>
       </c>
       <c r="F57" s="3">
-        <v>1858000</v>
+        <v>1841300</v>
       </c>
       <c r="G57" s="3">
-        <v>2064400</v>
+        <v>2045800</v>
       </c>
       <c r="H57" s="3">
-        <v>1821400</v>
+        <v>1805000</v>
       </c>
       <c r="I57" s="3">
-        <v>1671500</v>
+        <v>1656400</v>
       </c>
       <c r="J57" s="3">
-        <v>2170100</v>
+        <v>2150500</v>
       </c>
       <c r="K57" s="3">
         <v>5951800</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3611200</v>
+        <v>3578600</v>
       </c>
       <c r="E58" s="3">
-        <v>5114500</v>
+        <v>5068300</v>
       </c>
       <c r="F58" s="3">
-        <v>6431600</v>
+        <v>6373500</v>
       </c>
       <c r="G58" s="3">
-        <v>7009300</v>
+        <v>6946000</v>
       </c>
       <c r="H58" s="3">
-        <v>9280900</v>
+        <v>9197100</v>
       </c>
       <c r="I58" s="3">
-        <v>8614600</v>
+        <v>8536800</v>
       </c>
       <c r="J58" s="3">
-        <v>8069600</v>
+        <v>7996800</v>
       </c>
       <c r="K58" s="3">
         <v>12714400</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1793300</v>
+        <v>1777100</v>
       </c>
       <c r="E59" s="3">
-        <v>3424000</v>
+        <v>3393100</v>
       </c>
       <c r="F59" s="3">
-        <v>3941900</v>
+        <v>3906300</v>
       </c>
       <c r="G59" s="3">
-        <v>1954300</v>
+        <v>1936700</v>
       </c>
       <c r="H59" s="3">
-        <v>4078100</v>
+        <v>4041300</v>
       </c>
       <c r="I59" s="3">
-        <v>1971300</v>
+        <v>1953500</v>
       </c>
       <c r="J59" s="3">
-        <v>3551400</v>
+        <v>3519400</v>
       </c>
       <c r="K59" s="3">
         <v>2100100</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7689400</v>
+        <v>7620000</v>
       </c>
       <c r="E60" s="3">
-        <v>9229600</v>
+        <v>9146300</v>
       </c>
       <c r="F60" s="3">
-        <v>10197800</v>
+        <v>10105700</v>
       </c>
       <c r="G60" s="3">
-        <v>11027900</v>
+        <v>10928400</v>
       </c>
       <c r="H60" s="3">
-        <v>13312100</v>
+        <v>13191900</v>
       </c>
       <c r="I60" s="3">
-        <v>12257400</v>
+        <v>12146800</v>
       </c>
       <c r="J60" s="3">
-        <v>12055100</v>
+        <v>11946300</v>
       </c>
       <c r="K60" s="3">
         <v>16473600</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9445200</v>
+        <v>9359900</v>
       </c>
       <c r="E61" s="3">
-        <v>8475900</v>
+        <v>8399400</v>
       </c>
       <c r="F61" s="3">
-        <v>8730100</v>
+        <v>8651300</v>
       </c>
       <c r="G61" s="3">
-        <v>7988000</v>
+        <v>7915900</v>
       </c>
       <c r="H61" s="3">
-        <v>5937100</v>
+        <v>5883500</v>
       </c>
       <c r="I61" s="3">
-        <v>6973500</v>
+        <v>6910500</v>
       </c>
       <c r="J61" s="3">
-        <v>7957600</v>
+        <v>7885700</v>
       </c>
       <c r="K61" s="3">
         <v>7062800</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>488800</v>
+        <v>484300</v>
       </c>
       <c r="E62" s="3">
-        <v>528200</v>
+        <v>523500</v>
       </c>
       <c r="F62" s="3">
-        <v>906700</v>
+        <v>898500</v>
       </c>
       <c r="G62" s="3">
-        <v>626400</v>
+        <v>620800</v>
       </c>
       <c r="H62" s="3">
-        <v>508000</v>
+        <v>503400</v>
       </c>
       <c r="I62" s="3">
-        <v>622200</v>
+        <v>616500</v>
       </c>
       <c r="J62" s="3">
-        <v>1128700</v>
+        <v>1118500</v>
       </c>
       <c r="K62" s="3">
         <v>630800</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19910100</v>
+        <v>19730400</v>
       </c>
       <c r="E66" s="3">
-        <v>20717600</v>
+        <v>20530600</v>
       </c>
       <c r="F66" s="3">
-        <v>21877900</v>
+        <v>21680400</v>
       </c>
       <c r="G66" s="3">
-        <v>21890200</v>
+        <v>21692700</v>
       </c>
       <c r="H66" s="3">
-        <v>23596600</v>
+        <v>23383600</v>
       </c>
       <c r="I66" s="3">
-        <v>22449300</v>
+        <v>22246700</v>
       </c>
       <c r="J66" s="3">
-        <v>22413800</v>
+        <v>22211500</v>
       </c>
       <c r="K66" s="3">
         <v>25958300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1497700</v>
+        <v>1484200</v>
       </c>
       <c r="E72" s="3">
-        <v>771200</v>
+        <v>764300</v>
       </c>
       <c r="F72" s="3">
-        <v>723300</v>
+        <v>716800</v>
       </c>
       <c r="G72" s="3">
-        <v>2188000</v>
+        <v>2168200</v>
       </c>
       <c r="H72" s="3">
-        <v>535700</v>
+        <v>530800</v>
       </c>
       <c r="I72" s="3">
-        <v>341200</v>
+        <v>338100</v>
       </c>
       <c r="J72" s="3">
-        <v>4596400</v>
+        <v>4554900</v>
       </c>
       <c r="K72" s="3">
         <v>294300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8438500</v>
+        <v>8362400</v>
       </c>
       <c r="E76" s="3">
-        <v>8023700</v>
+        <v>7951200</v>
       </c>
       <c r="F76" s="3">
-        <v>8056500</v>
+        <v>7983700</v>
       </c>
       <c r="G76" s="3">
-        <v>7723900</v>
+        <v>7654200</v>
       </c>
       <c r="H76" s="3">
-        <v>5848400</v>
+        <v>5795600</v>
       </c>
       <c r="I76" s="3">
-        <v>5624500</v>
+        <v>5573700</v>
       </c>
       <c r="J76" s="3">
-        <v>5887900</v>
+        <v>5834800</v>
       </c>
       <c r="K76" s="3">
         <v>4464700</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>717700</v>
+        <v>711200</v>
       </c>
       <c r="E81" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="F81" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="G81" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="H81" s="3">
-        <v>192000</v>
+        <v>190300</v>
       </c>
       <c r="I81" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J81" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K81" s="3">
         <v>-2557000</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1255800</v>
+        <v>1244500</v>
       </c>
       <c r="E83" s="3">
-        <v>1239700</v>
+        <v>1228500</v>
       </c>
       <c r="F83" s="3">
-        <v>1258800</v>
+        <v>1247400</v>
       </c>
       <c r="G83" s="3">
-        <v>1152000</v>
+        <v>1141600</v>
       </c>
       <c r="H83" s="3">
-        <v>1008600</v>
+        <v>999500</v>
       </c>
       <c r="I83" s="3">
-        <v>1005400</v>
+        <v>996300</v>
       </c>
       <c r="J83" s="3">
-        <v>1059000</v>
+        <v>1049500</v>
       </c>
       <c r="K83" s="3">
         <v>1144700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4160000</v>
+        <v>4122500</v>
       </c>
       <c r="E89" s="3">
-        <v>2196800</v>
+        <v>2176900</v>
       </c>
       <c r="F89" s="3">
-        <v>1840800</v>
+        <v>1824200</v>
       </c>
       <c r="G89" s="3">
-        <v>1920400</v>
+        <v>1903100</v>
       </c>
       <c r="H89" s="3">
-        <v>1946000</v>
+        <v>1928400</v>
       </c>
       <c r="I89" s="3">
-        <v>1699100</v>
+        <v>1683800</v>
       </c>
       <c r="J89" s="3">
-        <v>1075300</v>
+        <v>1065600</v>
       </c>
       <c r="K89" s="3">
         <v>2180000</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300900</v>
+        <v>-298200</v>
       </c>
       <c r="E91" s="3">
-        <v>-742500</v>
+        <v>-735800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1333700</v>
+        <v>-1321700</v>
       </c>
       <c r="G91" s="3">
-        <v>-994200</v>
+        <v>-985200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1310300</v>
+        <v>-1298500</v>
       </c>
       <c r="I91" s="3">
-        <v>-920000</v>
+        <v>-911700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1355500</v>
+        <v>-1343200</v>
       </c>
       <c r="K91" s="3">
         <v>-1268100</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109700</v>
+        <v>-108700</v>
       </c>
       <c r="E94" s="3">
-        <v>284800</v>
+        <v>282200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1974000</v>
+        <v>-1956200</v>
       </c>
       <c r="G94" s="3">
-        <v>-814800</v>
+        <v>-807400</v>
       </c>
       <c r="H94" s="3">
-        <v>-824800</v>
+        <v>-817400</v>
       </c>
       <c r="I94" s="3">
-        <v>-736600</v>
+        <v>-729900</v>
       </c>
       <c r="J94" s="3">
-        <v>352600</v>
+        <v>349500</v>
       </c>
       <c r="K94" s="3">
         <v>-776400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2723000</v>
+        <v>-2698400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2324400</v>
+        <v>-2303400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1543500</v>
+        <v>-1529500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2399100</v>
+        <v>-2377500</v>
       </c>
       <c r="H100" s="3">
-        <v>-500900</v>
+        <v>-496400</v>
       </c>
       <c r="I100" s="3">
-        <v>-541100</v>
+        <v>-536200</v>
       </c>
       <c r="J100" s="3">
-        <v>-799500</v>
+        <v>-792300</v>
       </c>
       <c r="K100" s="3">
         <v>-633600</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="F101" s="3">
         <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="I101" s="3">
-        <v>28200</v>
+        <v>28000</v>
       </c>
       <c r="J101" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K101" s="3">
         <v>900</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1338300</v>
+        <v>1326200</v>
       </c>
       <c r="E102" s="3">
-        <v>144200</v>
+        <v>142900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1673600</v>
+        <v>-1658500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1285000</v>
+        <v>-1273400</v>
       </c>
       <c r="H102" s="3">
-        <v>587600</v>
+        <v>582300</v>
       </c>
       <c r="I102" s="3">
-        <v>449700</v>
+        <v>445600</v>
       </c>
       <c r="J102" s="3">
-        <v>645300</v>
+        <v>639500</v>
       </c>
       <c r="K102" s="3">
         <v>771000</v>
